--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,101 +125,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -599,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1714,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1792,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="12.85546875"/>
+    <col width="12.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016008057</v>
+        <v>2014001068</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1906,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012005821</v>
+        <v>2013005382</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1944,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2012008216</v>
+        <v>2016002234</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1959,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1982,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2013007814</v>
+        <v>2013001813</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -2020,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013005525</v>
+        <v>2013006901</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2058,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2012007255</v>
+        <v>2016005514</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2073,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2096,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2015008137</v>
+        <v>2015007418</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2134,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2012006436</v>
+        <v>2013000499</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2149,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2172,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2016006092</v>
+        <v>2015005970</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2187,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2210,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2014006289</v>
+        <v>2013007752</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2248,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2012007652</v>
+        <v>2014007382</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2263,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2286,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2016006615</v>
+        <v>2013005608</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2301,7 +2233,7 @@
         <v>7.4</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
         <v>250</v>
@@ -2324,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2014002238</v>
+        <v>2013004144</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2339,7 +2271,7 @@
         <v>7.4</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n">
         <v>250</v>
@@ -2362,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2016005160</v>
+        <v>2013007360</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2400,7 +2332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2014005924</v>
+        <v>2016006035</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2415,7 +2347,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2438,7 +2370,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2015008771</v>
+        <v>2015005419</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2453,7 +2385,7 @@
         <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
         <v>250</v>
@@ -2474,8 +2406,274 @@
         <v>150</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2015004553</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>75</v>
+      </c>
+      <c r="G18" t="n">
+        <v>250</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2014008845</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>250</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2015002644</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>40</v>
+      </c>
+      <c r="G20" t="n">
+        <v>250</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2014001122</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2014005039</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>60</v>
+      </c>
+      <c r="G22" t="n">
+        <v>250</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2016008028</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>40</v>
+      </c>
+      <c r="G23" t="n">
+        <v>250</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2013005153</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>75</v>
+      </c>
+      <c r="G24" t="n">
+        <v>250</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2485,7 +2683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -2493,7 +2691,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.85546875"/>
+    <col width="15.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2525,101 +2723,101 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016008057</v>
+        <v>2014001068</v>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>68.82013438327786</v>
+        <v>52.30830598327788</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>74.17639104940011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012005821</v>
+        <v>2013005382</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>26.09530186054122</v>
+        <v>26.54591706054121</v>
       </c>
       <c r="E3" t="n">
-        <v>30.43663519387455</v>
+        <v>39.99957564145088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012005821</v>
+        <v>2016002234</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>28.25244172720788</v>
+        <v>13.05648799824406</v>
       </c>
       <c r="E4" t="n">
-        <v>39.99930352118072</v>
+        <v>17.39782133157739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2012008216</v>
+        <v>2016002234</v>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D5" t="n">
-        <v>8.852306790467344</v>
+        <v>13.8411799315774</v>
       </c>
       <c r="E5" t="n">
-        <v>29.99999999446736</v>
+        <v>23.56586666491075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2013007814</v>
+        <v>2013001813</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D6" t="n">
-        <v>5.141695060541203</v>
+        <v>31.29990742054121</v>
       </c>
       <c r="E6" t="n">
-        <v>39.99806692950089</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2013005525</v>
+        <v>2013006901</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D7" t="n">
-        <v>73.45503358327787</v>
+        <v>62.89776318327788</v>
       </c>
       <c r="E7" t="n">
         <v>75</v>
@@ -2627,67 +2825,67 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2012007255</v>
+        <v>2016005514</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
-        <v>26.67832223446736</v>
+        <v>38.35847266054121</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012007255</v>
+        <v>2015007418</v>
       </c>
       <c r="B9" t="n">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D9" t="n">
-        <v>29.72319352</v>
+        <v>37.81129706054121</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2015008137</v>
+        <v>2013000499</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D10" t="n">
-        <v>33.7074800605412</v>
+        <v>57.03881439566239</v>
       </c>
       <c r="E10" t="n">
-        <v>37.07049673119262</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2015008137</v>
+        <v>2015005970</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4528244</v>
+        <v>38.35847266054121</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
@@ -2695,152 +2893,152 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2012006436</v>
+        <v>2013007752</v>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="C12" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>36.9905336605412</v>
+        <v>74.22751679999998</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2016006092</v>
+        <v>2014007382</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>22.63206099824407</v>
+        <v>57.7791107956624</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2014006289</v>
+        <v>2014007382</v>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D14" t="n">
-        <v>72.29630878327788</v>
+        <v>57.03881440000001</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2014006289</v>
+        <v>2013005608</v>
       </c>
       <c r="B15" t="n">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D15" t="n">
-        <v>72.29630879999998</v>
+        <v>6.500751162260977</v>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>39.99717769207001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2012007652</v>
+        <v>2013004144</v>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>71.13758398327788</v>
+        <v>12.79238760431826</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>25.56743964143774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2016006615</v>
+        <v>2013004144</v>
       </c>
       <c r="B17" t="n">
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D17" t="n">
-        <v>15.10839649824406</v>
+        <v>28.39452241046734</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2014002238</v>
+        <v>2013007360</v>
       </c>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D18" t="n">
-        <v>66.5026847832779</v>
+        <v>12.38893376624406</v>
       </c>
       <c r="E18" t="n">
-        <v>75</v>
+        <v>23.45733333157741</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2016005160</v>
+        <v>2016006035</v>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D19" t="n">
-        <v>20.16977079824407</v>
+        <v>72.10318798327788</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2014005924</v>
+        <v>2015005419</v>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D20" t="n">
-        <v>38.3584726605412</v>
+        <v>38.72781619054121</v>
       </c>
       <c r="E20" t="n">
         <v>40</v>
@@ -2848,16 +3046,16 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2014005924</v>
+        <v>2015005419</v>
       </c>
       <c r="B21" t="n">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C21" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D21" t="n">
-        <v>38.3584732</v>
+        <v>38.632061</v>
       </c>
       <c r="E21" t="n">
         <v>40</v>
@@ -2865,58 +3063,227 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2014005924</v>
+        <v>2015004553</v>
       </c>
       <c r="B22" t="n">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>38.24903808000001</v>
+        <v>73.06879198327788</v>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>2015008771</v>
+        <v>2015004553</v>
       </c>
       <c r="B23" t="n">
+        <v>32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>46</v>
+      </c>
+      <c r="D23" t="n">
+        <v>73.068792</v>
+      </c>
+      <c r="E23" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>2015004553</v>
+      </c>
+      <c r="B24" t="n">
+        <v>47</v>
+      </c>
+      <c r="C24" t="n">
+        <v>143</v>
+      </c>
+      <c r="D24" t="n">
+        <v>74.42063759999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>2014008845</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
+        <v>116</v>
+      </c>
+      <c r="D25" t="n">
+        <v>73.03016782327788</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>2015002644</v>
+      </c>
+      <c r="B26" t="n">
+        <v>118</v>
+      </c>
+      <c r="C26" t="n">
+        <v>130</v>
+      </c>
+      <c r="D26" t="n">
+        <v>39.72641220000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>2015002644</v>
+      </c>
+      <c r="B27" t="n">
+        <v>141</v>
+      </c>
+      <c r="C27" t="n">
+        <v>143</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36.5801525</v>
+      </c>
+      <c r="E27" t="n">
+        <v>37.65257209642213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>2014001122</v>
+      </c>
+      <c r="B28" t="n">
         <v>24</v>
       </c>
-      <c r="C23" t="n">
-        <v>114</v>
-      </c>
-      <c r="D23" t="n">
-        <v>53.33733239566239</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="C28" t="n">
+        <v>28</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25.903264096</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28.1546551975402</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>2014001122</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36</v>
+      </c>
+      <c r="C29" t="n">
+        <v>126</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27.31497714400001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2014005039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>22</v>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>58.5194072</v>
+      </c>
+      <c r="E30" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="n"/>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2014005039</v>
+      </c>
+      <c r="B31" t="n">
+        <v>66</v>
+      </c>
+      <c r="C31" t="n">
+        <v>120</v>
+      </c>
+      <c r="D31" t="n">
+        <v>51.85673960000001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2016008028</v>
+      </c>
+      <c r="B32" t="n">
+        <v>36</v>
+      </c>
+      <c r="C32" t="n">
+        <v>120</v>
+      </c>
+      <c r="D32" t="n">
+        <v>31.7923654605412</v>
+      </c>
+      <c r="E32" t="n">
+        <v>39.99994298132477</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2013005153</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24</v>
+      </c>
+      <c r="D33" t="n">
+        <v>58.46885950327788</v>
+      </c>
+      <c r="E33" t="n">
+        <v>70.48861439131603</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2013005153</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>116</v>
+      </c>
+      <c r="D34" t="n">
+        <v>74.15026846327787</v>
+      </c>
+      <c r="E34" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2934,8 +3301,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5836,7 +6203,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5911,7 +6278,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5997,7 +6364,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6108,7 +6475,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6154,7 +6521,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6473,7 +6840,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6491,10 +6858,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6515,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>9.227255002861211</v>
+        <v>17.14157966425628</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6524,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>8.75579030887415</v>
+        <v>19.27074800231198</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6533,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>8.521340814757027</v>
+        <v>19.03288684960766</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6542,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>10.48159637438281</v>
+        <v>16.44864048636438</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6551,7 +6918,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>8.884192488647511</v>
+        <v>14.01496793219913</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6560,7 +6927,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>7.808266385819776</v>
+        <v>16.61578750783598</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6569,7 +6936,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>8.278742607986297</v>
+        <v>18.29981793324663</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6578,7 +6945,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>7.142923671452349</v>
+        <v>14.67521585589222</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6587,7 +6954,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>7.029143204028639</v>
+        <v>17.3037153845321</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6596,7 +6963,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>7.032970351342312</v>
+        <v>17.60446602558526</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6605,7 +6972,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>7.27353758958893</v>
+        <v>14.39976381924578</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6614,7 +6981,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>6.3901773641017</v>
+        <v>16.40007844310237</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6623,7 +6990,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>7.084471223649646</v>
+        <v>12.84571879696071</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6632,7 +6999,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6.085501279344605</v>
+        <v>14.75966028433545</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6641,7 +7008,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>5.869130749992362</v>
+        <v>18.61733092453891</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6650,7 +7017,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5.917985792227496</v>
+        <v>16.74184400503161</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6659,7 +7026,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>4.604857631069724</v>
+        <v>16.60572272324543</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6668,7 +7035,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>5.097546066318687</v>
+        <v>12.23849422435959</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6677,7 +7044,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>5.841045326703576</v>
+        <v>8.426865877116738</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6686,7 +7053,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>6.103108504697897</v>
+        <v>9.100494383928648</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6695,7 +7062,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>5.123192974628916</v>
+        <v>6.316637529453534</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6704,7 +7071,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>6.224427774094506</v>
+        <v>11.30549942773786</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6713,7 +7080,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>4.698140828856192</v>
+        <v>13.15954232638064</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6722,7 +7089,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>4.070751507061613</v>
+        <v>11.03769472627691</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6731,7 +7098,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.760377515544099</v>
+        <v>9.415904922561813</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6740,7 +7107,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.92906077720621</v>
+        <v>6.021812931484602</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6749,7 +7116,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4.766534060937946</v>
+        <v>3.31098950349315</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6758,7 +7125,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>4.78928986742573</v>
+        <v>2.930099322269249</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6767,7 +7134,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.719580660193044</v>
+        <v>4.690551095437332</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6776,7 +7143,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.915841334595693</v>
+        <v>4.844262928008328</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6785,7 +7152,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.681120285490583</v>
+        <v>5.559401965881539</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6794,7 +7161,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.630428981433974</v>
+        <v>6.377100927350694</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6803,7 +7170,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>2.234520920791419</v>
+        <v>8.499585462289186</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6812,7 +7179,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.317279898255415</v>
+        <v>7.220083665859956</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6821,7 +7188,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.021807897566882</v>
+        <v>8.820134537548423</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6830,7 +7197,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.713851084545083</v>
+        <v>6.214399891692489</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6839,7 +7206,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.51634346176434</v>
+        <v>5.620362465410531</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6848,7 +7215,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.13403476251912</v>
+        <v>3.13112459633955</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6857,7 +7224,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.925807999198237</v>
+        <v>1.835745056809353</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6866,7 +7233,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.402110015626889</v>
+        <v>5.286961691372693</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6875,7 +7242,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1.161404137051987</v>
+        <v>5.82848659682261</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6884,7 +7251,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.472688414850283</v>
+        <v>5.440094434126418</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6893,7 +7260,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.352393314071137</v>
+        <v>5.797129859435124</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6902,7 +7269,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.619683953613063</v>
+        <v>2.928205851261806</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6911,7 +7278,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>2.996672041268225</v>
+        <v>6.777130439987754</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6920,7 +7287,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.776532131797239</v>
+        <v>5.641404558502632</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6929,7 +7296,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.127006590405641</v>
+        <v>6.826747882882989</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6938,7 +7305,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.421692006607839</v>
+        <v>3.443612183413835</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6947,7 +7314,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>3.013682105041386</v>
+        <v>5.233011661129749</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6956,7 +7323,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>3.585354759160212</v>
+        <v>7.277150718875346</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6965,7 +7332,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.458565267490779</v>
+        <v>6.744189996586791</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6974,7 +7341,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>4.806588194804621</v>
+        <v>8.949558762183289</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6983,7 +7350,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>7.195661748776368</v>
+        <v>7.410696681224222</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6992,7 +7359,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>6.347811847630619</v>
+        <v>9.211547344955697</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7001,7 +7368,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>7.19922856862854</v>
+        <v>6.730593456051729</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7010,7 +7377,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>6.085026348993022</v>
+        <v>8.827293309652948</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7019,7 +7386,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>6.416184022370111</v>
+        <v>10.0868901717325</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7028,7 +7395,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>7.757586995167678</v>
+        <v>9.074932565283341</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7037,7 +7404,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.676554187023317</v>
+        <v>6.459623557564036</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7046,7 +7413,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>8.545082994648629</v>
+        <v>14.10563488286105</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7055,7 +7422,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>9.509341687438742</v>
+        <v>15.33269979920358</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7064,7 +7431,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>8.012108381483785</v>
+        <v>21.98962369755223</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7073,7 +7440,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>10.11851995402567</v>
+        <v>20.68796412743549</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7082,7 +7449,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>11.76721192116744</v>
+        <v>22.67118183915212</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7091,7 +7458,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>12.4328569346865</v>
+        <v>28.49388622217618</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7100,7 +7467,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>11.90162782412734</v>
+        <v>28.2190486291963</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7109,7 +7476,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>12.66286009335179</v>
+        <v>28.92374459286449</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7118,7 +7485,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>14.08578318876919</v>
+        <v>34.50709923679798</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7127,7 +7494,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>13.00967506302725</v>
+        <v>32.84790055561709</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7136,7 +7503,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>13.97738028664335</v>
+        <v>33.52737698803934</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7145,7 +7512,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>14.09109829146122</v>
+        <v>31.69025005841872</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7154,7 +7521,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>13.53844477020381</v>
+        <v>31.92707502793942</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7163,7 +7530,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>14.70631780961423</v>
+        <v>29.65941583384188</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7172,7 +7539,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>14.86446027158633</v>
+        <v>30.67830363036921</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7181,7 +7548,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>14.71666771171823</v>
+        <v>29.88006855698254</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7190,7 +7557,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>12.98238223075226</v>
+        <v>26.5453122914125</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7199,7 +7566,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>15.53264813233232</v>
+        <v>32.30926750566223</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7208,7 +7575,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>17.15004243937093</v>
+        <v>30.61530651896874</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7217,7 +7584,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>16.89587567416113</v>
+        <v>31.74180805206467</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7226,7 +7593,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>15.54236931370813</v>
+        <v>38.6648418403905</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7235,7 +7602,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>16.36206519750066</v>
+        <v>38.76964739351686</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7244,7 +7611,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>15.88563150029095</v>
+        <v>37.03870416604808</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7253,7 +7620,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>15.03695290843721</v>
+        <v>43.30261898719633</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7262,7 +7629,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>14.2390562810455</v>
+        <v>41.20346962076938</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7271,7 +7638,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>14.57286509005682</v>
+        <v>39.94701922766899</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7280,7 +7647,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>16.06741950257435</v>
+        <v>42.83404157988976</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7289,7 +7656,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>16.34222813141223</v>
+        <v>40.87115661505064</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7298,7 +7665,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>13.27732533472944</v>
+        <v>40.13555783707032</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7307,7 +7674,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>4.189005110649552</v>
+        <v>38.01374758147414</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7316,7 +7683,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>3.894401335681595</v>
+        <v>34.40377485235111</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7325,7 +7692,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>5.758370405851466</v>
+        <v>33.08256846992872</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7334,7 +7701,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>5.881748179051293</v>
+        <v>31.21324230600051</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7343,7 +7710,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>7.074126046804006</v>
+        <v>32.28314610399763</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7352,7 +7719,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>7.986179072795977</v>
+        <v>32.24325233707625</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7361,7 +7728,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>13.27719993195282</v>
+        <v>34.06816265585476</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7370,7 +7737,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>14.02270866608205</v>
+        <v>27.30181868520233</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7379,7 +7746,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>14.66066955426604</v>
+        <v>30.67090345977953</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7388,7 +7755,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>14.22509954909481</v>
+        <v>34.43428609642525</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7397,7 +7764,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>15.21686189915538</v>
+        <v>33.19866383634274</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7406,7 +7773,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>14.86120695719482</v>
+        <v>33.94307044717823</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7415,7 +7782,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>13.63640563245705</v>
+        <v>36.56683818115705</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7424,7 +7791,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>13.51418299233482</v>
+        <v>30.6661919896223</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7433,7 +7800,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>13.21116950309275</v>
+        <v>27.07094536648065</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7442,7 +7809,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>14.66756304582256</v>
+        <v>29.42548035935722</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7451,7 +7818,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>13.79493919415712</v>
+        <v>28.87272421085633</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7460,7 +7827,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>14.03466412849018</v>
+        <v>27.58145832964288</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7469,7 +7836,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>10.06577923275581</v>
+        <v>28.84449839976868</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7478,7 +7845,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>9.227346018667197</v>
+        <v>23.68612751252905</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7487,7 +7854,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>9.960859256795075</v>
+        <v>22.71443078633881</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7496,7 +7863,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>6.426512016699869</v>
+        <v>21.87641001832939</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7505,7 +7872,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>6.367434064913688</v>
+        <v>18.327339400036</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7514,7 +7881,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>6.585319480194793</v>
+        <v>15.8038666282004</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7523,7 +7890,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>4.988990433446403</v>
+        <v>13.20273361050554</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7532,7 +7899,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>4.476033837781602</v>
+        <v>11.95498837633552</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7541,7 +7908,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>4.236436493906776</v>
+        <v>15.38252247680429</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7550,7 +7917,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>5.040265406823812</v>
+        <v>10.19453278740065</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7559,7 +7926,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>3.785220499472022</v>
+        <v>10.8946653418534</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7568,7 +7935,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>3.387193595166756</v>
+        <v>11.21792353220049</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7577,7 +7944,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>2.840573240041497</v>
+        <v>6.474917184837372</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7586,7 +7953,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>3.041715084783669</v>
+        <v>6.868169769165914</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7595,7 +7962,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>3.601868897466665</v>
+        <v>6.350200764693438</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7604,7 +7971,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>3.392395306489979</v>
+        <v>5.032954841743146</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7613,7 +7980,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>4.527073580204836</v>
+        <v>5.837231516419786</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7622,7 +7989,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>4.946778693824625</v>
+        <v>3.552447408181463</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7631,7 +7998,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>7.131417433521096</v>
+        <v>4.311473974131209</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7640,7 +8007,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>6.933559026561403</v>
+        <v>5.30989976164331</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7649,7 +8016,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>7.943104783827432</v>
+        <v>3.671835198269646</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7658,7 +8025,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>8.720127906040222</v>
+        <v>6.80942280647545</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7667,7 +8034,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>8.703971541634949</v>
+        <v>6.45066926217387</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7676,7 +8043,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>8.736390829896481</v>
+        <v>11.56141966857464</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7685,7 +8052,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>8.00729029251748</v>
+        <v>10.97402892663991</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7694,7 +8061,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>9.723635794143402</v>
+        <v>14.23213236372989</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7703,7 +8070,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>9.759140237623452</v>
+        <v>14.73915148586083</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7712,7 +8079,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>8.960518275186651</v>
+        <v>14.2604526650688</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7721,7 +8088,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>7.951761064923172</v>
+        <v>15.18727339003849</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7730,7 +8097,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>8.695290443354326</v>
+        <v>16.51096995406362</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7739,7 +8106,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>8.802272185439676</v>
+        <v>14.3670896408176</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7748,7 +8115,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>9.130766779799153</v>
+        <v>12.68025655633563</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7757,7 +8124,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>9.789703455166679</v>
+        <v>8.497272883149657</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7766,7 +8133,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>8.459860688961889</v>
+        <v>12.92967010642841</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7775,7 +8142,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>9.45665090723401</v>
+        <v>12.44658711616374</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7784,7 +8151,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>8.4282475500806</v>
+        <v>15.93196617809986</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7793,7 +8160,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>9.036688750466677</v>
+        <v>14.24716211031254</v>
       </c>
     </row>
     <row r="145">
@@ -7801,14 +8168,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>9.498374746119499</v>
+        <v>13.63249835281951</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7826,8 +8193,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7848,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-33.51816238717025</v>
+        <v>-102.1814246214663</v>
       </c>
     </row>
     <row r="3">
@@ -7856,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-35.1055001022953</v>
+        <v>-102.4695814853481</v>
       </c>
     </row>
     <row r="4">
@@ -7864,7 +8231,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-33.58176046192348</v>
+        <v>-102.727042980242</v>
       </c>
     </row>
     <row r="5">
@@ -7872,7 +8239,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-33.38205756001998</v>
+        <v>-102.4613734822057</v>
       </c>
     </row>
     <row r="6">
@@ -7880,7 +8247,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-34.62818360686788</v>
+        <v>-102.7158932682612</v>
       </c>
     </row>
     <row r="7">
@@ -7888,7 +8255,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-34.29122347461012</v>
+        <v>-101.5111899637317</v>
       </c>
     </row>
     <row r="8">
@@ -7896,7 +8263,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-34.53935954680209</v>
+        <v>-101.7024847267222</v>
       </c>
     </row>
     <row r="9">
@@ -7904,7 +8271,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-34.84023865977349</v>
+        <v>-100.1831375265318</v>
       </c>
     </row>
     <row r="10">
@@ -7912,7 +8279,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-33.91460472509748</v>
+        <v>-101.3361390400585</v>
       </c>
     </row>
     <row r="11">
@@ -7920,7 +8287,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-35.38642412466408</v>
+        <v>-102.2327987709211</v>
       </c>
     </row>
     <row r="12">
@@ -7928,7 +8295,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-35.77279071347382</v>
+        <v>-102.7274718513688</v>
       </c>
     </row>
     <row r="13">
@@ -7936,7 +8303,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-34.58475720524954</v>
+        <v>-103.8336198792747</v>
       </c>
     </row>
     <row r="14">
@@ -7944,7 +8311,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-35.16118384282203</v>
+        <v>-104.1115796199371</v>
       </c>
     </row>
     <row r="15">
@@ -7952,7 +8319,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-37.68041352063528</v>
+        <v>-103.3906486154143</v>
       </c>
     </row>
     <row r="16">
@@ -7960,7 +8327,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-37.17427654630035</v>
+        <v>-102.6056660772996</v>
       </c>
     </row>
     <row r="17">
@@ -7968,7 +8335,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-36.83554445281587</v>
+        <v>-102.1352482164199</v>
       </c>
     </row>
     <row r="18">
@@ -7976,7 +8343,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-37.96602374690859</v>
+        <v>-106.0165141076292</v>
       </c>
     </row>
     <row r="19">
@@ -7984,7 +8351,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-38.41986013441113</v>
+        <v>-109.2025726380638</v>
       </c>
     </row>
     <row r="20">
@@ -7992,7 +8359,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-37.61293261649439</v>
+        <v>-109.9851883553316</v>
       </c>
     </row>
     <row r="21">
@@ -8000,7 +8367,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-37.20056775072786</v>
+        <v>-106.9820562773068</v>
       </c>
     </row>
     <row r="22">
@@ -8008,7 +8375,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-36.2822761672922</v>
+        <v>-106.9535141348898</v>
       </c>
     </row>
     <row r="23">
@@ -8016,7 +8383,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-38.44729595428936</v>
+        <v>-106.0581450263727</v>
       </c>
     </row>
     <row r="24">
@@ -8024,7 +8391,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-39.33607962243828</v>
+        <v>-106.9110573438892</v>
       </c>
     </row>
     <row r="25">
@@ -8032,7 +8399,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-39.95792876016496</v>
+        <v>-109.8253678369006</v>
       </c>
     </row>
     <row r="26">
@@ -8040,7 +8407,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-38.81505501379768</v>
+        <v>-111.4349320975495</v>
       </c>
     </row>
     <row r="27">
@@ -8048,7 +8415,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-40.1119808637819</v>
+        <v>-114.0624498077693</v>
       </c>
     </row>
     <row r="28">
@@ -8056,7 +8423,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-39.45948198471731</v>
+        <v>-111.9508235222775</v>
       </c>
     </row>
     <row r="29">
@@ -8064,7 +8431,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-38.98334474317877</v>
+        <v>-112.0441001954766</v>
       </c>
     </row>
     <row r="30">
@@ -8072,7 +8439,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-39.95414296845487</v>
+        <v>-113.4418978797549</v>
       </c>
     </row>
     <row r="31">
@@ -8080,7 +8447,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-41.9472531785816</v>
+        <v>-110.4085401198465</v>
       </c>
     </row>
     <row r="32">
@@ -8088,7 +8455,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-42.64194791465783</v>
+        <v>-113.2153095948004</v>
       </c>
     </row>
     <row r="33">
@@ -8096,7 +8463,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-42.04839141618504</v>
+        <v>-113.6189777243399</v>
       </c>
     </row>
     <row r="34">
@@ -8104,7 +8471,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-40.26928907570883</v>
+        <v>-111.8523098352503</v>
       </c>
     </row>
     <row r="35">
@@ -8112,7 +8479,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-42.70936321879977</v>
+        <v>-111.7312392678458</v>
       </c>
     </row>
     <row r="36">
@@ -8120,7 +8487,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-43.28885204920323</v>
+        <v>-112.5537204769272</v>
       </c>
     </row>
     <row r="37">
@@ -8128,7 +8495,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-43.33871105323019</v>
+        <v>-112.1623217985597</v>
       </c>
     </row>
     <row r="38">
@@ -8136,7 +8503,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-43.16102832693959</v>
+        <v>-113.5892489646882</v>
       </c>
     </row>
     <row r="39">
@@ -8144,7 +8511,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-43.18786465629361</v>
+        <v>-116.9110657370845</v>
       </c>
     </row>
     <row r="40">
@@ -8152,7 +8519,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-43.48274308959119</v>
+        <v>-115.6733449539019</v>
       </c>
     </row>
     <row r="41">
@@ -8160,7 +8527,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-43.11213911841982</v>
+        <v>-115.5148881343615</v>
       </c>
     </row>
     <row r="42">
@@ -8168,7 +8535,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-42.05436218397773</v>
+        <v>-114.8487896389074</v>
       </c>
     </row>
     <row r="43">
@@ -8176,7 +8543,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-43.25662774330578</v>
+        <v>-115.4386914666674</v>
       </c>
     </row>
     <row r="44">
@@ -8184,7 +8551,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-42.77135565215379</v>
+        <v>-115.4542551487381</v>
       </c>
     </row>
     <row r="45">
@@ -8192,7 +8559,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-42.77921881454567</v>
+        <v>-117.4712282122793</v>
       </c>
     </row>
     <row r="46">
@@ -8200,7 +8567,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-41.15839401736039</v>
+        <v>-116.5809846624915</v>
       </c>
     </row>
     <row r="47">
@@ -8208,7 +8575,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-42.09771272903114</v>
+        <v>-115.5424209893483</v>
       </c>
     </row>
     <row r="48">
@@ -8216,7 +8583,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-41.46687193576665</v>
+        <v>-113.030620704862</v>
       </c>
     </row>
     <row r="49">
@@ -8224,7 +8591,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-41.92627946159118</v>
+        <v>-112.9719309172568</v>
       </c>
     </row>
     <row r="50">
@@ -8232,7 +8599,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-40.99653763867187</v>
+        <v>-111.0103733652181</v>
       </c>
     </row>
     <row r="51">
@@ -8240,7 +8607,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-41.7938824616855</v>
+        <v>-111.6586648137858</v>
       </c>
     </row>
     <row r="52">
@@ -8248,7 +8615,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-41.85498731715587</v>
+        <v>-111.6465479278333</v>
       </c>
     </row>
     <row r="53">
@@ -8256,7 +8623,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-40.70340995244273</v>
+        <v>-111.735223073463</v>
       </c>
     </row>
     <row r="54">
@@ -8264,7 +8631,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-38.83025118378696</v>
+        <v>-112.6959780371782</v>
       </c>
     </row>
     <row r="55">
@@ -8272,7 +8639,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-37.88663747478053</v>
+        <v>-113.0961656956618</v>
       </c>
     </row>
     <row r="56">
@@ -8280,7 +8647,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-39.68469324603424</v>
+        <v>-112.8618501168138</v>
       </c>
     </row>
     <row r="57">
@@ -8288,7 +8655,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-38.83794291548301</v>
+        <v>-110.8337644443609</v>
       </c>
     </row>
     <row r="58">
@@ -8296,7 +8663,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-37.95670288227432</v>
+        <v>-109.7726684272355</v>
       </c>
     </row>
     <row r="59">
@@ -8304,7 +8671,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-37.63839242732272</v>
+        <v>-111.2560003070312</v>
       </c>
     </row>
     <row r="60">
@@ -8312,7 +8679,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-37.90148265122841</v>
+        <v>-109.2107237879208</v>
       </c>
     </row>
     <row r="61">
@@ -8320,7 +8687,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-36.62928842783201</v>
+        <v>-105.9791384253889</v>
       </c>
     </row>
     <row r="62">
@@ -8328,7 +8695,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-37.89668975363483</v>
+        <v>-106.9175610937734</v>
       </c>
     </row>
     <row r="63">
@@ -8336,7 +8703,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-35.65733552797659</v>
+        <v>-103.7787317923236</v>
       </c>
     </row>
     <row r="64">
@@ -8344,7 +8711,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-36.14135775690099</v>
+        <v>-100.1499662237322</v>
       </c>
     </row>
     <row r="65">
@@ -8352,7 +8719,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-35.49505175545106</v>
+        <v>-101.8803324573138</v>
       </c>
     </row>
     <row r="66">
@@ -8360,7 +8727,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-34.87112623992256</v>
+        <v>-97.36182921529675</v>
       </c>
     </row>
     <row r="67">
@@ -8368,7 +8735,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-35.21871858264066</v>
+        <v>-96.91380374736617</v>
       </c>
     </row>
     <row r="68">
@@ -8376,7 +8743,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-34.62284891018918</v>
+        <v>-98.3493869869161</v>
       </c>
     </row>
     <row r="69">
@@ -8384,7 +8751,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-33.38590170332298</v>
+        <v>-93.64000819480398</v>
       </c>
     </row>
     <row r="70">
@@ -8392,7 +8759,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-33.59217396783696</v>
+        <v>-94.00901358798285</v>
       </c>
     </row>
     <row r="71">
@@ -8400,7 +8767,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-33.86869703102188</v>
+        <v>-94.31711848131533</v>
       </c>
     </row>
     <row r="72">
@@ -8408,7 +8775,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-33.13934860996533</v>
+        <v>-96.83901075075542</v>
       </c>
     </row>
     <row r="73">
@@ -8416,7 +8783,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-33.83830115385911</v>
+        <v>-98.97571030727099</v>
       </c>
     </row>
     <row r="74">
@@ -8424,7 +8791,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-34.55944374065223</v>
+        <v>-95.28898369736059</v>
       </c>
     </row>
     <row r="75">
@@ -8432,7 +8799,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-34.14928413452083</v>
+        <v>-94.71518464318459</v>
       </c>
     </row>
     <row r="76">
@@ -8440,7 +8807,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-34.16123918057473</v>
+        <v>-98.02978599733031</v>
       </c>
     </row>
     <row r="77">
@@ -8448,7 +8815,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-33.28645537084071</v>
+        <v>-98.61799829387391</v>
       </c>
     </row>
     <row r="78">
@@ -8456,7 +8823,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-31.86647532893657</v>
+        <v>-95.43719516369836</v>
       </c>
     </row>
     <row r="79">
@@ -8464,7 +8831,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-32.28819100625623</v>
+        <v>-95.39519219595221</v>
       </c>
     </row>
     <row r="80">
@@ -8472,7 +8839,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-31.67253091539812</v>
+        <v>-94.63805709365258</v>
       </c>
     </row>
     <row r="81">
@@ -8480,7 +8847,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-31.58703902876243</v>
+        <v>-91.63385152388511</v>
       </c>
     </row>
     <row r="82">
@@ -8488,7 +8855,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-31.32262534321605</v>
+        <v>-89.36662467264293</v>
       </c>
     </row>
     <row r="83">
@@ -8496,7 +8863,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-31.72381168397256</v>
+        <v>-90.91035255527476</v>
       </c>
     </row>
     <row r="84">
@@ -8504,7 +8871,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-32.87248136477575</v>
+        <v>-88.27457697801601</v>
       </c>
     </row>
     <row r="85">
@@ -8512,7 +8879,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-32.9836576597534</v>
+        <v>-90.12106706782765</v>
       </c>
     </row>
     <row r="86">
@@ -8520,7 +8887,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-33.23423285263871</v>
+        <v>-88.79817655499858</v>
       </c>
     </row>
     <row r="87">
@@ -8528,7 +8895,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-32.00226547591495</v>
+        <v>-88.84146254600361</v>
       </c>
     </row>
     <row r="88">
@@ -8536,7 +8903,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-31.72741110253924</v>
+        <v>-89.07641549569914</v>
       </c>
     </row>
     <row r="89">
@@ -8544,7 +8911,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-31.88156066658512</v>
+        <v>-88.68674193788706</v>
       </c>
     </row>
     <row r="90">
@@ -8552,7 +8919,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-32.70202523742645</v>
+        <v>-89.80865470386118</v>
       </c>
     </row>
     <row r="91">
@@ -8560,7 +8927,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-31.40626318844556</v>
+        <v>-94.19991170140173</v>
       </c>
     </row>
     <row r="92">
@@ -8568,7 +8935,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-32.09284682837973</v>
+        <v>-96.7829517782296</v>
       </c>
     </row>
     <row r="93">
@@ -8576,7 +8943,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-32.92297556700893</v>
+        <v>-97.6585634476381</v>
       </c>
     </row>
     <row r="94">
@@ -8584,7 +8951,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-31.46783145865495</v>
+        <v>-97.97764569988243</v>
       </c>
     </row>
     <row r="95">
@@ -8592,7 +8959,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-31.64372820226718</v>
+        <v>-95.04241922014872</v>
       </c>
     </row>
     <row r="96">
@@ -8600,7 +8967,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-32.12923000871323</v>
+        <v>-97.18543957805602</v>
       </c>
     </row>
     <row r="97">
@@ -8608,7 +8975,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-32.35282214988763</v>
+        <v>-98.2014605728981</v>
       </c>
     </row>
     <row r="98">
@@ -8616,7 +8983,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-32.07153587320562</v>
+        <v>-95.55667787311592</v>
       </c>
     </row>
     <row r="99">
@@ -8624,7 +8991,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-31.32134067734263</v>
+        <v>-94.02935946247156</v>
       </c>
     </row>
     <row r="100">
@@ -8632,7 +8999,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-31.38667661807423</v>
+        <v>-94.28725091264668</v>
       </c>
     </row>
     <row r="101">
@@ -8640,7 +9007,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-31.83834764618261</v>
+        <v>-93.27107395552244</v>
       </c>
     </row>
     <row r="102">
@@ -8648,7 +9015,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-33.06381992121014</v>
+        <v>-91.99447548700076</v>
       </c>
     </row>
     <row r="103">
@@ -8656,7 +9023,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-33.07306186653695</v>
+        <v>-98.84859560184765</v>
       </c>
     </row>
     <row r="104">
@@ -8664,7 +9031,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-32.94655022663154</v>
+        <v>-99.52972036626039</v>
       </c>
     </row>
     <row r="105">
@@ -8672,7 +9039,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-32.42266157621008</v>
+        <v>-97.05345783049648</v>
       </c>
     </row>
     <row r="106">
@@ -8680,7 +9047,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-32.47724734922758</v>
+        <v>-96.79192009358935</v>
       </c>
     </row>
     <row r="107">
@@ -8688,7 +9055,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-32.96502518458303</v>
+        <v>-97.55799362340451</v>
       </c>
     </row>
     <row r="108">
@@ -8696,7 +9063,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-35.20063849827736</v>
+        <v>-99.2124177424049</v>
       </c>
     </row>
     <row r="109">
@@ -8704,7 +9071,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-35.23644721885935</v>
+        <v>-102.598074851389</v>
       </c>
     </row>
     <row r="110">
@@ -8712,7 +9079,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-36.31664466998109</v>
+        <v>-104.3608190153254</v>
       </c>
     </row>
     <row r="111">
@@ -8720,7 +9087,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-36.65106081656073</v>
+        <v>-104.4738443927327</v>
       </c>
     </row>
     <row r="112">
@@ -8728,7 +9095,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-37.02394751760117</v>
+        <v>-107.8815745078244</v>
       </c>
     </row>
     <row r="113">
@@ -8736,7 +9103,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-38.113277296241</v>
+        <v>-106.2955224682042</v>
       </c>
     </row>
     <row r="114">
@@ -8744,7 +9111,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-37.98359630472525</v>
+        <v>-112.0764723619428</v>
       </c>
     </row>
     <row r="115">
@@ -8752,7 +9119,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-39.96480717015314</v>
+        <v>-111.8515512690905</v>
       </c>
     </row>
     <row r="116">
@@ -8760,7 +9127,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-39.91355477603496</v>
+        <v>-109.7809915810823</v>
       </c>
     </row>
     <row r="117">
@@ -8768,7 +9135,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-39.18889369420909</v>
+        <v>-108.8624336016256</v>
       </c>
     </row>
     <row r="118">
@@ -8776,7 +9143,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-37.9411084373672</v>
+        <v>-109.5020334019824</v>
       </c>
     </row>
     <row r="119">
@@ -8784,7 +9151,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-38.58570540270176</v>
+        <v>-109.6413193923457</v>
       </c>
     </row>
     <row r="120">
@@ -8792,7 +9159,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-39.45177839990211</v>
+        <v>-112.3736809046077</v>
       </c>
     </row>
     <row r="121">
@@ -8800,7 +9167,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-39.42589874551039</v>
+        <v>-110.5452644416891</v>
       </c>
     </row>
     <row r="122">
@@ -8808,7 +9175,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-39.33879396417257</v>
+        <v>-109.6561450163904</v>
       </c>
     </row>
     <row r="123">
@@ -8816,7 +9183,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-39.87376555401894</v>
+        <v>-111.4921158700635</v>
       </c>
     </row>
     <row r="124">
@@ -8824,7 +9191,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-40.50398218974644</v>
+        <v>-111.901593788757</v>
       </c>
     </row>
     <row r="125">
@@ -8832,7 +9199,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-37.331594950217</v>
+        <v>-112.1577178475287</v>
       </c>
     </row>
     <row r="126">
@@ -8840,7 +9207,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-37.3127301945475</v>
+        <v>-115.5090992158067</v>
       </c>
     </row>
     <row r="127">
@@ -8848,7 +9215,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-36.60854435815116</v>
+        <v>-114.8476097738184</v>
       </c>
     </row>
     <row r="128">
@@ -8856,7 +9223,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-37.00784073373161</v>
+        <v>-111.4222403332761</v>
       </c>
     </row>
     <row r="129">
@@ -8864,7 +9231,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-36.67186770785346</v>
+        <v>-111.2373642682762</v>
       </c>
     </row>
     <row r="130">
@@ -8872,7 +9239,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-37.09295375049214</v>
+        <v>-109.5840921519964</v>
       </c>
     </row>
     <row r="131">
@@ -8880,7 +9247,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-35.98101524055743</v>
+        <v>-107.6074910892696</v>
       </c>
     </row>
     <row r="132">
@@ -8888,7 +9255,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-33.8367154091958</v>
+        <v>-109.4723496290373</v>
       </c>
     </row>
     <row r="133">
@@ -8896,7 +9263,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-35.38010044377674</v>
+        <v>-111.4217355420566</v>
       </c>
     </row>
     <row r="134">
@@ -8904,7 +9271,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-35.01026190577301</v>
+        <v>-108.1989792423666</v>
       </c>
     </row>
     <row r="135">
@@ -8912,7 +9279,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-35.57224182036452</v>
+        <v>-108.4965345802811</v>
       </c>
     </row>
     <row r="136">
@@ -8920,7 +9287,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-35.54467810188997</v>
+        <v>-107.3783806615883</v>
       </c>
     </row>
     <row r="137">
@@ -8928,7 +9295,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-34.62512125990047</v>
+        <v>-105.9961768014293</v>
       </c>
     </row>
     <row r="138">
@@ -8936,7 +9303,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-33.67419183497637</v>
+        <v>-106.9055857379533</v>
       </c>
     </row>
     <row r="139">
@@ -8944,7 +9311,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-34.56402309792118</v>
+        <v>-108.0073558108539</v>
       </c>
     </row>
     <row r="140">
@@ -8952,7 +9319,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-34.45685758915651</v>
+        <v>-109.3065707123124</v>
       </c>
     </row>
     <row r="141">
@@ -8960,7 +9327,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-33.07633806070944</v>
+        <v>-106.61370019427</v>
       </c>
     </row>
     <row r="142">
@@ -8968,7 +9335,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-34.0429218444647</v>
+        <v>-104.3013799189193</v>
       </c>
     </row>
     <row r="143">
@@ -8976,7 +9343,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-34.96616522831958</v>
+        <v>-104.8547808929852</v>
       </c>
     </row>
     <row r="144">
@@ -8984,7 +9351,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-33.29515207003232</v>
+        <v>-104.5641635578935</v>
       </c>
     </row>
     <row r="145">
@@ -8992,14 +9359,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-33.03054166333288</v>
+        <v>-105.6335342710889</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9030,6 +9397,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014001068</v>
+        <v>2013004421</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2013005382</v>
+        <v>2012009603</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016002234</v>
+        <v>2015007057</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2013001813</v>
+        <v>2012008915</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013006901</v>
+        <v>2013008374</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016005514</v>
+        <v>2016008041</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2015007418</v>
+        <v>2013007092</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2013000499</v>
+        <v>2014001742</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015005970</v>
+        <v>2015005532</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2013007752</v>
+        <v>2015008987</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2014007382</v>
+        <v>2013009146</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2013005608</v>
+        <v>2015009337</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2013004144</v>
+        <v>2013005970</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2013007360</v>
+        <v>2016003994</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2016006035</v>
+        <v>2013002919</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2015005419</v>
+        <v>2014008506</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G17" t="n">
         <v>250</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2015004553</v>
+        <v>2013009029</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2014008845</v>
+        <v>2013008559</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>7.4</v>
       </c>
       <c r="F19" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
         <v>250</v>
@@ -2479,196 +2479,6 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2015002644</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>40</v>
-      </c>
-      <c r="G20" t="n">
-        <v>250</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2014001122</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>30</v>
-      </c>
-      <c r="G21" t="n">
-        <v>250</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2014005039</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>60</v>
-      </c>
-      <c r="G22" t="n">
-        <v>250</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2016008028</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>40</v>
-      </c>
-      <c r="G23" t="n">
-        <v>250</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2013005153</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>75</v>
-      </c>
-      <c r="G24" t="n">
-        <v>250</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2683,7 +2493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -2723,84 +2533,84 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014001068</v>
+        <v>2013004421</v>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>52.30830598327788</v>
+        <v>29.05648746054119</v>
       </c>
       <c r="E2" t="n">
-        <v>74.17639104940011</v>
+        <v>31.22715412720785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013005382</v>
+        <v>2013004421</v>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D3" t="n">
-        <v>26.54591706054121</v>
+        <v>23.57120466054119</v>
       </c>
       <c r="E3" t="n">
-        <v>39.99957564145088</v>
+        <v>39.45689370955438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2016002234</v>
+        <v>2013004421</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>13.05648799824406</v>
+        <v>38.90564826054118</v>
       </c>
       <c r="E4" t="n">
-        <v>17.39782133157739</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2016002234</v>
+        <v>2012009603</v>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" t="n">
-        <v>13.8411799315774</v>
+        <v>67.89315454327786</v>
       </c>
       <c r="E5" t="n">
-        <v>23.56586666491075</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2013001813</v>
+        <v>2015007057</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>118</v>
       </c>
       <c r="D6" t="n">
-        <v>31.29990742054121</v>
+        <v>38.3584726605412</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
@@ -2808,84 +2618,84 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2013006901</v>
+        <v>2012008915</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>62.89776318327788</v>
+        <v>15.09471710824407</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>23.45733333157741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2016005514</v>
+        <v>2013008374</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D8" t="n">
-        <v>38.35847266054121</v>
+        <v>51.8567395956624</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2015007418</v>
+        <v>2016008041</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D9" t="n">
-        <v>37.81129706054121</v>
+        <v>63.89555398327789</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2013000499</v>
+        <v>2013007092</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" t="n">
-        <v>57.03881439566239</v>
+        <v>30.01404476054119</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>39.99964445459047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2015005970</v>
+        <v>2014001742</v>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>38.35847266054121</v>
+        <v>35.0754196</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
@@ -2893,394 +2703,281 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2013007752</v>
+        <v>2014001742</v>
       </c>
       <c r="B12" t="n">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D12" t="n">
-        <v>74.22751679999998</v>
+        <v>32.6614096</v>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2014007382</v>
+        <v>2015005532</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D13" t="n">
-        <v>57.7791107956624</v>
+        <v>23.68881225046736</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>29.78293332780068</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2014007382</v>
+        <v>2015008987</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
-        <v>57.03881440000001</v>
+        <v>20.7784818</v>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2013005608</v>
+        <v>2015008987</v>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D15" t="n">
-        <v>6.500751162260977</v>
+        <v>29.44638703446733</v>
       </c>
       <c r="E15" t="n">
-        <v>39.99717769207001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2013004144</v>
+        <v>2013009146</v>
       </c>
       <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
         <v>24</v>
       </c>
-      <c r="C16" t="n">
-        <v>36</v>
-      </c>
       <c r="D16" t="n">
-        <v>12.79238760431826</v>
+        <v>69.66986590327788</v>
       </c>
       <c r="E16" t="n">
-        <v>25.56743964143774</v>
+        <v>71.19608242936717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2013004144</v>
+        <v>2013009146</v>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
         <v>143</v>
       </c>
       <c r="D17" t="n">
-        <v>28.39452241046734</v>
+        <v>71.5238256</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2013007360</v>
+        <v>2015009337</v>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D18" t="n">
-        <v>12.38893376624406</v>
+        <v>38.08488486054122</v>
       </c>
       <c r="E18" t="n">
-        <v>23.45733333157741</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2016006035</v>
+        <v>2013005970</v>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D19" t="n">
-        <v>72.10318798327788</v>
+        <v>21.55321807046736</v>
       </c>
       <c r="E19" t="n">
-        <v>75</v>
+        <v>29.56586666113402</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2015005419</v>
+        <v>2016003994</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D20" t="n">
-        <v>38.72781619054121</v>
+        <v>18.52824399824407</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>23.99999999824409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2015005419</v>
+        <v>2013002919</v>
       </c>
       <c r="B21" t="n">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C21" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D21" t="n">
-        <v>38.632061</v>
+        <v>19.67511829046736</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2015004553</v>
+        <v>2013002919</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="C22" t="n">
+        <v>143</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28.72669018646737</v>
+      </c>
+      <c r="E22" t="n">
         <v>30</v>
-      </c>
-      <c r="D22" t="n">
-        <v>73.06879198327788</v>
-      </c>
-      <c r="E22" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>2015004553</v>
+        <v>2014008506</v>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>73.068792</v>
+        <v>50.6014543956624</v>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>55.35951841269202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>2015004553</v>
+        <v>2014008506</v>
       </c>
       <c r="B24" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D24" t="n">
-        <v>74.42063759999999</v>
+        <v>55.5582216</v>
       </c>
       <c r="E24" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>2014008845</v>
+        <v>2014008506</v>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C25" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D25" t="n">
-        <v>73.03016782327788</v>
+        <v>54.8581587</v>
       </c>
       <c r="E25" t="n">
-        <v>75</v>
+        <v>55.94031681166288</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>2015002644</v>
+        <v>2013009029</v>
       </c>
       <c r="B26" t="n">
+        <v>34</v>
+      </c>
+      <c r="C26" t="n">
         <v>118</v>
       </c>
-      <c r="C26" t="n">
-        <v>130</v>
-      </c>
       <c r="D26" t="n">
-        <v>39.72641220000001</v>
+        <v>56.09025498327789</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>2015002644</v>
+        <v>2013008559</v>
       </c>
       <c r="B27" t="n">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="C27" t="n">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D27" t="n">
-        <v>36.5801525</v>
+        <v>34.0905029805412</v>
       </c>
       <c r="E27" t="n">
-        <v>37.65257209642213</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n">
-        <v>2014001122</v>
-      </c>
-      <c r="B28" t="n">
-        <v>24</v>
-      </c>
-      <c r="C28" t="n">
-        <v>28</v>
-      </c>
-      <c r="D28" t="n">
-        <v>25.903264096</v>
-      </c>
-      <c r="E28" t="n">
-        <v>28.1546551975402</v>
-      </c>
+      <c r="A28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n">
-        <v>2014001122</v>
-      </c>
-      <c r="B29" t="n">
-        <v>36</v>
-      </c>
-      <c r="C29" t="n">
-        <v>126</v>
-      </c>
-      <c r="D29" t="n">
-        <v>27.31497714400001</v>
-      </c>
-      <c r="E29" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2014005039</v>
-      </c>
-      <c r="B30" t="n">
-        <v>22</v>
-      </c>
-      <c r="C30" t="n">
-        <v>41</v>
-      </c>
-      <c r="D30" t="n">
-        <v>58.5194072</v>
-      </c>
-      <c r="E30" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2014005039</v>
-      </c>
-      <c r="B31" t="n">
-        <v>66</v>
-      </c>
-      <c r="C31" t="n">
-        <v>120</v>
-      </c>
-      <c r="D31" t="n">
-        <v>51.85673960000001</v>
-      </c>
-      <c r="E31" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2016008028</v>
-      </c>
-      <c r="B32" t="n">
-        <v>36</v>
-      </c>
-      <c r="C32" t="n">
-        <v>120</v>
-      </c>
-      <c r="D32" t="n">
-        <v>31.7923654605412</v>
-      </c>
-      <c r="E32" t="n">
-        <v>39.99994298132477</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2013005153</v>
-      </c>
-      <c r="B33" t="n">
-        <v>6</v>
-      </c>
-      <c r="C33" t="n">
-        <v>24</v>
-      </c>
-      <c r="D33" t="n">
-        <v>58.46885950327788</v>
-      </c>
-      <c r="E33" t="n">
-        <v>70.48861439131603</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2013005153</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>116</v>
-      </c>
-      <c r="D34" t="n">
-        <v>74.15026846327787</v>
-      </c>
-      <c r="E34" t="n">
-        <v>75</v>
-      </c>
+      <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6882,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>17.14157966425628</v>
+        <v>11.75132615499005</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6891,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>19.27074800231198</v>
+        <v>9.20842516494737</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6900,7 +6597,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>19.03288684960766</v>
+        <v>9.635870219548638</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6909,7 +6606,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>16.44864048636438</v>
+        <v>9.607436687452203</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6918,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>14.01496793219913</v>
+        <v>10.91257880287533</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6927,7 +6624,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>16.61578750783598</v>
+        <v>10.75259667339223</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6936,7 +6633,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>18.29981793324663</v>
+        <v>12.60683621498506</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6945,7 +6642,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>14.67521585589222</v>
+        <v>11.88226726197571</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6954,7 +6651,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>17.3037153845321</v>
+        <v>11.71249528471088</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6963,7 +6660,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>17.60446602558526</v>
+        <v>12.55058118749482</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6972,7 +6669,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>14.39976381924578</v>
+        <v>11.16649720535344</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6981,7 +6678,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>16.40007844310237</v>
+        <v>11.25907580002321</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6990,7 +6687,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>12.84571879696071</v>
+        <v>13.36314205702493</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6999,7 +6696,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>14.75966028433545</v>
+        <v>11.72783731972047</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -7008,7 +6705,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>18.61733092453891</v>
+        <v>12.018379082911</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -7017,7 +6714,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>16.74184400503161</v>
+        <v>11.7036363168916</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -7026,7 +6723,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>16.60572272324543</v>
+        <v>11.44386929753244</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -7035,7 +6732,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>12.23849422435959</v>
+        <v>8.842418953415564</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -7044,7 +6741,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>8.426865877116738</v>
+        <v>11.16697059825357</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -7053,7 +6750,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>9.100494383928648</v>
+        <v>8.765962569828869</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -7062,7 +6759,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>6.316637529453534</v>
+        <v>9.748143248540854</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -7071,7 +6768,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>11.30549942773786</v>
+        <v>10.81027371872849</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -7080,7 +6777,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>13.15954232638064</v>
+        <v>8.835325718370065</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -7089,7 +6786,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>11.03769472627691</v>
+        <v>8.543704080270098</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -7098,7 +6795,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>9.415904922561813</v>
+        <v>9.748439555140493</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -7107,7 +6804,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>6.021812931484602</v>
+        <v>8.169221957150308</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -7116,7 +6813,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>3.31098950349315</v>
+        <v>8.437053221507695</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -7125,7 +6822,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.930099322269249</v>
+        <v>8.913055693540162</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -7134,7 +6831,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>4.690551095437332</v>
+        <v>5.335463257091142</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -7143,7 +6840,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>4.844262928008328</v>
+        <v>4.491040679829782</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -7152,7 +6849,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>5.559401965881539</v>
+        <v>4.796638164463543</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -7161,7 +6858,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>6.377100927350694</v>
+        <v>3.113028698273238</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -7170,7 +6867,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>8.499585462289186</v>
+        <v>3.419866135448095</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -7179,7 +6876,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>7.220083665859956</v>
+        <v>3.560785938078252</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -7188,7 +6885,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>8.820134537548423</v>
+        <v>6.329373779084007</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -7197,7 +6894,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>6.214399891692489</v>
+        <v>4.881755510063821</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -7206,7 +6903,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>5.620362465410531</v>
+        <v>4.604424469849621</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -7215,7 +6912,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.13112459633955</v>
+        <v>3.90547382880637</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -7224,7 +6921,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.835745056809353</v>
+        <v>3.843889122009416</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -7233,7 +6930,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>5.286961691372693</v>
+        <v>4.747005165611458</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -7242,7 +6939,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>5.82848659682261</v>
+        <v>2.909055813133466</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -7251,7 +6948,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>5.440094434126418</v>
+        <v>3.134194120538087</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -7260,7 +6957,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>5.797129859435124</v>
+        <v>4.526915086277285</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -7269,7 +6966,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>2.928205851261806</v>
+        <v>5.09559013767671</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -7278,7 +6975,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>6.777130439987754</v>
+        <v>3.998928332746853</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -7287,7 +6984,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>5.641404558502632</v>
+        <v>2.725184899857707</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -7296,7 +6993,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>6.826747882882989</v>
+        <v>4.106521820852572</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7305,7 +7002,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.443612183413835</v>
+        <v>4.541814038847544</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7314,7 +7011,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>5.233011661129749</v>
+        <v>4.884889818081747</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7323,7 +7020,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>7.277150718875346</v>
+        <v>6.083486469937258</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7332,7 +7029,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>6.744189996586791</v>
+        <v>5.960115836470083</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7341,7 +7038,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>8.949558762183289</v>
+        <v>8.156591888307156</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7350,7 +7047,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>7.410696681224222</v>
+        <v>4.311845034503698</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7359,7 +7056,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>9.211547344955697</v>
+        <v>6.316782973494043</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7368,7 +7065,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>6.730593456051729</v>
+        <v>6.228449873837421</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7377,7 +7074,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>8.827293309652948</v>
+        <v>7.148007321457453</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7386,7 +7083,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>10.0868901717325</v>
+        <v>6.6428066472662</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7395,7 +7092,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>9.074932565283341</v>
+        <v>7.345162537231351</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7404,7 +7101,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>6.459623557564036</v>
+        <v>8.974352651876218</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7413,7 +7110,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>14.10563488286105</v>
+        <v>9.122879424418127</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7422,7 +7119,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>15.33269979920358</v>
+        <v>10.27744868196871</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7431,7 +7128,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>21.98962369755223</v>
+        <v>12.54285487098141</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7440,7 +7137,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>20.68796412743549</v>
+        <v>12.85692677082693</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7449,7 +7146,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>22.67118183915212</v>
+        <v>11.93855934644329</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7458,7 +7155,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>28.49388622217618</v>
+        <v>14.55549947071368</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7467,7 +7164,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>28.2190486291963</v>
+        <v>14.79419396993934</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7476,7 +7173,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>28.92374459286449</v>
+        <v>14.33973507150042</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7485,7 +7182,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>34.50709923679798</v>
+        <v>16.46115236871189</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7494,7 +7191,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>32.84790055561709</v>
+        <v>15.85163379939215</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7503,7 +7200,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>33.52737698803934</v>
+        <v>14.85329769425712</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7512,7 +7209,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>31.69025005841872</v>
+        <v>16.70433461059493</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7521,7 +7218,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>31.92707502793942</v>
+        <v>13.61961369222473</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7530,7 +7227,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>29.65941583384188</v>
+        <v>14.10714634641869</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7539,7 +7236,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>30.67830363036921</v>
+        <v>15.25974305068565</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7548,7 +7245,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>29.88006855698254</v>
+        <v>16.12852057000676</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7557,7 +7254,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>26.5453122914125</v>
+        <v>15.36589492375669</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7566,7 +7263,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>32.30926750566223</v>
+        <v>18.77291307789201</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7575,7 +7272,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>30.61530651896874</v>
+        <v>18.06798188871057</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7584,7 +7281,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>31.74180805206467</v>
+        <v>17.71347782450552</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7593,7 +7290,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>38.6648418403905</v>
+        <v>18.30132098734875</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7602,7 +7299,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>38.76964739351686</v>
+        <v>18.85123372627971</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7611,7 +7308,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>37.03870416604808</v>
+        <v>18.57976629121023</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7620,7 +7317,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>43.30261898719633</v>
+        <v>18.50730494063421</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7629,7 +7326,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>41.20346962076938</v>
+        <v>18.46146466876952</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7638,7 +7335,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>39.94701922766899</v>
+        <v>18.72645787901734</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7647,7 +7344,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>42.83404157988976</v>
+        <v>19.14889754703531</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7656,7 +7353,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>40.87115661505064</v>
+        <v>19.18830940159026</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7665,7 +7362,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>40.13555783707032</v>
+        <v>19.44171492086755</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7674,7 +7371,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>38.01374758147414</v>
+        <v>19.58097862707456</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7683,7 +7380,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>34.40377485235111</v>
+        <v>14.52245016313829</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7692,7 +7389,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>33.08256846992872</v>
+        <v>13.29151347115427</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7701,7 +7398,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>31.21324230600051</v>
+        <v>13.91443593036232</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7710,7 +7407,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>32.28314610399763</v>
+        <v>13.80624784191436</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7719,7 +7416,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>32.24325233707625</v>
+        <v>15.47614084303347</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7728,7 +7425,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>34.06816265585476</v>
+        <v>16.8583259183773</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7737,7 +7434,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>27.30181868520233</v>
+        <v>16.30510773254149</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7746,7 +7443,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>30.67090345977953</v>
+        <v>18.6443417491058</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7755,7 +7452,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>34.43428609642525</v>
+        <v>19.3121540276824</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7764,7 +7461,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>33.19866383634274</v>
+        <v>18.60938934709153</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7773,7 +7470,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>33.94307044717823</v>
+        <v>19.32908018800349</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7782,7 +7479,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>36.56683818115705</v>
+        <v>19.8352182896623</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7791,7 +7488,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>30.6661919896223</v>
+        <v>20.53429416488176</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7800,7 +7497,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>27.07094536648065</v>
+        <v>19.92818642510787</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7809,7 +7506,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>29.42548035935722</v>
+        <v>19.38603361515079</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7818,7 +7515,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>28.87272421085633</v>
+        <v>17.34122798894362</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7827,7 +7524,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>27.58145832964288</v>
+        <v>17.08931569591925</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7836,7 +7533,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>28.84449839976868</v>
+        <v>17.12990251410763</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7845,7 +7542,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>23.68612751252905</v>
+        <v>15.3619558564602</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7854,7 +7551,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>22.71443078633881</v>
+        <v>14.41259027535583</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7863,7 +7560,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>21.87641001832939</v>
+        <v>12.91497909990779</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7872,7 +7569,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>18.327339400036</v>
+        <v>12.90000261909148</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7881,7 +7578,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>15.8038666282004</v>
+        <v>12.20110922205452</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7890,7 +7587,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>13.20273361050554</v>
+        <v>11.34497806655146</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7899,7 +7596,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>11.95498837633552</v>
+        <v>11.55560915526352</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7908,7 +7605,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>15.38252247680429</v>
+        <v>11.78354958238462</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7917,7 +7614,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>10.19453278740065</v>
+        <v>10.19316196931941</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7926,7 +7623,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>10.8946653418534</v>
+        <v>11.73030977964408</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7935,7 +7632,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>11.21792353220049</v>
+        <v>9.904184938040155</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7944,7 +7641,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>6.474917184837372</v>
+        <v>10.06180634212854</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7953,7 +7650,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>6.868169769165914</v>
+        <v>10.17102490972448</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7962,7 +7659,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>6.350200764693438</v>
+        <v>9.817089072897137</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7971,7 +7668,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>5.032954841743146</v>
+        <v>10.90478029182673</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7980,7 +7677,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>5.837231516419786</v>
+        <v>10.42803919306302</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7989,7 +7686,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>3.552447408181463</v>
+        <v>9.782642677174534</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7998,7 +7695,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>4.311473974131209</v>
+        <v>10.76062840059081</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -8007,7 +7704,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>5.30989976164331</v>
+        <v>11.46854868676643</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -8016,7 +7713,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>3.671835198269646</v>
+        <v>11.43295307480001</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -8025,7 +7722,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>6.80942280647545</v>
+        <v>10.87317416353086</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -8034,7 +7731,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>6.45066926217387</v>
+        <v>11.63226937346837</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -8043,7 +7740,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>11.56141966857464</v>
+        <v>10.82960197820552</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -8052,7 +7749,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>10.97402892663991</v>
+        <v>11.75994039166809</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -8061,7 +7758,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>14.23213236372989</v>
+        <v>12.40123880969028</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -8070,7 +7767,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>14.73915148586083</v>
+        <v>12.91371309161546</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -8079,7 +7776,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>14.2604526650688</v>
+        <v>12.91244697311698</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -8088,7 +7785,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>15.18727339003849</v>
+        <v>12.7553879498829</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -8097,7 +7794,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>16.51096995406362</v>
+        <v>13.05196620447893</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -8106,7 +7803,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>14.3670896408176</v>
+        <v>10.23220615357429</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -8115,7 +7812,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>12.68025655633563</v>
+        <v>11.59788382308919</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -8124,7 +7821,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>8.497272883149657</v>
+        <v>11.08982640746055</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -8133,7 +7830,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>12.92967010642841</v>
+        <v>11.59986186848636</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -8142,7 +7839,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>12.44658711616374</v>
+        <v>11.85820864221695</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -8151,7 +7848,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>15.93196617809986</v>
+        <v>12.46834034611861</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -8160,7 +7857,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>14.24716211031254</v>
+        <v>11.15138041669409</v>
       </c>
     </row>
     <row r="145">
@@ -8168,7 +7865,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>13.63249835281951</v>
+        <v>11.33325969306338</v>
       </c>
     </row>
     <row r="146">
@@ -8215,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-102.1814246214663</v>
+        <v>-39.64153000422655</v>
       </c>
     </row>
     <row r="3">
@@ -8223,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-102.4695814853481</v>
+        <v>-40.41526467686337</v>
       </c>
     </row>
     <row r="4">
@@ -8231,7 +7928,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-102.727042980242</v>
+        <v>-40.20088648644186</v>
       </c>
     </row>
     <row r="5">
@@ -8239,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-102.4613734822057</v>
+        <v>-40.14757591485926</v>
       </c>
     </row>
     <row r="6">
@@ -8247,7 +7944,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-102.7158932682612</v>
+        <v>-39.49815026043743</v>
       </c>
     </row>
     <row r="7">
@@ -8255,7 +7952,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-101.5111899637317</v>
+        <v>-38.92775440957658</v>
       </c>
     </row>
     <row r="8">
@@ -8263,7 +7960,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-101.7024847267222</v>
+        <v>-39.03878384256092</v>
       </c>
     </row>
     <row r="9">
@@ -8271,7 +7968,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-100.1831375265318</v>
+        <v>-38.07096358466364</v>
       </c>
     </row>
     <row r="10">
@@ -8279,7 +7976,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-101.3361390400585</v>
+        <v>-38.17962587834014</v>
       </c>
     </row>
     <row r="11">
@@ -8287,7 +7984,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-102.2327987709211</v>
+        <v>-38.71286437870221</v>
       </c>
     </row>
     <row r="12">
@@ -8295,7 +7992,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-102.7274718513688</v>
+        <v>-38.94571726045808</v>
       </c>
     </row>
     <row r="13">
@@ -8303,7 +8000,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-103.8336198792747</v>
+        <v>-38.84072031367856</v>
       </c>
     </row>
     <row r="14">
@@ -8311,7 +8008,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-104.1115796199371</v>
+        <v>-38.56596899259834</v>
       </c>
     </row>
     <row r="15">
@@ -8319,7 +8016,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-103.3906486154143</v>
+        <v>-39.30114424467018</v>
       </c>
     </row>
     <row r="16">
@@ -8327,7 +8024,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-102.6056660772996</v>
+        <v>-39.16916603111012</v>
       </c>
     </row>
     <row r="17">
@@ -8335,7 +8032,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-102.1352482164199</v>
+        <v>-39.1504601050423</v>
       </c>
     </row>
     <row r="18">
@@ -8343,7 +8040,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-106.0165141076292</v>
+        <v>-39.72120124768328</v>
       </c>
     </row>
     <row r="19">
@@ -8351,7 +8048,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-109.2025726380638</v>
+        <v>-40.52413917239166</v>
       </c>
     </row>
     <row r="20">
@@ -8359,7 +8056,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-109.9851883553316</v>
+        <v>-40.23069966194998</v>
       </c>
     </row>
     <row r="21">
@@ -8367,7 +8064,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-106.9820562773068</v>
+        <v>-41.99287130161829</v>
       </c>
     </row>
     <row r="22">
@@ -8375,7 +8072,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-106.9535141348898</v>
+        <v>-40.52580592270829</v>
       </c>
     </row>
     <row r="23">
@@ -8383,7 +8080,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-106.0581450263727</v>
+        <v>-39.63861525380815</v>
       </c>
     </row>
     <row r="24">
@@ -8391,7 +8088,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-106.9110573438892</v>
+        <v>-41.4973595654405</v>
       </c>
     </row>
     <row r="25">
@@ -8399,7 +8096,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-109.8253678369006</v>
+        <v>-40.41531023451908</v>
       </c>
     </row>
     <row r="26">
@@ -8407,7 +8104,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-111.4349320975495</v>
+        <v>-42.09594845155808</v>
       </c>
     </row>
     <row r="27">
@@ -8415,7 +8112,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-114.0624498077693</v>
+        <v>-42.68180379534051</v>
       </c>
     </row>
     <row r="28">
@@ -8423,7 +8120,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-111.9508235222775</v>
+        <v>-42.50463374270094</v>
       </c>
     </row>
     <row r="29">
@@ -8431,7 +8128,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-112.0441001954766</v>
+        <v>-41.59041162192804</v>
       </c>
     </row>
     <row r="30">
@@ -8439,7 +8136,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-113.4418978797549</v>
+        <v>-43.91665630602068</v>
       </c>
     </row>
     <row r="31">
@@ -8447,7 +8144,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-110.4085401198465</v>
+        <v>-44.21344256564318</v>
       </c>
     </row>
     <row r="32">
@@ -8455,7 +8152,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-113.2153095948004</v>
+        <v>-44.34707357349416</v>
       </c>
     </row>
     <row r="33">
@@ -8463,7 +8160,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-113.6189777243399</v>
+        <v>-47.72669925356865</v>
       </c>
     </row>
     <row r="34">
@@ -8471,7 +8168,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-111.8523098352503</v>
+        <v>-46.85690908985229</v>
       </c>
     </row>
     <row r="35">
@@ -8479,7 +8176,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-111.7312392678458</v>
+        <v>-46.52450382358732</v>
       </c>
     </row>
     <row r="36">
@@ -8487,7 +8184,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-112.5537204769272</v>
+        <v>-47.18263877782817</v>
       </c>
     </row>
     <row r="37">
@@ -8495,7 +8192,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-112.1623217985597</v>
+        <v>-45.21947464682356</v>
       </c>
     </row>
     <row r="38">
@@ -8503,7 +8200,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-113.5892489646882</v>
+        <v>-45.83321430839248</v>
       </c>
     </row>
     <row r="39">
@@ -8511,7 +8208,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-116.9110657370845</v>
+        <v>-46.18223905817184</v>
       </c>
     </row>
     <row r="40">
@@ -8519,7 +8216,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-115.6733449539019</v>
+        <v>-44.70114421168041</v>
       </c>
     </row>
     <row r="41">
@@ -8527,7 +8224,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-115.5148881343615</v>
+        <v>-44.28706068690206</v>
       </c>
     </row>
     <row r="42">
@@ -8535,7 +8232,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-114.8487896389074</v>
+        <v>-47.75513358466459</v>
       </c>
     </row>
     <row r="43">
@@ -8543,7 +8240,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-115.4386914666674</v>
+        <v>-47.98408280046621</v>
       </c>
     </row>
     <row r="44">
@@ -8551,7 +8248,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-115.4542551487381</v>
+        <v>-47.28551299050335</v>
       </c>
     </row>
     <row r="45">
@@ -8559,7 +8256,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-117.4712282122793</v>
+        <v>-48.50830041602856</v>
       </c>
     </row>
     <row r="46">
@@ -8567,7 +8264,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-116.5809846624915</v>
+        <v>-47.26506566268822</v>
       </c>
     </row>
     <row r="47">
@@ -8575,7 +8272,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-115.5424209893483</v>
+        <v>-47.27741368029066</v>
       </c>
     </row>
     <row r="48">
@@ -8583,7 +8280,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-113.030620704862</v>
+        <v>-45.48390097096636</v>
       </c>
     </row>
     <row r="49">
@@ -8591,7 +8288,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-112.9719309172568</v>
+        <v>-45.48437867726922</v>
       </c>
     </row>
     <row r="50">
@@ -8599,7 +8296,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-111.0103733652181</v>
+        <v>-44.47326108365125</v>
       </c>
     </row>
     <row r="51">
@@ -8607,7 +8304,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-111.6586648137858</v>
+        <v>-44.79668803323727</v>
       </c>
     </row>
     <row r="52">
@@ -8615,7 +8312,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-111.6465479278333</v>
+        <v>-44.13842329181946</v>
       </c>
     </row>
     <row r="53">
@@ -8623,7 +8320,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-111.735223073463</v>
+        <v>-44.25155566080445</v>
       </c>
     </row>
     <row r="54">
@@ -8631,7 +8328,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-112.6959780371782</v>
+        <v>-43.08901044990939</v>
       </c>
     </row>
     <row r="55">
@@ -8639,7 +8336,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-113.0961656956618</v>
+        <v>-43.55211725452346</v>
       </c>
     </row>
     <row r="56">
@@ -8647,7 +8344,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-112.8618501168138</v>
+        <v>-43.91238546074256</v>
       </c>
     </row>
     <row r="57">
@@ -8655,7 +8352,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-110.8337644443609</v>
+        <v>-43.18444328756973</v>
       </c>
     </row>
     <row r="58">
@@ -8663,7 +8360,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-109.7726684272355</v>
+        <v>-42.8344902250379</v>
       </c>
     </row>
     <row r="59">
@@ -8671,7 +8368,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-111.2560003070312</v>
+        <v>-43.39410466766937</v>
       </c>
     </row>
     <row r="60">
@@ -8679,7 +8376,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-109.2107237879208</v>
+        <v>-43.38125102599428</v>
       </c>
     </row>
     <row r="61">
@@ -8687,7 +8384,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-105.9791384253889</v>
+        <v>-43.09747491450214</v>
       </c>
     </row>
     <row r="62">
@@ -8695,7 +8392,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-106.9175610937734</v>
+        <v>-42.824087454543</v>
       </c>
     </row>
     <row r="63">
@@ -8703,7 +8400,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-103.7787317923236</v>
+        <v>-41.87883624608316</v>
       </c>
     </row>
     <row r="64">
@@ -8711,7 +8408,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-100.1499662237322</v>
+        <v>-41.20310978047846</v>
       </c>
     </row>
     <row r="65">
@@ -8719,7 +8416,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-101.8803324573138</v>
+        <v>-41.56243881410102</v>
       </c>
     </row>
     <row r="66">
@@ -8727,7 +8424,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-97.36182921529675</v>
+        <v>-39.98471042769015</v>
       </c>
     </row>
     <row r="67">
@@ -8735,7 +8432,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-96.91380374736617</v>
+        <v>-40.12447230896937</v>
       </c>
     </row>
     <row r="68">
@@ -8743,7 +8440,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-98.3493869869161</v>
+        <v>-39.85927619102503</v>
       </c>
     </row>
     <row r="69">
@@ -8751,7 +8448,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-93.64000819480398</v>
+        <v>-38.75950636953549</v>
       </c>
     </row>
     <row r="70">
@@ -8759,7 +8456,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-94.00901358798285</v>
+        <v>-38.70625424384554</v>
       </c>
     </row>
     <row r="71">
@@ -8767,7 +8464,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-94.31711848131533</v>
+        <v>-38.66570782667428</v>
       </c>
     </row>
     <row r="72">
@@ -8775,7 +8472,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-96.83901075075542</v>
+        <v>-38.94401700343785</v>
       </c>
     </row>
     <row r="73">
@@ -8783,7 +8480,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-98.97571030727099</v>
+        <v>-41.92846572571293</v>
       </c>
     </row>
     <row r="74">
@@ -8791,7 +8488,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-95.28898369736059</v>
+        <v>-40.23551964833312</v>
       </c>
     </row>
     <row r="75">
@@ -8799,7 +8496,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-94.71518464318459</v>
+        <v>-38.60456978556837</v>
       </c>
     </row>
     <row r="76">
@@ -8807,7 +8504,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-98.02978599733031</v>
+        <v>-39.37411711318371</v>
       </c>
     </row>
     <row r="77">
@@ -8815,7 +8512,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-98.61799829387391</v>
+        <v>-38.80634838005353</v>
       </c>
     </row>
     <row r="78">
@@ -8823,7 +8520,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-95.43719516369836</v>
+        <v>-37.47635662939616</v>
       </c>
     </row>
     <row r="79">
@@ -8831,7 +8528,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-95.39519219595221</v>
+        <v>-37.20890785299854</v>
       </c>
     </row>
     <row r="80">
@@ -8839,7 +8536,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-94.63805709365258</v>
+        <v>-37.32274041013738</v>
       </c>
     </row>
     <row r="81">
@@ -8847,7 +8544,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-91.63385152388511</v>
+        <v>-36.55963485176541</v>
       </c>
     </row>
     <row r="82">
@@ -8855,7 +8552,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-89.36662467264293</v>
+        <v>-36.84071425066025</v>
       </c>
     </row>
     <row r="83">
@@ -8863,7 +8560,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-90.91035255527476</v>
+        <v>-36.6224118991523</v>
       </c>
     </row>
     <row r="84">
@@ -8871,7 +8568,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-88.27457697801601</v>
+        <v>-36.75998142174458</v>
       </c>
     </row>
     <row r="85">
@@ -8879,7 +8576,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-90.12106706782765</v>
+        <v>-36.30640475239324</v>
       </c>
     </row>
     <row r="86">
@@ -8887,7 +8584,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-88.79817655499858</v>
+        <v>-36.67899342777956</v>
       </c>
     </row>
     <row r="87">
@@ -8895,7 +8592,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-88.84146254600361</v>
+        <v>-36.39410837717685</v>
       </c>
     </row>
     <row r="88">
@@ -8903,7 +8600,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-89.07641549569914</v>
+        <v>-36.40734441470563</v>
       </c>
     </row>
     <row r="89">
@@ -8911,7 +8608,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-88.68674193788706</v>
+        <v>-36.51369524060499</v>
       </c>
     </row>
     <row r="90">
@@ -8919,7 +8616,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-89.80865470386118</v>
+        <v>-36.54244037146447</v>
       </c>
     </row>
     <row r="91">
@@ -8927,7 +8624,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-94.19991170140173</v>
+        <v>-39.7136325150186</v>
       </c>
     </row>
     <row r="92">
@@ -8935,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-96.7829517782296</v>
+        <v>-40.68061797011985</v>
       </c>
     </row>
     <row r="93">
@@ -8943,7 +8640,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-97.6585634476381</v>
+        <v>-41.15394852439726</v>
       </c>
     </row>
     <row r="94">
@@ -8951,7 +8648,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-97.97764569988243</v>
+        <v>-39.76201999260097</v>
       </c>
     </row>
     <row r="95">
@@ -8959,7 +8656,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-95.04241922014872</v>
+        <v>-38.66004341469441</v>
       </c>
     </row>
     <row r="96">
@@ -8967,7 +8664,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-97.18543957805602</v>
+        <v>-36.65529825805</v>
       </c>
     </row>
     <row r="97">
@@ -8975,7 +8672,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-98.2014605728981</v>
+        <v>-36.58732478092826</v>
       </c>
     </row>
     <row r="98">
@@ -8983,7 +8680,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-95.55667787311592</v>
+        <v>-36.33067370366986</v>
       </c>
     </row>
     <row r="99">
@@ -8991,7 +8688,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-94.02935946247156</v>
+        <v>-36.34394605244727</v>
       </c>
     </row>
     <row r="100">
@@ -8999,7 +8696,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-94.28725091264668</v>
+        <v>-36.3172689309405</v>
       </c>
     </row>
     <row r="101">
@@ -9007,7 +8704,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-93.27107395552244</v>
+        <v>-36.20421252576862</v>
       </c>
     </row>
     <row r="102">
@@ -9015,7 +8712,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-91.99447548700076</v>
+        <v>-36.16413913836813</v>
       </c>
     </row>
     <row r="103">
@@ -9023,7 +8720,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-98.84859560184765</v>
+        <v>-36.06134473843917</v>
       </c>
     </row>
     <row r="104">
@@ -9031,7 +8728,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-99.52972036626039</v>
+        <v>-36.15386254410851</v>
       </c>
     </row>
     <row r="105">
@@ -9039,7 +8736,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-97.05345783049648</v>
+        <v>-36.4352201901399</v>
       </c>
     </row>
     <row r="106">
@@ -9047,7 +8744,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-96.79192009358935</v>
+        <v>-38.56374330455267</v>
       </c>
     </row>
     <row r="107">
@@ -9055,7 +8752,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-97.55799362340451</v>
+        <v>-39.09755887638106</v>
       </c>
     </row>
     <row r="108">
@@ -9063,7 +8760,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-99.2124177424049</v>
+        <v>-38.77973624966474</v>
       </c>
     </row>
     <row r="109">
@@ -9071,7 +8768,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-102.598074851389</v>
+        <v>-40.05816087524785</v>
       </c>
     </row>
     <row r="110">
@@ -9079,7 +8776,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-104.3608190153254</v>
+        <v>-40.30347481124868</v>
       </c>
     </row>
     <row r="111">
@@ -9087,7 +8784,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-104.4738443927327</v>
+        <v>-40.27934111228314</v>
       </c>
     </row>
     <row r="112">
@@ -9095,7 +8792,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-107.8815745078244</v>
+        <v>-39.9894835181213</v>
       </c>
     </row>
     <row r="113">
@@ -9103,7 +8800,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-106.2955224682042</v>
+        <v>-40.11313952159718</v>
       </c>
     </row>
     <row r="114">
@@ -9111,7 +8808,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-112.0764723619428</v>
+        <v>-40.99757073325885</v>
       </c>
     </row>
     <row r="115">
@@ -9119,7 +8816,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-111.8515512690905</v>
+        <v>-41.23983965208602</v>
       </c>
     </row>
     <row r="116">
@@ -9127,7 +8824,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-109.7809915810823</v>
+        <v>-40.33634973130053</v>
       </c>
     </row>
     <row r="117">
@@ -9135,7 +8832,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-108.8624336016256</v>
+        <v>-42.02246911863139</v>
       </c>
     </row>
     <row r="118">
@@ -9143,7 +8840,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-109.5020334019824</v>
+        <v>-41.07894448928953</v>
       </c>
     </row>
     <row r="119">
@@ -9151,7 +8848,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-109.6413193923457</v>
+        <v>-42.38016975543701</v>
       </c>
     </row>
     <row r="120">
@@ -9159,7 +8856,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-112.3736809046077</v>
+        <v>-43.14628452048751</v>
       </c>
     </row>
     <row r="121">
@@ -9167,7 +8864,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-110.5452644416891</v>
+        <v>-41.88448930541888</v>
       </c>
     </row>
     <row r="122">
@@ -9175,7 +8872,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-109.6561450163904</v>
+        <v>-42.2324780665467</v>
       </c>
     </row>
     <row r="123">
@@ -9183,7 +8880,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-111.4921158700635</v>
+        <v>-41.95734783417858</v>
       </c>
     </row>
     <row r="124">
@@ -9191,7 +8888,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-111.901593788757</v>
+        <v>-39.85791714752983</v>
       </c>
     </row>
     <row r="125">
@@ -9199,7 +8896,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-112.1577178475287</v>
+        <v>-40.56207683207482</v>
       </c>
     </row>
     <row r="126">
@@ -9207,7 +8904,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-115.5090992158067</v>
+        <v>-40.79789591832545</v>
       </c>
     </row>
     <row r="127">
@@ -9215,7 +8912,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-114.8476097738184</v>
+        <v>-40.92048106820403</v>
       </c>
     </row>
     <row r="128">
@@ -9223,7 +8920,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-111.4222403332761</v>
+        <v>-40.73343715834174</v>
       </c>
     </row>
     <row r="129">
@@ -9231,7 +8928,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-111.2373642682762</v>
+        <v>-41.40659689386015</v>
       </c>
     </row>
     <row r="130">
@@ -9239,7 +8936,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-109.5840921519964</v>
+        <v>-40.13465781006369</v>
       </c>
     </row>
     <row r="131">
@@ -9247,7 +8944,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-107.6074910892696</v>
+        <v>-39.80276629493763</v>
       </c>
     </row>
     <row r="132">
@@ -9255,7 +8952,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-109.4723496290373</v>
+        <v>-40.27529747345363</v>
       </c>
     </row>
     <row r="133">
@@ -9263,7 +8960,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-111.4217355420566</v>
+        <v>-39.75440546528193</v>
       </c>
     </row>
     <row r="134">
@@ -9271,7 +8968,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-108.1989792423666</v>
+        <v>-40.15222229843622</v>
       </c>
     </row>
     <row r="135">
@@ -9279,7 +8976,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-108.4965345802811</v>
+        <v>-39.92290748301387</v>
       </c>
     </row>
     <row r="136">
@@ -9287,7 +8984,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-107.3783806615883</v>
+        <v>-39.20640279847493</v>
       </c>
     </row>
     <row r="137">
@@ -9295,7 +8992,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-105.9961768014293</v>
+        <v>-39.42646928624825</v>
       </c>
     </row>
     <row r="138">
@@ -9303,7 +9000,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-106.9055857379533</v>
+        <v>-39.56855392061395</v>
       </c>
     </row>
     <row r="139">
@@ -9311,7 +9008,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-108.0073558108539</v>
+        <v>-39.46362040552693</v>
       </c>
     </row>
     <row r="140">
@@ -9319,7 +9016,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-109.3065707123124</v>
+        <v>-39.81979580923869</v>
       </c>
     </row>
     <row r="141">
@@ -9327,7 +9024,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-106.61370019427</v>
+        <v>-38.83060477402424</v>
       </c>
     </row>
     <row r="142">
@@ -9335,7 +9032,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-104.3013799189193</v>
+        <v>-39.48329078884223</v>
       </c>
     </row>
     <row r="143">
@@ -9343,7 +9040,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-104.8547808929852</v>
+        <v>-39.55795557145433</v>
       </c>
     </row>
     <row r="144">
@@ -9351,7 +9048,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-104.5641635578935</v>
+        <v>-39.10736568678723</v>
       </c>
     </row>
     <row r="145">
@@ -9359,7 +9056,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-105.6335342710889</v>
+        <v>-39.58737089876355</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt formatCode="0.000" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,33 +125,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -531,7 +599,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1714,7 +1782,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1732,7 +1800,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="5" max="5"/>
+    <col customWidth="1" max="5" min="5" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1800,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2013004421</v>
+        <v>2012002968</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012009603</v>
+        <v>2014000542</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1921,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2015007057</v>
+        <v>2016007854</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1959,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1982,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012008915</v>
+        <v>2013007867</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1997,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +2020,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013008374</v>
+        <v>2016007376</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +2035,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +2058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016008041</v>
+        <v>2016000882</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2073,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2096,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2013007092</v>
+        <v>2016005444</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2111,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2014001742</v>
+        <v>2013007395</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2104,7 +2172,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015005532</v>
+        <v>2013004077</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2187,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2210,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2015008987</v>
+        <v>2015004845</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2225,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2248,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2013009146</v>
+        <v>2013008662</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2218,7 +2286,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2015009337</v>
+        <v>2015004698</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2256,7 +2324,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2013005970</v>
+        <v>2016004588</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2271,7 +2339,7 @@
         <v>7.4</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
         <v>250</v>
@@ -2294,7 +2362,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2016003994</v>
+        <v>2015003296</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2309,7 +2377,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2332,7 +2400,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2013002919</v>
+        <v>2013007836</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2347,7 +2415,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2370,7 +2438,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2014008506</v>
+        <v>2013007307</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2408,7 +2476,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2013009029</v>
+        <v>2015005910</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -2423,7 +2491,7 @@
         <v>7.4</v>
       </c>
       <c r="F18" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
         <v>250</v>
@@ -2446,7 +2514,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2013008559</v>
+        <v>2013004384</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -2461,7 +2529,7 @@
         <v>7.4</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G19" t="n">
         <v>250</v>
@@ -2483,7 +2551,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2501,7 +2569,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="15.85546875" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2533,84 +2601,84 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2013004421</v>
+        <v>2012002968</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>29.05648746054119</v>
+        <v>48.11502409566241</v>
       </c>
       <c r="E2" t="n">
-        <v>31.22715412720785</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013004421</v>
+        <v>2012002968</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C3" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>23.57120466054119</v>
+        <v>58.8895554</v>
       </c>
       <c r="E3" t="n">
-        <v>39.45689370955438</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2013004421</v>
+        <v>2014000542</v>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
-        <v>38.90564826054118</v>
+        <v>18.52824399824406</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>23.99999999824409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2012009603</v>
+        <v>2016007854</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" t="n">
-        <v>67.89315454327786</v>
+        <v>16.44897671824408</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>23.99999999824407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2015007057</v>
+        <v>2013007867</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D6" t="n">
-        <v>38.3584726605412</v>
+        <v>30.4244264605412</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
@@ -2618,50 +2686,50 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2012008915</v>
+        <v>2016007376</v>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D7" t="n">
-        <v>15.09471710824407</v>
+        <v>35.07541906054121</v>
       </c>
       <c r="E7" t="n">
-        <v>23.45733333157741</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013008374</v>
+        <v>2016000882</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D8" t="n">
-        <v>51.8567395956624</v>
+        <v>45.5159399956624</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>59.45706903080539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2016008041</v>
+        <v>2016005444</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D9" t="n">
-        <v>63.89555398327789</v>
+        <v>69.3608726232779</v>
       </c>
       <c r="E9" t="n">
         <v>75</v>
@@ -2669,33 +2737,33 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2013007092</v>
+        <v>2013007395</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>116</v>
       </c>
       <c r="D10" t="n">
-        <v>30.01404476054119</v>
+        <v>37.8112976</v>
       </c>
       <c r="E10" t="n">
-        <v>39.99964445459047</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2014001742</v>
+        <v>2013007395</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="D11" t="n">
-        <v>35.0754196</v>
+        <v>37.8112976</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
@@ -2703,118 +2771,118 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2014001742</v>
+        <v>2013004077</v>
       </c>
       <c r="B12" t="n">
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D12" t="n">
-        <v>32.6614096</v>
+        <v>13.95932774</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>23.67439999824406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2015005532</v>
+        <v>2015004845</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D13" t="n">
-        <v>23.68881225046736</v>
+        <v>33.23721698094889</v>
       </c>
       <c r="E13" t="n">
-        <v>29.78293332780068</v>
+        <v>59.96520120002651</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2015008987</v>
+        <v>2013008662</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D14" t="n">
-        <v>20.7784818</v>
+        <v>69.47674510327788</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2015008987</v>
+        <v>2015004698</v>
       </c>
       <c r="B15" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="n">
-        <v>29.44638703446733</v>
+        <v>37.81129706054119</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2013009146</v>
+        <v>2016004588</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>69.66986590327788</v>
+        <v>35.95090056</v>
       </c>
       <c r="E16" t="n">
-        <v>71.19608242936717</v>
+        <v>38.42167566409129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2013009146</v>
+        <v>2016004588</v>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D17" t="n">
-        <v>71.5238256</v>
+        <v>39.72641220000001</v>
       </c>
       <c r="E17" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2015009337</v>
+        <v>2015003296</v>
       </c>
       <c r="B18" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D18" t="n">
-        <v>38.08488486054122</v>
+        <v>34.93862516054121</v>
       </c>
       <c r="E18" t="n">
         <v>40</v>
@@ -2822,156 +2890,128 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2013005970</v>
+        <v>2013007836</v>
       </c>
       <c r="B19" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C19" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" t="n">
-        <v>21.55321807046736</v>
+        <v>30.19087449136305</v>
       </c>
       <c r="E19" t="n">
-        <v>29.56586666113402</v>
+        <v>39.45644529193058</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2016003994</v>
+        <v>2013007307</v>
       </c>
       <c r="B20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D20" t="n">
-        <v>18.52824399824407</v>
+        <v>51.8567395956624</v>
       </c>
       <c r="E20" t="n">
-        <v>23.99999999824409</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2013002919</v>
+        <v>2013007307</v>
       </c>
       <c r="B21" t="n">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C21" t="n">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D21" t="n">
-        <v>19.67511829046736</v>
+        <v>57.7791108</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2013002919</v>
+        <v>2015005910</v>
       </c>
       <c r="B22" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="D22" t="n">
-        <v>28.72669018646737</v>
+        <v>23.15187782</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>2014008506</v>
+        <v>2015005910</v>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D23" t="n">
-        <v>50.6014543956624</v>
+        <v>23.4528244</v>
       </c>
       <c r="E23" t="n">
-        <v>55.35951841269202</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>2014008506</v>
+        <v>2015005910</v>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C24" t="n">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D24" t="n">
-        <v>55.5582216</v>
+        <v>23.17923660000001</v>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>2014008506</v>
+        <v>2013004384</v>
       </c>
       <c r="B25" t="n">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D25" t="n">
-        <v>54.8581587</v>
+        <v>54.8179251956624</v>
       </c>
       <c r="E25" t="n">
-        <v>55.94031681166288</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n">
-        <v>2013009029</v>
-      </c>
-      <c r="B26" t="n">
-        <v>34</v>
-      </c>
-      <c r="C26" t="n">
-        <v>118</v>
-      </c>
-      <c r="D26" t="n">
-        <v>56.09025498327789</v>
-      </c>
-      <c r="E26" t="n">
-        <v>75</v>
-      </c>
+      <c r="A26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n">
-        <v>2013008559</v>
-      </c>
-      <c r="B27" t="n">
-        <v>36</v>
-      </c>
-      <c r="C27" t="n">
-        <v>94</v>
-      </c>
-      <c r="D27" t="n">
-        <v>34.0905029805412</v>
-      </c>
-      <c r="E27" t="n">
-        <v>40</v>
-      </c>
+      <c r="A27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="n"/>
@@ -2980,7 +3020,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2998,8 +3038,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="11.7109375" customWidth="1" min="2" max="2"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="2" min="2" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5900,7 +5940,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5975,7 +6015,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6061,7 +6101,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6172,7 +6212,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6218,7 +6258,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6537,7 +6577,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6555,10 +6595,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6579,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>11.75132615499005</v>
+        <v>11.16375984724055</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6588,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>9.20842516494737</v>
+        <v>8.748003906700001</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6597,7 +6637,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>9.635870219548638</v>
+        <v>9.154076708571205</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6606,7 +6646,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>9.607436687452203</v>
+        <v>9.127064853079593</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6615,7 +6655,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>10.91257880287533</v>
+        <v>10.36694986273157</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6624,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>10.75259667339223</v>
+        <v>10.21496683972261</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6633,7 +6673,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>12.60683621498506</v>
+        <v>11.9764944042358</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6642,7 +6682,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>11.88226726197571</v>
+        <v>11.28815389887692</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6651,7 +6691,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>11.71249528471088</v>
+        <v>11.12687052047534</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6660,7 +6700,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>12.55058118749482</v>
+        <v>11.92305212812008</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6669,7 +6709,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>11.16649720535344</v>
+        <v>10.60817234508577</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6678,7 +6718,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>11.25907580002321</v>
+        <v>10.69612201002205</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6687,7 +6727,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>13.36314205702493</v>
+        <v>12.69498495417368</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6696,7 +6736,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>11.72783731972047</v>
+        <v>11.14144545373444</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6705,7 +6745,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>12.018379082911</v>
+        <v>11.41746012876545</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6714,7 +6754,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>11.7036363168916</v>
+        <v>11.11845450104702</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6723,7 +6763,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>11.44386929753244</v>
+        <v>10.87167583265582</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6732,7 +6772,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>8.842418953415564</v>
+        <v>8.400298005744785</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6741,7 +6781,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>11.16697059825357</v>
+        <v>10.60862206834089</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6750,7 +6790,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8.765962569828869</v>
+        <v>8.327664441337424</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6759,7 +6799,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>9.748143248540854</v>
+        <v>9.260736086113811</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6768,7 +6808,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>10.81027371872849</v>
+        <v>10.26976003279207</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6777,7 +6817,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>8.835325718370065</v>
+        <v>8.393559432451561</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6786,7 +6826,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>8.543704080270098</v>
+        <v>8.116518876256594</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6795,7 +6835,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>9.748439555140493</v>
+        <v>9.261017577383468</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6804,7 +6844,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>8.169221957150308</v>
+        <v>7.760760859292792</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6813,7 +6853,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>8.437053221507695</v>
+        <v>8.015200560432309</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6822,7 +6862,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>8.913055693540162</v>
+        <v>8.467402908863153</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6831,7 +6871,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>5.335463257091142</v>
+        <v>5.068690094236585</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6840,7 +6880,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>4.491040679829782</v>
+        <v>4.266488645838292</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6849,7 +6889,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>4.796638164463543</v>
+        <v>4.556806256240366</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6858,7 +6898,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>3.113028698273238</v>
+        <v>2.957377263359576</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6867,7 +6907,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.419866135448095</v>
+        <v>3.24887282867569</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6876,7 +6916,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.560785938078252</v>
+        <v>3.38274664117434</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6885,7 +6925,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>6.329373779084007</v>
+        <v>6.012905090129806</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6894,7 +6934,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>4.881755510063821</v>
+        <v>4.63766773456063</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6903,7 +6943,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>4.604424469849621</v>
+        <v>4.37420324635714</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6912,7 +6952,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.90547382880637</v>
+        <v>3.710200137366052</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6921,7 +6961,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>3.843889122009416</v>
+        <v>3.651694665908945</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6930,7 +6970,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>4.747005165611458</v>
+        <v>4.509654907330884</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6939,7 +6979,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.909055813133466</v>
+        <v>2.763603022476793</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6948,7 +6988,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.134194120538087</v>
+        <v>2.977484414511182</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6957,7 +6997,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4.526915086277285</v>
+        <v>4.300569331963421</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6966,7 +7006,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>5.09559013767671</v>
+        <v>4.840810630792874</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6975,7 +7015,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.998928332746853</v>
+        <v>3.79898191610951</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6984,7 +7024,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2.725184899857707</v>
+        <v>2.588925654864822</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6993,7 +7033,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.106521820852572</v>
+        <v>3.901195729809944</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7002,7 +7042,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>4.541814038847544</v>
+        <v>4.314723336905167</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7011,7 +7051,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.884889818081747</v>
+        <v>4.64064532717766</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7020,7 +7060,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>6.083486469937258</v>
+        <v>5.779312146440395</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7029,7 +7069,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>5.960115836470083</v>
+        <v>5.662110044646578</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7038,7 +7078,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>8.156591888307156</v>
+        <v>7.748762293891798</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7047,7 +7087,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.311845034503698</v>
+        <v>4.096252782778514</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7056,7 +7096,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>6.316782973494043</v>
+        <v>6.00094382481934</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7065,7 +7105,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>6.228449873837421</v>
+        <v>5.917027380145549</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7074,7 +7114,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>7.148007321457453</v>
+        <v>6.790606955384581</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7083,7 +7123,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>6.6428066472662</v>
+        <v>6.31066631490289</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7092,7 +7132,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>7.345162537231351</v>
+        <v>6.977904410369783</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7101,7 +7141,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.974352651876218</v>
+        <v>8.525635019282408</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7110,7 +7150,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>9.122879424418127</v>
+        <v>8.666735453197219</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7119,7 +7159,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>10.27744868196871</v>
+        <v>9.763576247870276</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7128,7 +7168,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>12.54285487098141</v>
+        <v>11.91571212743234</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7137,7 +7177,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>12.85692677082693</v>
+        <v>12.21408043228558</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7146,7 +7186,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>11.93855934644329</v>
+        <v>11.34163137912113</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7155,7 +7195,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>14.55549947071368</v>
+        <v>13.82772449717799</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7164,7 +7204,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>14.79419396993934</v>
+        <v>14.05448427144237</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7173,7 +7213,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>14.33973507150042</v>
+        <v>13.6227483179254</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7182,7 +7222,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>16.46115236871189</v>
+        <v>15.63809475027629</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7191,7 +7231,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>15.85163379939215</v>
+        <v>15.05905210942254</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7200,7 +7240,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>14.85329769425712</v>
+        <v>14.11063280954427</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7209,7 +7249,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>16.70433461059493</v>
+        <v>15.86911788006519</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7218,7 +7258,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>13.61961369222473</v>
+        <v>12.93863300761349</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7227,7 +7267,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>14.10714634641869</v>
+        <v>13.40178902909776</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7236,7 +7276,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>15.25974305068565</v>
+        <v>14.49675589815136</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7245,7 +7285,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>16.12852057000676</v>
+        <v>15.32209454150642</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7254,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>15.36589492375669</v>
+        <v>14.59760017756885</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7263,7 +7303,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>18.77291307789201</v>
+        <v>17.83426742399741</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7272,7 +7312,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>18.06798188871057</v>
+        <v>17.16458279427504</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7281,7 +7321,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>17.71347782450552</v>
+        <v>16.82780393328024</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7290,7 +7330,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>18.30132098734875</v>
+        <v>17.38625493798131</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7299,7 +7339,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>18.85123372627971</v>
+        <v>17.90867203996572</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7308,7 +7348,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>18.57976629121023</v>
+        <v>17.65077797664971</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7317,7 +7357,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>18.50730494063421</v>
+        <v>17.5819396936025</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7326,7 +7366,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>18.46146466876952</v>
+        <v>17.53839143533105</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7335,7 +7375,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>18.72645787901734</v>
+        <v>17.79013498506647</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7344,7 +7384,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>19.14889754703531</v>
+        <v>18.19145266968354</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7353,7 +7393,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>19.18830940159026</v>
+        <v>18.22889393151074</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7362,7 +7402,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>19.44171492086755</v>
+        <v>18.46962917482417</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7371,7 +7411,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>19.58097862707456</v>
+        <v>18.60192969572083</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7380,7 +7420,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>14.52245016313829</v>
+        <v>13.79632765498138</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7389,7 +7429,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>13.29151347115427</v>
+        <v>12.62693779759656</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7398,7 +7438,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>13.91443593036232</v>
+        <v>13.21871413384421</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7407,7 +7447,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>13.80624784191436</v>
+        <v>13.11593544981864</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7416,7 +7456,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>15.47614084303347</v>
+        <v>14.7023338008818</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7425,7 +7465,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>16.8583259183773</v>
+        <v>16.01540962245844</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7434,7 +7474,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>16.30510773254149</v>
+        <v>15.48985234591441</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7443,7 +7483,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>18.6443417491058</v>
+        <v>17.71212466165051</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7452,7 +7492,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>19.3121540276824</v>
+        <v>18.34654632629828</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7461,7 +7501,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>18.60938934709153</v>
+        <v>17.67891987973695</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7470,7 +7510,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>19.32908018800349</v>
+        <v>18.36262617860331</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7479,7 +7519,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>19.8352182896623</v>
+        <v>18.84345737517918</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7488,7 +7528,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>20.53429416488176</v>
+        <v>19.50757945663768</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7497,7 +7537,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>19.92818642510787</v>
+        <v>18.93177710385247</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7506,7 +7546,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>19.38603361515079</v>
+        <v>18.41673193439325</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7515,7 +7555,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>17.34122798894362</v>
+        <v>16.47416658949644</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7524,7 +7564,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>17.08931569591925</v>
+        <v>16.23484991112329</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7533,7 +7573,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>17.12990251410763</v>
+        <v>16.27340738840224</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7542,7 +7582,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>15.3619558564602</v>
+        <v>14.59385806363719</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7551,7 +7591,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>14.41259027535583</v>
+        <v>13.69196076158803</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7560,7 +7600,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>12.91497909990779</v>
+        <v>12.2692301449124</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7569,7 +7609,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>12.90000261909148</v>
+        <v>12.25500248813691</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7578,7 +7618,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>12.20110922205452</v>
+        <v>11.59105376095179</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7587,7 +7627,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>11.34497806655146</v>
+        <v>10.77772916322388</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7596,7 +7636,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>11.55560915526352</v>
+        <v>10.97782869750034</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7605,7 +7645,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>11.78354958238462</v>
+        <v>11.19437210326539</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7614,7 +7654,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>10.19316196931941</v>
+        <v>9.683503870853437</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7623,7 +7663,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>11.73030977964408</v>
+        <v>11.14379429066188</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7632,7 +7672,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>9.904184938040155</v>
+        <v>9.408975691138147</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7641,7 +7681,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>10.06180634212854</v>
+        <v>9.558716025022116</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7650,7 +7690,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>10.17102490972448</v>
+        <v>9.662473664238254</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7659,7 +7699,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>9.817089072897137</v>
+        <v>9.326234619252279</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7668,7 +7708,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>10.90478029182673</v>
+        <v>10.35954127723539</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7677,7 +7717,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>10.42803919306302</v>
+        <v>9.906637233409866</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7686,7 +7726,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>9.782642677174534</v>
+        <v>9.293510543315808</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7695,7 +7735,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>10.76062840059081</v>
+        <v>10.22259698056127</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7704,7 +7744,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>11.46854868676643</v>
+        <v>10.89512125242811</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7713,7 +7753,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>11.43295307480001</v>
+        <v>10.86130542106001</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7722,7 +7762,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>10.87317416353086</v>
+        <v>10.32951545535431</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7731,7 +7771,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>11.63226937346837</v>
+        <v>11.05065590479495</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7740,7 +7780,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>10.82960197820552</v>
+        <v>10.28812187929524</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7749,7 +7789,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>11.75994039166809</v>
+        <v>11.17194337208469</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7758,7 +7798,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>12.40123880969028</v>
+        <v>11.78117686920577</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7767,7 +7807,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>12.91371309161546</v>
+        <v>12.26802743703469</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7776,7 +7816,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>12.91244697311698</v>
+        <v>12.26682462446113</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7785,7 +7825,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>12.7553879498829</v>
+        <v>12.11761855238875</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7794,7 +7834,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>13.05196620447893</v>
+        <v>12.39936789425498</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7803,7 +7843,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>10.23220615357429</v>
+        <v>9.72059584589557</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7812,7 +7852,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>11.59788382308919</v>
+        <v>11.01798963193473</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7821,7 +7861,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>11.08982640746055</v>
+        <v>10.53533508708752</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7830,7 +7870,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>11.59986186848636</v>
+        <v>11.01986877506204</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7839,7 +7879,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>11.85820864221695</v>
+        <v>11.26529821010611</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7848,7 +7888,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>12.46834034611861</v>
+        <v>11.84492332881268</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7857,7 +7897,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>11.15138041669409</v>
+        <v>10.59381139585938</v>
       </c>
     </row>
     <row r="145">
@@ -7865,14 +7905,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>11.33325969306338</v>
+        <v>10.76659670841021</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -7890,8 +7930,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7912,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-39.64153000422655</v>
+        <v>-26.36161745281065</v>
       </c>
     </row>
     <row r="3">
@@ -7920,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-40.41526467686337</v>
+        <v>-26.87615101011414</v>
       </c>
     </row>
     <row r="4">
@@ -7928,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-40.20088648644186</v>
+        <v>-26.73358951348384</v>
       </c>
     </row>
     <row r="5">
@@ -7936,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-40.14757591485926</v>
+        <v>-26.6981379833814</v>
       </c>
     </row>
     <row r="6">
@@ -7944,7 +7984,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-39.49815026043743</v>
+        <v>-26.26626992319088</v>
       </c>
     </row>
     <row r="7">
@@ -7952,7 +7992,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-38.92775440957658</v>
+        <v>-25.88695668236842</v>
       </c>
     </row>
     <row r="8">
@@ -7960,7 +8000,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-39.03878384256092</v>
+        <v>-25.96079125530301</v>
       </c>
     </row>
     <row r="9">
@@ -7968,7 +8008,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-38.07096358466364</v>
+        <v>-25.31719078380132</v>
       </c>
     </row>
     <row r="10">
@@ -7976,7 +8016,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-38.17962587834014</v>
+        <v>-25.38945120909619</v>
       </c>
     </row>
     <row r="11">
@@ -7984,7 +8024,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-38.71286437870221</v>
+        <v>-25.74405481183696</v>
       </c>
     </row>
     <row r="12">
@@ -7992,7 +8032,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-38.94571726045808</v>
+        <v>-25.89890197820462</v>
       </c>
     </row>
     <row r="13">
@@ -8000,7 +8040,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-38.84072031367856</v>
+        <v>-25.82907900859624</v>
       </c>
     </row>
     <row r="14">
@@ -8008,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-38.56596899259834</v>
+        <v>-25.64636938007789</v>
       </c>
     </row>
     <row r="15">
@@ -8016,7 +8056,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-39.30114424467018</v>
+        <v>-26.13526092270567</v>
       </c>
     </row>
     <row r="16">
@@ -8024,7 +8064,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-39.16916603111012</v>
+        <v>-26.04749541068823</v>
       </c>
     </row>
     <row r="17">
@@ -8032,7 +8072,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-39.1504601050423</v>
+        <v>-26.03505596985313</v>
       </c>
     </row>
     <row r="18">
@@ -8040,7 +8080,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-39.72120124768328</v>
+        <v>-26.41459882970938</v>
       </c>
     </row>
     <row r="19">
@@ -8048,7 +8088,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-40.52413917239166</v>
+        <v>-26.94855254964045</v>
       </c>
     </row>
     <row r="20">
@@ -8056,7 +8096,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-40.23069966194998</v>
+        <v>-26.75341527519673</v>
       </c>
     </row>
     <row r="21">
@@ -8064,7 +8104,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-41.99287130161829</v>
+        <v>-27.92525941557616</v>
       </c>
     </row>
     <row r="22">
@@ -8072,7 +8112,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-40.52580592270829</v>
+        <v>-26.94966093860101</v>
       </c>
     </row>
     <row r="23">
@@ -8080,7 +8120,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-39.63861525380815</v>
+        <v>-26.35967914378242</v>
       </c>
     </row>
     <row r="24">
@@ -8088,7 +8128,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-41.4973595654405</v>
+        <v>-27.59574411101794</v>
       </c>
     </row>
     <row r="25">
@@ -8096,7 +8136,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-40.41531023451908</v>
+        <v>-26.87618130595519</v>
       </c>
     </row>
     <row r="26">
@@ -8104,7 +8144,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-42.09594845155808</v>
+        <v>-27.99380572028612</v>
       </c>
     </row>
     <row r="27">
@@ -8112,7 +8152,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-42.68180379534051</v>
+        <v>-28.38339952390144</v>
       </c>
     </row>
     <row r="28">
@@ -8120,7 +8160,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-42.50463374270094</v>
+        <v>-28.26558143889612</v>
       </c>
     </row>
     <row r="29">
@@ -8128,7 +8168,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-41.59041162192804</v>
+        <v>-27.65762372858214</v>
       </c>
     </row>
     <row r="30">
@@ -8136,7 +8176,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-43.91665630602068</v>
+        <v>-29.20457644350375</v>
       </c>
     </row>
     <row r="31">
@@ -8144,7 +8184,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-44.21344256564318</v>
+        <v>-29.40193930615271</v>
       </c>
     </row>
     <row r="32">
@@ -8152,7 +8192,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-44.34707357349416</v>
+        <v>-29.49080392637361</v>
       </c>
     </row>
     <row r="33">
@@ -8160,7 +8200,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-47.72669925356865</v>
+        <v>-31.73825500362315</v>
       </c>
     </row>
     <row r="34">
@@ -8168,7 +8208,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-46.85690908985229</v>
+        <v>-31.15984454475177</v>
       </c>
     </row>
     <row r="35">
@@ -8176,7 +8216,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-46.52450382358732</v>
+        <v>-30.93879504268557</v>
       </c>
     </row>
     <row r="36">
@@ -8184,7 +8224,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-47.18263877782817</v>
+        <v>-31.37645478725574</v>
       </c>
     </row>
     <row r="37">
@@ -8192,7 +8232,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-45.21947464682356</v>
+        <v>-30.07095064013766</v>
       </c>
     </row>
     <row r="38">
@@ -8200,7 +8240,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-45.83321430839248</v>
+        <v>-30.479087515081</v>
       </c>
     </row>
     <row r="39">
@@ -8208,7 +8248,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-46.18223905817184</v>
+        <v>-30.71118897368427</v>
       </c>
     </row>
     <row r="40">
@@ -8216,7 +8256,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-44.70114421168041</v>
+        <v>-29.72626090076747</v>
       </c>
     </row>
     <row r="41">
@@ -8224,7 +8264,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-44.28706068690206</v>
+        <v>-29.45089535678987</v>
       </c>
     </row>
     <row r="42">
@@ -8232,7 +8272,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-47.75513358466459</v>
+        <v>-31.75716383380195</v>
       </c>
     </row>
     <row r="43">
@@ -8240,7 +8280,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-47.98408280046621</v>
+        <v>-31.90941506231002</v>
       </c>
     </row>
     <row r="44">
@@ -8248,7 +8288,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-47.28551299050335</v>
+        <v>-31.44486613868472</v>
       </c>
     </row>
     <row r="45">
@@ -8256,7 +8296,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-48.50830041602856</v>
+        <v>-32.25801977665899</v>
       </c>
     </row>
     <row r="46">
@@ -8264,7 +8304,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-47.26506566268822</v>
+        <v>-31.43126866568766</v>
       </c>
     </row>
     <row r="47">
@@ -8272,7 +8312,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-47.27741368029066</v>
+        <v>-31.43948009739328</v>
       </c>
     </row>
     <row r="48">
@@ -8280,7 +8320,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-45.48390097096636</v>
+        <v>-30.24679414569263</v>
       </c>
     </row>
     <row r="49">
@@ -8288,7 +8328,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-45.48437867726922</v>
+        <v>-30.24711182038402</v>
       </c>
     </row>
     <row r="50">
@@ -8296,7 +8336,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-44.47326108365125</v>
+        <v>-29.57471862062808</v>
       </c>
     </row>
     <row r="51">
@@ -8304,7 +8344,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-44.79668803323727</v>
+        <v>-29.78979754210278</v>
       </c>
     </row>
     <row r="52">
@@ -8312,7 +8352,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-44.13842329181946</v>
+        <v>-29.35205148905994</v>
       </c>
     </row>
     <row r="53">
@@ -8320,7 +8360,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-44.25155566080445</v>
+        <v>-29.42728451443496</v>
       </c>
     </row>
     <row r="54">
@@ -8328,7 +8368,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-43.08901044990939</v>
+        <v>-28.65419194918974</v>
       </c>
     </row>
     <row r="55">
@@ -8336,7 +8376,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-43.55211725452346</v>
+        <v>-28.9621579742581</v>
       </c>
     </row>
     <row r="56">
@@ -8344,7 +8384,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-43.91238546074256</v>
+        <v>-29.2017363313938</v>
       </c>
     </row>
     <row r="57">
@@ -8352,7 +8392,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-43.18444328756973</v>
+        <v>-28.71765478623387</v>
       </c>
     </row>
     <row r="58">
@@ -8360,7 +8400,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-42.8344902250379</v>
+        <v>-28.4849359996502</v>
       </c>
     </row>
     <row r="59">
@@ -8368,7 +8408,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-43.39410466766937</v>
+        <v>-28.85707960400013</v>
       </c>
     </row>
     <row r="60">
@@ -8376,7 +8416,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-43.38125102599428</v>
+        <v>-28.84853193228619</v>
       </c>
     </row>
     <row r="61">
@@ -8384,7 +8424,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-43.09747491450214</v>
+        <v>-28.65982081814391</v>
       </c>
     </row>
     <row r="62">
@@ -8392,7 +8432,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-42.824087454543</v>
+        <v>-28.47801815727109</v>
       </c>
     </row>
     <row r="63">
@@ -8400,7 +8440,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-41.87883624608316</v>
+        <v>-27.8494261036453</v>
       </c>
     </row>
     <row r="64">
@@ -8408,7 +8448,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-41.20310978047846</v>
+        <v>-27.40006800401817</v>
       </c>
     </row>
     <row r="65">
@@ -8416,7 +8456,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-41.56243881410102</v>
+        <v>-27.63902181137718</v>
       </c>
     </row>
     <row r="66">
@@ -8424,7 +8464,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-39.98471042769015</v>
+        <v>-26.58983243441395</v>
       </c>
     </row>
     <row r="67">
@@ -8432,7 +8472,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-40.12447230896937</v>
+        <v>-26.68277408546463</v>
       </c>
     </row>
     <row r="68">
@@ -8440,7 +8480,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-39.85927619102503</v>
+        <v>-26.50641866703164</v>
       </c>
     </row>
     <row r="69">
@@ -8448,7 +8488,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-38.75950636953549</v>
+        <v>-25.7750717357411</v>
       </c>
     </row>
     <row r="70">
@@ -8456,7 +8496,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-38.70625424384554</v>
+        <v>-25.73965907215728</v>
       </c>
     </row>
     <row r="71">
@@ -8464,7 +8504,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-38.66570782667428</v>
+        <v>-25.71269570473839</v>
       </c>
     </row>
     <row r="72">
@@ -8472,7 +8512,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-38.94401700343785</v>
+        <v>-25.89777130728617</v>
       </c>
     </row>
     <row r="73">
@@ -8480,7 +8520,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-41.92846572571293</v>
+        <v>-27.88242970759909</v>
       </c>
     </row>
     <row r="74">
@@ -8488,7 +8528,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-40.23551964833312</v>
+        <v>-26.75662056614152</v>
       </c>
     </row>
     <row r="75">
@@ -8496,7 +8536,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-38.60456978556837</v>
+        <v>-25.67203890740296</v>
       </c>
     </row>
     <row r="76">
@@ -8504,7 +8544,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-39.37411711318371</v>
+        <v>-26.18378788026717</v>
       </c>
     </row>
     <row r="77">
@@ -8512,7 +8552,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-38.80634838005353</v>
+        <v>-25.8062216727356</v>
       </c>
     </row>
     <row r="78">
@@ -8520,7 +8560,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-37.47635662939616</v>
+        <v>-24.92177715854845</v>
       </c>
     </row>
     <row r="79">
@@ -8528,7 +8568,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-37.20890785299854</v>
+        <v>-24.74392372224402</v>
       </c>
     </row>
     <row r="80">
@@ -8536,7 +8576,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-37.32274041013738</v>
+        <v>-24.81962237274135</v>
       </c>
     </row>
     <row r="81">
@@ -8544,7 +8584,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-36.55963485176541</v>
+        <v>-24.31215717642399</v>
       </c>
     </row>
     <row r="82">
@@ -8552,7 +8592,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-36.84071425066025</v>
+        <v>-24.49907497668907</v>
       </c>
     </row>
     <row r="83">
@@ -8560,7 +8600,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-36.6224118991523</v>
+        <v>-24.35390391293627</v>
       </c>
     </row>
     <row r="84">
@@ -8568,7 +8608,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-36.75998142174458</v>
+        <v>-24.44538764546014</v>
       </c>
     </row>
     <row r="85">
@@ -8576,7 +8616,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-36.30640475239324</v>
+        <v>-24.1437591603415</v>
       </c>
     </row>
     <row r="86">
@@ -8584,7 +8624,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-36.67899342777956</v>
+        <v>-24.3915306294734</v>
       </c>
     </row>
     <row r="87">
@@ -8592,7 +8632,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-36.39410837717685</v>
+        <v>-24.2020820708226</v>
       </c>
     </row>
     <row r="88">
@@ -8600,7 +8640,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-36.40734441470563</v>
+        <v>-24.21088403577924</v>
       </c>
     </row>
     <row r="89">
@@ -8608,7 +8648,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-36.51369524060499</v>
+        <v>-24.28160733500232</v>
       </c>
     </row>
     <row r="90">
@@ -8616,7 +8656,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-36.54244037146447</v>
+        <v>-24.30072284702387</v>
       </c>
     </row>
     <row r="91">
@@ -8624,7 +8664,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-39.7136325150186</v>
+        <v>-26.40956562248737</v>
       </c>
     </row>
     <row r="92">
@@ -8632,7 +8672,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-40.68061797011985</v>
+        <v>-27.0526109501297</v>
       </c>
     </row>
     <row r="93">
@@ -8640,7 +8680,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-41.15394852439726</v>
+        <v>-27.36737576872417</v>
       </c>
     </row>
     <row r="94">
@@ -8648,7 +8688,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-39.76201999260097</v>
+        <v>-26.44174329507964</v>
       </c>
     </row>
     <row r="95">
@@ -8656,7 +8696,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-38.66004341469441</v>
+        <v>-25.70892887077178</v>
       </c>
     </row>
     <row r="96">
@@ -8664,7 +8704,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-36.65529825805</v>
+        <v>-24.37577334160324</v>
       </c>
     </row>
     <row r="97">
@@ -8672,7 +8712,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-36.58732478092826</v>
+        <v>-24.33057097931729</v>
       </c>
     </row>
     <row r="98">
@@ -8680,7 +8720,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-36.33067370366986</v>
+        <v>-24.15989801294046</v>
       </c>
     </row>
     <row r="99">
@@ -8688,7 +8728,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-36.34394605244727</v>
+        <v>-24.16872412487743</v>
       </c>
     </row>
     <row r="100">
@@ -8696,7 +8736,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-36.3172689309405</v>
+        <v>-24.15098383907543</v>
       </c>
     </row>
     <row r="101">
@@ -8704,7 +8744,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-36.20421252576862</v>
+        <v>-24.07580132963613</v>
       </c>
     </row>
     <row r="102">
@@ -8712,7 +8752,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-36.16413913836813</v>
+        <v>-24.0491525270148</v>
       </c>
     </row>
     <row r="103">
@@ -8720,7 +8760,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-36.06134473843917</v>
+        <v>-23.98079425106205</v>
       </c>
     </row>
     <row r="104">
@@ -8728,7 +8768,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-36.15386254410851</v>
+        <v>-24.04231859183216</v>
       </c>
     </row>
     <row r="105">
@@ -8736,7 +8776,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-36.4352201901399</v>
+        <v>-24.22942142644303</v>
       </c>
     </row>
     <row r="106">
@@ -8744,7 +8784,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-38.56374330455267</v>
+        <v>-25.64488929752752</v>
       </c>
     </row>
     <row r="107">
@@ -8752,7 +8792,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-39.09755887638106</v>
+        <v>-25.9998766527934</v>
       </c>
     </row>
     <row r="108">
@@ -8760,7 +8800,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-38.77973624966474</v>
+        <v>-25.78852460602705</v>
       </c>
     </row>
     <row r="109">
@@ -8768,7 +8808,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-40.05816087524785</v>
+        <v>-26.63867698203982</v>
       </c>
     </row>
     <row r="110">
@@ -8776,7 +8816,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-40.30347481124868</v>
+        <v>-26.80181074948036</v>
       </c>
     </row>
     <row r="111">
@@ -8784,7 +8824,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-40.27934111228314</v>
+        <v>-26.78576183966829</v>
       </c>
     </row>
     <row r="112">
@@ -8792,7 +8832,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-39.9894835181213</v>
+        <v>-26.59300653955066</v>
       </c>
     </row>
     <row r="113">
@@ -8800,7 +8840,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-40.11313952159718</v>
+        <v>-26.67523778186212</v>
       </c>
     </row>
     <row r="114">
@@ -8808,7 +8848,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-40.99757073325885</v>
+        <v>-27.26338453761714</v>
       </c>
     </row>
     <row r="115">
@@ -8816,7 +8856,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-41.23983965208602</v>
+        <v>-27.4244933686372</v>
       </c>
     </row>
     <row r="116">
@@ -8824,7 +8864,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-40.33634973130053</v>
+        <v>-26.82367257131485</v>
       </c>
     </row>
     <row r="117">
@@ -8832,7 +8872,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-42.02246911863139</v>
+        <v>-27.94494196388987</v>
       </c>
     </row>
     <row r="118">
@@ -8840,7 +8880,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-41.07894448928953</v>
+        <v>-27.31749808537753</v>
       </c>
     </row>
     <row r="119">
@@ -8848,7 +8888,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-42.38016975543701</v>
+        <v>-28.18281288736561</v>
       </c>
     </row>
     <row r="120">
@@ -8856,7 +8896,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-43.14628452048751</v>
+        <v>-28.69227920612419</v>
       </c>
     </row>
     <row r="121">
@@ -8864,7 +8904,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-41.88448930541888</v>
+        <v>-27.85318538810355</v>
       </c>
     </row>
     <row r="122">
@@ -8872,7 +8912,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-42.2324780665467</v>
+        <v>-28.08459791425356</v>
       </c>
     </row>
     <row r="123">
@@ -8880,7 +8920,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-41.95734783417858</v>
+        <v>-27.90163630972875</v>
       </c>
     </row>
     <row r="124">
@@ -8888,7 +8928,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-39.85791714752983</v>
+        <v>-26.50551490310733</v>
       </c>
     </row>
     <row r="125">
@@ -8896,7 +8936,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-40.56207683207482</v>
+        <v>-26.97378109332975</v>
       </c>
     </row>
     <row r="126">
@@ -8904,7 +8944,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-40.79789591832545</v>
+        <v>-27.13060078568642</v>
       </c>
     </row>
     <row r="127">
@@ -8912,7 +8952,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-40.92048106820403</v>
+        <v>-27.21211991035568</v>
       </c>
     </row>
     <row r="128">
@@ -8920,7 +8960,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-40.73343715834174</v>
+        <v>-27.08773571029726</v>
       </c>
     </row>
     <row r="129">
@@ -8928,7 +8968,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-41.40659689386015</v>
+        <v>-27.535386934417</v>
       </c>
     </row>
     <row r="130">
@@ -8936,7 +8976,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-40.13465781006369</v>
+        <v>-26.68954744369235</v>
       </c>
     </row>
     <row r="131">
@@ -8944,7 +8984,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-39.80276629493763</v>
+        <v>-26.46883958613352</v>
       </c>
     </row>
     <row r="132">
@@ -8952,7 +8992,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-40.27529747345363</v>
+        <v>-26.78307281984666</v>
       </c>
     </row>
     <row r="133">
@@ -8960,7 +9000,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-39.75440546528193</v>
+        <v>-26.43667963441249</v>
       </c>
     </row>
     <row r="134">
@@ -8968,7 +9008,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-40.15222229843622</v>
+        <v>-26.70122782846008</v>
       </c>
     </row>
     <row r="135">
@@ -8976,7 +9016,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-39.92290748301387</v>
+        <v>-26.54873347620422</v>
       </c>
     </row>
     <row r="136">
@@ -8984,7 +9024,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-39.20640279847493</v>
+        <v>-26.07225786098583</v>
       </c>
     </row>
     <row r="137">
@@ -8992,7 +9032,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-39.42646928624825</v>
+        <v>-26.21860207535508</v>
       </c>
     </row>
     <row r="138">
@@ -9000,7 +9040,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-39.56855392061395</v>
+        <v>-26.31308835720828</v>
       </c>
     </row>
     <row r="139">
@@ -9008,7 +9048,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-39.46362040552693</v>
+        <v>-26.24330756967541</v>
       </c>
     </row>
     <row r="140">
@@ -9016,7 +9056,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-39.81979580923869</v>
+        <v>-26.48016421314373</v>
       </c>
     </row>
     <row r="141">
@@ -9024,7 +9064,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-38.83060477402424</v>
+        <v>-25.82235217472612</v>
       </c>
     </row>
     <row r="142">
@@ -9032,7 +9072,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-39.48329078884223</v>
+        <v>-26.25638837458008</v>
       </c>
     </row>
     <row r="143">
@@ -9040,7 +9080,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-39.55795557145433</v>
+        <v>-26.30604045501713</v>
       </c>
     </row>
     <row r="144">
@@ -9048,7 +9088,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-39.10736568678723</v>
+        <v>-26.00639818171351</v>
       </c>
     </row>
     <row r="145">
@@ -9056,14 +9096,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-39.58737089876355</v>
+        <v>-26.32560164767776</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -9094,6 +9134,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,101 +125,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -599,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1714,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1792,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="12.85546875"/>
+    <col width="12.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012002968</v>
+        <v>2014006776</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1906,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014000542</v>
+        <v>2016003675</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1921,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1944,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016007854</v>
+        <v>2013003984</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1982,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2013007867</v>
+        <v>2016001810</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1997,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -2020,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016007376</v>
+        <v>2013006559</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2035,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -2058,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016000882</v>
+        <v>2014008337</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2073,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2096,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2016005444</v>
+        <v>2016008287</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2111,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2134,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2013007395</v>
+        <v>2013004313</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2172,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2013004077</v>
+        <v>2013002813</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2187,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2210,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2015004845</v>
+        <v>2015001236</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2225,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2248,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2013008662</v>
+        <v>2016002717</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2263,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2286,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2015004698</v>
+        <v>2014004151</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2301,7 +2233,7 @@
         <v>7.4</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>250</v>
@@ -2324,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2016004588</v>
+        <v>2012000389</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2339,7 +2271,7 @@
         <v>7.4</v>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G14" t="n">
         <v>250</v>
@@ -2362,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2015003296</v>
+        <v>2016002515</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2377,7 +2309,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2400,7 +2332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2013007836</v>
+        <v>2013008091</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2415,7 +2347,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2438,7 +2370,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2013007307</v>
+        <v>2013004707</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2453,7 +2385,7 @@
         <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G17" t="n">
         <v>250</v>
@@ -2476,7 +2408,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2015005910</v>
+        <v>2016001550</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -2491,7 +2423,7 @@
         <v>7.4</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G18" t="n">
         <v>250</v>
@@ -2514,7 +2446,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2013004384</v>
+        <v>2016007992</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -2529,7 +2461,7 @@
         <v>7.4</v>
       </c>
       <c r="F19" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G19" t="n">
         <v>250</v>
@@ -2550,8 +2482,84 @@
         <v>150</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2016000892</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>40</v>
+      </c>
+      <c r="G20" t="n">
+        <v>250</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2012007287</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>40</v>
+      </c>
+      <c r="G21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2569,7 +2577,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.85546875"/>
+    <col width="15.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2601,220 +2609,220 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012002968</v>
+        <v>2014006776</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>48.11502409566241</v>
+        <v>35.0754196</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012002968</v>
+        <v>2014006776</v>
       </c>
       <c r="B3" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" t="n">
         <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>58.8895554</v>
+        <v>37.264122</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2014000542</v>
+        <v>2016003675</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>18.52824399824406</v>
+        <v>67.27516798327788</v>
       </c>
       <c r="E4" t="n">
-        <v>23.99999999824409</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2016007854</v>
+        <v>2013003984</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44897671824408</v>
+        <v>22.63206099824407</v>
       </c>
       <c r="E5" t="n">
-        <v>23.99999999824407</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2013007867</v>
+        <v>2016001810</v>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>30.4244264605412</v>
+        <v>46.65857139566241</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>55.50317063264474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2016007376</v>
+        <v>2016001810</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D7" t="n">
-        <v>35.07541906054121</v>
+        <v>51.5026847956624</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2016000882</v>
+        <v>2013006559</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
-        <v>45.5159399956624</v>
+        <v>57.96418489566239</v>
       </c>
       <c r="E8" t="n">
-        <v>59.45706903080539</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2016005444</v>
+        <v>2014008337</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D9" t="n">
-        <v>69.3608726232779</v>
+        <v>37.26412146054121</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2013007395</v>
+        <v>2016008287</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>37.8112976</v>
+        <v>21.26412199824405</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2013007395</v>
+        <v>2013004313</v>
       </c>
       <c r="B11" t="n">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
-        <v>37.8112976</v>
+        <v>25.3228192</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>38.8268088932527</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2013004077</v>
+        <v>2013004313</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D12" t="n">
-        <v>13.95932774</v>
+        <v>38.35847266054119</v>
       </c>
       <c r="E12" t="n">
-        <v>23.67439999824406</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2015004845</v>
+        <v>2013004313</v>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D13" t="n">
-        <v>33.23721698094889</v>
+        <v>39.1792366</v>
       </c>
       <c r="E13" t="n">
-        <v>59.96520120002651</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2013008662</v>
+        <v>2013002813</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D14" t="n">
-        <v>69.47674510327788</v>
+        <v>73.06879198327789</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
@@ -2822,205 +2830,247 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2015004698</v>
+        <v>2015001236</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C15" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D15" t="n">
-        <v>37.81129706054119</v>
+        <v>74.22751679999998</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2016004588</v>
+        <v>2016002717</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D16" t="n">
-        <v>35.95090056</v>
+        <v>23.48817106054121</v>
       </c>
       <c r="E16" t="n">
-        <v>38.42167566409129</v>
+        <v>39.99887627991509</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2016004588</v>
+        <v>2014004151</v>
       </c>
       <c r="B17" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D17" t="n">
-        <v>39.72641220000001</v>
+        <v>20.99053419824408</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>23.94226738878318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2015003296</v>
+        <v>2012000389</v>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" t="n">
-        <v>34.93862516054121</v>
+        <v>40.17293119566239</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2013007836</v>
+        <v>2016002515</v>
       </c>
       <c r="B19" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D19" t="n">
-        <v>30.19087449136305</v>
+        <v>5.5</v>
       </c>
       <c r="E19" t="n">
-        <v>39.45644529193058</v>
+        <v>59.98586043265208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2013007307</v>
+        <v>2013008091</v>
       </c>
       <c r="B20" t="n">
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D20" t="n">
-        <v>51.8567395956624</v>
+        <v>28.67132889046736</v>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2013007307</v>
+        <v>2013004707</v>
       </c>
       <c r="B21" t="n">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="C21" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D21" t="n">
-        <v>57.7791108</v>
+        <v>55.68791998327789</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2015005910</v>
+        <v>2016001550</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D22" t="n">
-        <v>23.15187782</v>
+        <v>71.5238256</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>2015005910</v>
+        <v>2016001550</v>
       </c>
       <c r="B23" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C23" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D23" t="n">
-        <v>23.4528244</v>
+        <v>71.48520144</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>2015005910</v>
+        <v>2016007992</v>
       </c>
       <c r="B24" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>23.17923660000001</v>
+        <v>17.4338928</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>23.23434451914973</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>2013004384</v>
+        <v>2016007992</v>
       </c>
       <c r="B25" t="n">
         <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D25" t="n">
-        <v>54.8179251956624</v>
+        <v>20.16977079824404</v>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>23.67224445752118</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n"/>
+      <c r="A26" s="7" t="n">
+        <v>2016007992</v>
+      </c>
+      <c r="B26" t="n">
+        <v>135</v>
+      </c>
+      <c r="C26" t="n">
+        <v>139</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19.896183</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22.36887142902908</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n"/>
+      <c r="A27" s="7" t="n">
+        <v>2016000892</v>
+      </c>
+      <c r="B27" t="n">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>118</v>
+      </c>
+      <c r="D27" t="n">
+        <v>35.34900686054122</v>
+      </c>
+      <c r="E27" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n"/>
+      <c r="A28" s="7" t="n">
+        <v>2012007287</v>
+      </c>
+      <c r="B28" t="n">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>117</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29.0243006605412</v>
+      </c>
+      <c r="E28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3038,8 +3088,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5940,7 +5990,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6015,7 +6065,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6101,7 +6151,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6212,7 +6262,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6258,7 +6308,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6577,7 +6627,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6595,10 +6645,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6619,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>11.16375984724055</v>
+        <v>10.21380936783349</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6628,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>8.748003906700001</v>
+        <v>12.17450806814349</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6637,7 +6687,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>9.154076708571205</v>
+        <v>10.27793000036211</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6646,7 +6696,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>9.127064853079593</v>
+        <v>10.30647760467126</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6655,7 +6705,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>10.36694986273157</v>
+        <v>10.58832812005475</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6664,7 +6714,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>10.21496683972261</v>
+        <v>6.789436427367732</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6673,7 +6723,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>11.9764944042358</v>
+        <v>11.60490675803774</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6682,7 +6732,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>11.28815389887692</v>
+        <v>11.46556539711643</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6691,7 +6741,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>11.12687052047534</v>
+        <v>6.985749678484466</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6700,7 +6750,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>11.92305212812008</v>
+        <v>13.14061339276691</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6709,7 +6759,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>10.60817234508577</v>
+        <v>12.24942975603422</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6718,7 +6768,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>10.69612201002205</v>
+        <v>11.94647655021686</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6727,7 +6777,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>12.69498495417368</v>
+        <v>11.42192350288221</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6736,7 +6786,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>11.14144545373444</v>
+        <v>10.59338881204266</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6745,7 +6795,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>11.41746012876545</v>
+        <v>12.1625023364163</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6754,7 +6804,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>11.11845450104702</v>
+        <v>14.23422361858685</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6763,7 +6813,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>10.87167583265582</v>
+        <v>11.61443456289026</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6772,7 +6822,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>8.400298005744785</v>
+        <v>13.55685406472944</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6781,7 +6831,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>10.60862206834089</v>
+        <v>11.37258478149751</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6790,7 +6840,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8.327664441337424</v>
+        <v>9.703371822019871</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6799,7 +6849,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>9.260736086113811</v>
+        <v>9.2739105332868</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6808,7 +6858,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>10.26976003279207</v>
+        <v>10.25744505461643</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6817,7 +6867,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>8.393559432451561</v>
+        <v>10.65438817514759</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6826,7 +6876,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>8.116518876256594</v>
+        <v>9.2948719931622</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6835,7 +6885,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>9.261017577383468</v>
+        <v>9.399442421962693</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6844,7 +6894,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>7.760760859292792</v>
+        <v>6.881274854753992</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6853,7 +6903,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>8.015200560432309</v>
+        <v>4.981550639241998</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6862,7 +6912,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>8.467402908863153</v>
+        <v>8.194415956008527</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6871,7 +6921,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>5.068690094236585</v>
+        <v>3.804975805228468</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6880,7 +6930,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>4.266488645838292</v>
+        <v>3.638299536976056</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6889,7 +6939,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>4.556806256240366</v>
+        <v>8.145025033259657</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6898,7 +6948,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.957377263359576</v>
+        <v>4.745704935695847</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6907,7 +6957,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.24887282867569</v>
+        <v>4.010696831124688</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6916,7 +6966,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.38274664117434</v>
+        <v>4.416360294898022</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6925,7 +6975,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>6.012905090129806</v>
+        <v>3.514770822955934</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6934,7 +6984,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>4.63766773456063</v>
+        <v>0.7273298094089152</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6943,7 +6993,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>4.37420324635714</v>
+        <v>2.090781044197357</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6952,7 +7002,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.710200137366052</v>
+        <v>2.687738143254215</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6961,7 +7011,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>3.651694665908945</v>
+        <v>2.595288664810136</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6970,7 +7020,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>4.509654907330884</v>
+        <v>4.262791309267286</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6979,7 +7029,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.763603022476793</v>
+        <v>0.7584529073197447</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6988,7 +7038,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.977484414511182</v>
+        <v>3.864972193894722</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6997,7 +7047,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4.300569331963421</v>
+        <v>0.123616033255167</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -7006,7 +7056,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4.840810630792874</v>
+        <v>4.753371572948176</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -7015,7 +7065,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.79898191610951</v>
+        <v>5.824576552652797</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -7024,7 +7074,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2.588925654864822</v>
+        <v>3.669562610859722</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -7033,7 +7083,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.901195729809944</v>
+        <v>5.93284230098468</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7042,7 +7092,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>4.314723336905167</v>
+        <v>5.899717780385364</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7051,7 +7101,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.64064532717766</v>
+        <v>5.413268214001946</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7060,7 +7110,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>5.779312146440395</v>
+        <v>5.899204253671614</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7069,7 +7119,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>5.662110044646578</v>
+        <v>3.993570739794566</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7078,7 +7128,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>7.748762293891798</v>
+        <v>4.773383952926104</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7087,7 +7137,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.096252782778514</v>
+        <v>5.35236294792323</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7096,7 +7146,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>6.00094382481934</v>
+        <v>3.098101885440383</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7105,7 +7155,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>5.917027380145549</v>
+        <v>7.242878506685486</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7114,7 +7164,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>6.790606955384581</v>
+        <v>9.181657087171507</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7123,7 +7173,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>6.31066631490289</v>
+        <v>4.054506102159555</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7132,7 +7182,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>6.977904410369783</v>
+        <v>11.28093116682028</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7141,7 +7191,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.525635019282408</v>
+        <v>10.73443002201644</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7150,7 +7200,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>8.666735453197219</v>
+        <v>11.00602451302497</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7159,7 +7209,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>9.763576247870276</v>
+        <v>12.79912140107339</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7168,7 +7218,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>11.91571212743234</v>
+        <v>13.1360040380698</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7177,7 +7227,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>12.21408043228558</v>
+        <v>12.81131648779106</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7186,7 +7236,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>11.34163137912113</v>
+        <v>15.04689109027606</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7195,7 +7245,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>13.82772449717799</v>
+        <v>16.19032363923479</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7204,7 +7254,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>14.05448427144237</v>
+        <v>16.11464293686103</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7213,7 +7263,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>13.6227483179254</v>
+        <v>16.24180363210943</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7222,7 +7272,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>15.63809475027629</v>
+        <v>19.30523262646295</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7231,7 +7281,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>15.05905210942254</v>
+        <v>18.14259058597334</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7240,7 +7290,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>14.11063280954427</v>
+        <v>19.4203822276155</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7249,7 +7299,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>15.86911788006519</v>
+        <v>20.83277621023491</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7258,7 +7308,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>12.93863300761349</v>
+        <v>18.8599112535385</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7267,7 +7317,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>13.40178902909776</v>
+        <v>22.64202883249821</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7276,7 +7326,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>14.49675589815136</v>
+        <v>20.52138559826498</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7285,7 +7335,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>15.32209454150642</v>
+        <v>19.98189091671489</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7294,7 +7344,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>14.59760017756885</v>
+        <v>20.5004442832396</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7303,7 +7353,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>17.83426742399741</v>
+        <v>21.84146405874033</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7312,7 +7362,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>17.16458279427504</v>
+        <v>22.27484203067704</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7321,7 +7371,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>16.82780393328024</v>
+        <v>23.13929232763839</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7330,7 +7380,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>17.38625493798131</v>
+        <v>22.40490066660089</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7339,7 +7389,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>17.90867203996572</v>
+        <v>20.80251054762939</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7348,7 +7398,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>17.65077797664971</v>
+        <v>23.09196856792497</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7357,7 +7407,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>17.5819396936025</v>
+        <v>22.09008721632262</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7366,7 +7416,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>17.53839143533105</v>
+        <v>18.18317020797971</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7375,7 +7425,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>17.79013498506647</v>
+        <v>21.12339540502338</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7384,7 +7434,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>18.19145266968354</v>
+        <v>20.2737806689856</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7393,7 +7443,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>18.22889393151074</v>
+        <v>20.72960994002427</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7402,7 +7452,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>18.46962917482417</v>
+        <v>20.702228666435</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7411,7 +7461,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>18.60192969572083</v>
+        <v>18.10769052249752</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7420,7 +7470,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>13.79632765498138</v>
+        <v>20.51443234844416</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7429,7 +7479,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>12.62693779759656</v>
+        <v>20.0972371763029</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7438,7 +7488,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>13.21871413384421</v>
+        <v>21.61261130747628</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7447,7 +7497,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>13.11593544981864</v>
+        <v>21.76446208831547</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7456,7 +7506,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>14.7023338008818</v>
+        <v>22.81741535516674</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7465,7 +7515,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>16.01540962245844</v>
+        <v>21.0218634569816</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7474,7 +7524,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>15.48985234591441</v>
+        <v>20.21958141447194</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7483,7 +7533,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>17.71212466165051</v>
+        <v>18.96282962100451</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7492,7 +7542,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>18.34654632629828</v>
+        <v>18.41394946540376</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7501,7 +7551,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>17.67891987973695</v>
+        <v>20.49915549437966</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7510,7 +7560,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>18.36262617860331</v>
+        <v>20.09995903955291</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7519,7 +7569,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>18.84345737517918</v>
+        <v>20.98052382841611</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7528,7 +7578,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>19.50757945663768</v>
+        <v>17.0412696293835</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7537,7 +7587,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>18.93177710385247</v>
+        <v>18.11055581991231</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7546,7 +7596,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>18.41673193439325</v>
+        <v>20.75574479300201</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7555,7 +7605,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>16.47416658949644</v>
+        <v>18.04941005013628</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7564,7 +7614,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>16.23484991112329</v>
+        <v>20.13199142566335</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7573,7 +7623,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>16.27340738840224</v>
+        <v>19.16499212990525</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7582,7 +7632,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>14.59385806363719</v>
+        <v>14.499331935783</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7591,7 +7641,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>13.69196076158803</v>
+        <v>14.63163877184601</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7600,7 +7650,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>12.2692301449124</v>
+        <v>14.78570708916436</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7609,7 +7659,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>12.25500248813691</v>
+        <v>10.07084739098552</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7618,7 +7668,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>11.59105376095179</v>
+        <v>12.63693784585346</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7627,7 +7677,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>10.77772916322388</v>
+        <v>11.53279930751635</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7636,7 +7686,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>10.97782869750034</v>
+        <v>6.387802636261453</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7645,7 +7695,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>11.19437210326539</v>
+        <v>8.345866210091817</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7654,7 +7704,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>9.683503870853437</v>
+        <v>3.887633014086717</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7663,7 +7713,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>11.14379429066188</v>
+        <v>4.292131822865986</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7672,7 +7722,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>9.408975691138147</v>
+        <v>7.791369298500259</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7681,7 +7731,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>9.558716025022116</v>
+        <v>6.02130979114254</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7690,7 +7740,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>9.662473664238254</v>
+        <v>2.697114058679715</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7699,7 +7749,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>9.326234619252279</v>
+        <v>4.801717337566752</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7708,7 +7758,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>10.35954127723539</v>
+        <v>7.051440635546849</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7717,7 +7767,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>9.906637233409866</v>
+        <v>9.990862137576629</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7726,7 +7776,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>9.293510543315808</v>
+        <v>9.263487664109112</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7735,7 +7785,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>10.22259698056127</v>
+        <v>12.00028736544243</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7744,7 +7794,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>10.89512125242811</v>
+        <v>9.355132822513893</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7753,7 +7803,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>10.86130542106001</v>
+        <v>11.56684370486586</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7762,7 +7812,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>10.32951545535431</v>
+        <v>9.622749998824599</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7771,7 +7821,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>11.05065590479495</v>
+        <v>10.13283896727381</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7780,7 +7830,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>10.28812187929524</v>
+        <v>7.670403375011444</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7789,7 +7839,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>11.17194337208469</v>
+        <v>10.23080970445833</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7798,7 +7848,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>11.78117686920577</v>
+        <v>8.611526832064548</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7807,7 +7857,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>12.26802743703469</v>
+        <v>12.94901118935335</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7816,7 +7866,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>12.26682462446113</v>
+        <v>12.40496560345895</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7825,7 +7875,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>12.11761855238875</v>
+        <v>13.36970310838303</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7834,7 +7884,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>12.39936789425498</v>
+        <v>13.27485114361413</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7843,7 +7893,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>9.72059584589557</v>
+        <v>12.85416169383195</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7852,7 +7902,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>11.01798963193473</v>
+        <v>10.42734769908679</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7861,7 +7911,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>10.53533508708752</v>
+        <v>14.15766035723873</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7870,7 +7920,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>11.01986877506204</v>
+        <v>12.24367983213812</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7879,7 +7929,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>11.26529821010611</v>
+        <v>11.06732535755147</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7888,7 +7938,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>11.84492332881268</v>
+        <v>10.86364744786593</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7897,7 +7947,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>10.59381139585938</v>
+        <v>9.172133244315384</v>
       </c>
     </row>
     <row r="145">
@@ -7905,14 +7955,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>10.76659670841021</v>
+        <v>12.4356641308143</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7930,8 +7980,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7952,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-26.36161745281065</v>
+        <v>-32.76012238972088</v>
       </c>
     </row>
     <row r="3">
@@ -7960,7 +8010,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-26.87615101011414</v>
+        <v>-33.36188032257904</v>
       </c>
     </row>
     <row r="4">
@@ -7968,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-26.73358951348384</v>
+        <v>-32.3152778718652</v>
       </c>
     </row>
     <row r="5">
@@ -7976,7 +8026,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-26.6981379833814</v>
+        <v>-33.01302024143744</v>
       </c>
     </row>
     <row r="6">
@@ -7984,7 +8034,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-26.26626992319088</v>
+        <v>-33.36687220613967</v>
       </c>
     </row>
     <row r="7">
@@ -7992,7 +8042,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-25.88695668236842</v>
+        <v>-33.40518255256723</v>
       </c>
     </row>
     <row r="8">
@@ -8000,7 +8050,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-25.96079125530301</v>
+        <v>-33.30438870669682</v>
       </c>
     </row>
     <row r="9">
@@ -8008,7 +8058,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-25.31719078380132</v>
+        <v>-33.69620311601065</v>
       </c>
     </row>
     <row r="10">
@@ -8016,7 +8066,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-25.38945120909619</v>
+        <v>-33.63178577423525</v>
       </c>
     </row>
     <row r="11">
@@ -8024,7 +8074,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-25.74405481183696</v>
+        <v>-34.86109118884274</v>
       </c>
     </row>
     <row r="12">
@@ -8032,7 +8082,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-25.89890197820462</v>
+        <v>-34.17978495501256</v>
       </c>
     </row>
     <row r="13">
@@ -8040,7 +8090,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-25.82907900859624</v>
+        <v>-33.72180955829199</v>
       </c>
     </row>
     <row r="14">
@@ -8048,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-25.64636938007789</v>
+        <v>-32.07569841251507</v>
       </c>
     </row>
     <row r="15">
@@ -8056,7 +8106,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-26.13526092270567</v>
+        <v>-32.34768945371749</v>
       </c>
     </row>
     <row r="16">
@@ -8064,7 +8114,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-26.04749541068823</v>
+        <v>-31.98583650943185</v>
       </c>
     </row>
     <row r="17">
@@ -8072,7 +8122,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-26.03505596985313</v>
+        <v>-32.04549367936643</v>
       </c>
     </row>
     <row r="18">
@@ -8080,7 +8130,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-26.41459882970938</v>
+        <v>-33.07716767122616</v>
       </c>
     </row>
     <row r="19">
@@ -8088,7 +8138,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-26.94855254964045</v>
+        <v>-32.67029659036979</v>
       </c>
     </row>
     <row r="20">
@@ -8096,7 +8146,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-26.75341527519673</v>
+        <v>-34.56528686451254</v>
       </c>
     </row>
     <row r="21">
@@ -8104,7 +8154,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-27.92525941557616</v>
+        <v>-33.83144073656403</v>
       </c>
     </row>
     <row r="22">
@@ -8112,7 +8162,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-26.94966093860101</v>
+        <v>-33.91371069545813</v>
       </c>
     </row>
     <row r="23">
@@ -8120,7 +8170,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-26.35967914378242</v>
+        <v>-33.01373321786964</v>
       </c>
     </row>
     <row r="24">
@@ -8128,7 +8178,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-27.59574411101794</v>
+        <v>-35.13886526725782</v>
       </c>
     </row>
     <row r="25">
@@ -8136,7 +8186,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-26.87618130595519</v>
+        <v>-34.61234229433157</v>
       </c>
     </row>
     <row r="26">
@@ -8144,7 +8194,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-27.99380572028612</v>
+        <v>-36.47141998827898</v>
       </c>
     </row>
     <row r="27">
@@ -8152,7 +8202,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-28.38339952390144</v>
+        <v>-35.22876396850852</v>
       </c>
     </row>
     <row r="28">
@@ -8160,7 +8210,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-28.26558143889612</v>
+        <v>-36.31883533057343</v>
       </c>
     </row>
     <row r="29">
@@ -8168,7 +8218,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-27.65762372858214</v>
+        <v>-34.80562057199619</v>
       </c>
     </row>
     <row r="30">
@@ -8176,7 +8226,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-29.20457644350375</v>
+        <v>-37.95072566078749</v>
       </c>
     </row>
     <row r="31">
@@ -8184,7 +8234,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-29.40193930615271</v>
+        <v>-38.3339296014035</v>
       </c>
     </row>
     <row r="32">
@@ -8192,7 +8242,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-29.49080392637361</v>
+        <v>-38.27092524677969</v>
       </c>
     </row>
     <row r="33">
@@ -8200,7 +8250,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-31.73825500362315</v>
+        <v>-37.90201897985546</v>
       </c>
     </row>
     <row r="34">
@@ -8208,7 +8258,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-31.15984454475177</v>
+        <v>-38.23082438094397</v>
       </c>
     </row>
     <row r="35">
@@ -8216,7 +8266,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-30.93879504268557</v>
+        <v>-38.42599545027681</v>
       </c>
     </row>
     <row r="36">
@@ -8224,7 +8274,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-31.37645478725574</v>
+        <v>-38.78752740384976</v>
       </c>
     </row>
     <row r="37">
@@ -8232,7 +8282,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-30.07095064013766</v>
+        <v>-39.01248485199089</v>
       </c>
     </row>
     <row r="38">
@@ -8240,7 +8290,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-30.479087515081</v>
+        <v>-38.79481596779794</v>
       </c>
     </row>
     <row r="39">
@@ -8248,7 +8298,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-30.71118897368427</v>
+        <v>-36.84756402643842</v>
       </c>
     </row>
     <row r="40">
@@ -8256,7 +8306,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-29.72626090076747</v>
+        <v>-38.8056463580326</v>
       </c>
     </row>
     <row r="41">
@@ -8264,7 +8314,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-29.45089535678987</v>
+        <v>-38.29570485213164</v>
       </c>
     </row>
     <row r="42">
@@ -8272,7 +8322,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-31.75716383380195</v>
+        <v>-38.38752636820848</v>
       </c>
     </row>
     <row r="43">
@@ -8280,7 +8330,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-31.90941506231002</v>
+        <v>-38.23574753609672</v>
       </c>
     </row>
     <row r="44">
@@ -8288,7 +8338,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-31.44486613868472</v>
+        <v>-37.31819490879017</v>
       </c>
     </row>
     <row r="45">
@@ -8296,7 +8346,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-32.25801977665899</v>
+        <v>-38.51762695389249</v>
       </c>
     </row>
     <row r="46">
@@ -8304,7 +8354,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-31.43126866568766</v>
+        <v>-37.71508158225</v>
       </c>
     </row>
     <row r="47">
@@ -8312,7 +8362,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-31.43948009739328</v>
+        <v>-37.28501302884337</v>
       </c>
     </row>
     <row r="48">
@@ -8320,7 +8370,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-30.24679414569263</v>
+        <v>-37.99115084242857</v>
       </c>
     </row>
     <row r="49">
@@ -8328,7 +8378,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-30.24711182038402</v>
+        <v>-37.85788035065524</v>
       </c>
     </row>
     <row r="50">
@@ -8336,7 +8386,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-29.57471862062808</v>
+        <v>-37.25742508830127</v>
       </c>
     </row>
     <row r="51">
@@ -8344,7 +8394,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-29.78979754210278</v>
+        <v>-37.32980294771791</v>
       </c>
     </row>
     <row r="52">
@@ -8352,7 +8402,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-29.35205148905994</v>
+        <v>-35.57551043384711</v>
       </c>
     </row>
     <row r="53">
@@ -8360,7 +8410,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-29.42728451443496</v>
+        <v>-36.76555790287232</v>
       </c>
     </row>
     <row r="54">
@@ -8368,7 +8418,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-28.65419194918974</v>
+        <v>-36.8836494364412</v>
       </c>
     </row>
     <row r="55">
@@ -8376,7 +8426,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-28.9621579742581</v>
+        <v>-34.82337322339507</v>
       </c>
     </row>
     <row r="56">
@@ -8384,7 +8434,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-29.2017363313938</v>
+        <v>-36.18230661487492</v>
       </c>
     </row>
     <row r="57">
@@ -8392,7 +8442,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-28.71765478623387</v>
+        <v>-37.87755959199389</v>
       </c>
     </row>
     <row r="58">
@@ -8400,7 +8450,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-28.4849359996502</v>
+        <v>-36.11169250429663</v>
       </c>
     </row>
     <row r="59">
@@ -8408,7 +8458,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-28.85707960400013</v>
+        <v>-35.67660062459914</v>
       </c>
     </row>
     <row r="60">
@@ -8416,7 +8466,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-28.84853193228619</v>
+        <v>-36.12487229489408</v>
       </c>
     </row>
     <row r="61">
@@ -8424,7 +8474,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-28.65982081814391</v>
+        <v>-33.93746864795148</v>
       </c>
     </row>
     <row r="62">
@@ -8432,7 +8482,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-28.47801815727109</v>
+        <v>-35.12753795922182</v>
       </c>
     </row>
     <row r="63">
@@ -8440,7 +8490,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-27.8494261036453</v>
+        <v>-34.4408055177564</v>
       </c>
     </row>
     <row r="64">
@@ -8448,7 +8498,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-27.40006800401817</v>
+        <v>-33.80002784991328</v>
       </c>
     </row>
     <row r="65">
@@ -8456,7 +8506,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-27.63902181137718</v>
+        <v>-34.66751829277145</v>
       </c>
     </row>
     <row r="66">
@@ -8464,7 +8514,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-26.58983243441395</v>
+        <v>-32.70351464800103</v>
       </c>
     </row>
     <row r="67">
@@ -8472,7 +8522,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-26.68277408546463</v>
+        <v>-31.73450117791165</v>
       </c>
     </row>
     <row r="68">
@@ -8480,7 +8530,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-26.50641866703164</v>
+        <v>-33.25734448469385</v>
       </c>
     </row>
     <row r="69">
@@ -8488,7 +8538,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-25.7750717357411</v>
+        <v>-31.56951705811404</v>
       </c>
     </row>
     <row r="70">
@@ -8496,7 +8546,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-25.73965907215728</v>
+        <v>-31.11147954991414</v>
       </c>
     </row>
     <row r="71">
@@ -8504,7 +8554,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-25.71269570473839</v>
+        <v>-31.06424759702964</v>
       </c>
     </row>
     <row r="72">
@@ -8512,7 +8562,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-25.89777130728617</v>
+        <v>-30.93329210078057</v>
       </c>
     </row>
     <row r="73">
@@ -8520,7 +8570,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-27.88242970759909</v>
+        <v>-30.62541037909818</v>
       </c>
     </row>
     <row r="74">
@@ -8528,7 +8578,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-26.75662056614152</v>
+        <v>-31.48219318577153</v>
       </c>
     </row>
     <row r="75">
@@ -8536,7 +8586,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-25.67203890740296</v>
+        <v>-30.71565769339252</v>
       </c>
     </row>
     <row r="76">
@@ -8544,7 +8594,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-26.18378788026717</v>
+        <v>-30.48688900176053</v>
       </c>
     </row>
     <row r="77">
@@ -8552,7 +8602,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-25.8062216727356</v>
+        <v>-31.64129124786571</v>
       </c>
     </row>
     <row r="78">
@@ -8560,7 +8610,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-24.92177715854845</v>
+        <v>-31.13834057706408</v>
       </c>
     </row>
     <row r="79">
@@ -8568,7 +8618,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-24.74392372224402</v>
+        <v>-30.69093226400445</v>
       </c>
     </row>
     <row r="80">
@@ -8576,7 +8626,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-24.81962237274135</v>
+        <v>-31.99037214652117</v>
       </c>
     </row>
     <row r="81">
@@ -8584,7 +8634,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-24.31215717642399</v>
+        <v>-31.12362841433416</v>
       </c>
     </row>
     <row r="82">
@@ -8592,7 +8642,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-24.49907497668907</v>
+        <v>-30.37680035340382</v>
       </c>
     </row>
     <row r="83">
@@ -8600,7 +8650,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-24.35390391293627</v>
+        <v>-30.41917172000174</v>
       </c>
     </row>
     <row r="84">
@@ -8608,7 +8658,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-24.44538764546014</v>
+        <v>-30.7241253409434</v>
       </c>
     </row>
     <row r="85">
@@ -8616,7 +8666,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-24.1437591603415</v>
+        <v>-31.1458919662871</v>
       </c>
     </row>
     <row r="86">
@@ -8624,7 +8674,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-24.3915306294734</v>
+        <v>-31.74877578883998</v>
       </c>
     </row>
     <row r="87">
@@ -8632,7 +8682,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-24.2020820708226</v>
+        <v>-31.06108043326861</v>
       </c>
     </row>
     <row r="88">
@@ -8640,7 +8690,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-24.21088403577924</v>
+        <v>-30.9360761810246</v>
       </c>
     </row>
     <row r="89">
@@ -8648,7 +8698,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-24.28160733500232</v>
+        <v>-31.08439315332073</v>
       </c>
     </row>
     <row r="90">
@@ -8656,7 +8706,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-24.30072284702387</v>
+        <v>-30.81381000310873</v>
       </c>
     </row>
     <row r="91">
@@ -8664,7 +8714,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-26.40956562248737</v>
+        <v>-30.72932027514644</v>
       </c>
     </row>
     <row r="92">
@@ -8672,7 +8722,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-27.0526109501297</v>
+        <v>-31.09680822044573</v>
       </c>
     </row>
     <row r="93">
@@ -8680,7 +8730,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-27.36737576872417</v>
+        <v>-31.44294008731308</v>
       </c>
     </row>
     <row r="94">
@@ -8688,7 +8738,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-26.44174329507964</v>
+        <v>-31.09292787548732</v>
       </c>
     </row>
     <row r="95">
@@ -8696,7 +8746,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-25.70892887077178</v>
+        <v>-30.41192877105388</v>
       </c>
     </row>
     <row r="96">
@@ -8704,7 +8754,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-24.37577334160324</v>
+        <v>-30.81153819131585</v>
       </c>
     </row>
     <row r="97">
@@ -8712,7 +8762,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-24.33057097931729</v>
+        <v>-32.26411589114829</v>
       </c>
     </row>
     <row r="98">
@@ -8720,7 +8770,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-24.15989801294046</v>
+        <v>-31.28890707286091</v>
       </c>
     </row>
     <row r="99">
@@ -8728,7 +8778,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-24.16872412487743</v>
+        <v>-32.16203041490187</v>
       </c>
     </row>
     <row r="100">
@@ -8736,7 +8786,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-24.15098383907543</v>
+        <v>-31.30350967542396</v>
       </c>
     </row>
     <row r="101">
@@ -8744,7 +8794,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-24.07580132963613</v>
+        <v>-30.65619119891464</v>
       </c>
     </row>
     <row r="102">
@@ -8752,7 +8802,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-24.0491525270148</v>
+        <v>-30.84699514125501</v>
       </c>
     </row>
     <row r="103">
@@ -8760,7 +8810,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-23.98079425106205</v>
+        <v>-31.55605744962802</v>
       </c>
     </row>
     <row r="104">
@@ -8768,7 +8818,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-24.04231859183216</v>
+        <v>-31.13367587360373</v>
       </c>
     </row>
     <row r="105">
@@ -8776,7 +8826,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-24.22942142644303</v>
+        <v>-30.7593432619002</v>
       </c>
     </row>
     <row r="106">
@@ -8784,7 +8834,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-25.64488929752752</v>
+        <v>-30.90107223469234</v>
       </c>
     </row>
     <row r="107">
@@ -8792,7 +8842,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-25.9998766527934</v>
+        <v>-30.84051038911094</v>
       </c>
     </row>
     <row r="108">
@@ -8800,7 +8850,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-25.78852460602705</v>
+        <v>-31.06401896181917</v>
       </c>
     </row>
     <row r="109">
@@ -8808,7 +8858,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-26.63867698203982</v>
+        <v>-34.83930520946557</v>
       </c>
     </row>
     <row r="110">
@@ -8816,7 +8866,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-26.80181074948036</v>
+        <v>-34.2896227149313</v>
       </c>
     </row>
     <row r="111">
@@ -8824,7 +8874,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-26.78576183966829</v>
+        <v>-34.45786108216414</v>
       </c>
     </row>
     <row r="112">
@@ -8832,7 +8882,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-26.59300653955066</v>
+        <v>-36.80742020744454</v>
       </c>
     </row>
     <row r="113">
@@ -8840,7 +8890,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-26.67523778186212</v>
+        <v>-34.4882362056239</v>
       </c>
     </row>
     <row r="114">
@@ -8848,7 +8898,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-27.26338453761714</v>
+        <v>-36.04393035460129</v>
       </c>
     </row>
     <row r="115">
@@ -8856,7 +8906,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-27.4244933686372</v>
+        <v>-38.74634851977648</v>
       </c>
     </row>
     <row r="116">
@@ -8864,7 +8914,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-26.82367257131485</v>
+        <v>-36.08489767380441</v>
       </c>
     </row>
     <row r="117">
@@ -8872,7 +8922,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-27.94494196388987</v>
+        <v>-34.86696952586919</v>
       </c>
     </row>
     <row r="118">
@@ -8880,7 +8930,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-27.31749808537753</v>
+        <v>-37.30335366847914</v>
       </c>
     </row>
     <row r="119">
@@ -8888,7 +8938,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-28.18281288736561</v>
+        <v>-35.50527158836059</v>
       </c>
     </row>
     <row r="120">
@@ -8896,7 +8946,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-28.69227920612419</v>
+        <v>-36.46654184430167</v>
       </c>
     </row>
     <row r="121">
@@ -8904,7 +8954,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-27.85318538810355</v>
+        <v>-35.38638369477979</v>
       </c>
     </row>
     <row r="122">
@@ -8912,7 +8962,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-28.08459791425356</v>
+        <v>-37.41696771268649</v>
       </c>
     </row>
     <row r="123">
@@ -8920,7 +8970,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-27.90163630972875</v>
+        <v>-36.23530192489746</v>
       </c>
     </row>
     <row r="124">
@@ -8928,7 +8978,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-26.50551490310733</v>
+        <v>-34.96568041368077</v>
       </c>
     </row>
     <row r="125">
@@ -8936,7 +8986,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-26.97378109332975</v>
+        <v>-37.51697685250037</v>
       </c>
     </row>
     <row r="126">
@@ -8944,7 +8994,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-27.13060078568642</v>
+        <v>-35.01158620766376</v>
       </c>
     </row>
     <row r="127">
@@ -8952,7 +9002,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-27.21211991035568</v>
+        <v>-33.99379083509063</v>
       </c>
     </row>
     <row r="128">
@@ -8960,7 +9010,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-27.08773571029726</v>
+        <v>-32.50216929501021</v>
       </c>
     </row>
     <row r="129">
@@ -8968,7 +9018,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-27.535386934417</v>
+        <v>-34.3333413426649</v>
       </c>
     </row>
     <row r="130">
@@ -8976,7 +9026,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-26.68954744369235</v>
+        <v>-32.45049442915808</v>
       </c>
     </row>
     <row r="131">
@@ -8984,7 +9034,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-26.46883958613352</v>
+        <v>-33.36656183472378</v>
       </c>
     </row>
     <row r="132">
@@ -8992,7 +9042,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-26.78307281984666</v>
+        <v>-33.07294701254752</v>
       </c>
     </row>
     <row r="133">
@@ -9000,7 +9050,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-26.43667963441249</v>
+        <v>-33.39997393214919</v>
       </c>
     </row>
     <row r="134">
@@ -9008,7 +9058,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-26.70122782846008</v>
+        <v>-32.86498097338174</v>
       </c>
     </row>
     <row r="135">
@@ -9016,7 +9066,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-26.54873347620422</v>
+        <v>-32.20742137609916</v>
       </c>
     </row>
     <row r="136">
@@ -9024,7 +9074,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-26.07225786098583</v>
+        <v>-34.01986010446407</v>
       </c>
     </row>
     <row r="137">
@@ -9032,7 +9082,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-26.21860207535508</v>
+        <v>-32.79975774556647</v>
       </c>
     </row>
     <row r="138">
@@ -9040,7 +9090,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-26.31308835720828</v>
+        <v>-32.70739018804335</v>
       </c>
     </row>
     <row r="139">
@@ -9048,7 +9098,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-26.24330756967541</v>
+        <v>-32.38975420026263</v>
       </c>
     </row>
     <row r="140">
@@ -9056,7 +9106,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-26.48016421314373</v>
+        <v>-33.86436734534745</v>
       </c>
     </row>
     <row r="141">
@@ -9064,7 +9114,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-25.82235217472612</v>
+        <v>-33.79583889429005</v>
       </c>
     </row>
     <row r="142">
@@ -9072,7 +9122,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-26.25638837458008</v>
+        <v>-32.86725456866095</v>
       </c>
     </row>
     <row r="143">
@@ -9080,7 +9130,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-26.30604045501713</v>
+        <v>-33.04066158256342</v>
       </c>
     </row>
     <row r="144">
@@ -9088,7 +9138,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-26.00639818171351</v>
+        <v>-33.15498147851164</v>
       </c>
     </row>
     <row r="145">
@@ -9096,14 +9146,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-26.32560164767776</v>
+        <v>-33.10609383144048</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9134,6 +9184,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014006776</v>
+        <v>2014001071</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2016003675</v>
+        <v>2012006409</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013003984</v>
+        <v>2013005899</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016001810</v>
+        <v>2016003741</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013006559</v>
+        <v>2016008662</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2014008337</v>
+        <v>2016003003</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2016008287</v>
+        <v>2013007225</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2013004313</v>
+        <v>2016008691</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2013002813</v>
+        <v>2015009109</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2015001236</v>
+        <v>2015003253</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2016002717</v>
+        <v>2015007870</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2014004151</v>
+        <v>2016002048</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2012000389</v>
+        <v>2016005796</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>7.4</v>
       </c>
       <c r="F14" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G14" t="n">
         <v>250</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2016002515</v>
+        <v>2012004369</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2013008091</v>
+        <v>2015004048</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2013004707</v>
+        <v>2012005204</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>250</v>
@@ -2403,158 +2403,6 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2016001550</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>75</v>
-      </c>
-      <c r="G18" t="n">
-        <v>250</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2016007992</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>24</v>
-      </c>
-      <c r="G19" t="n">
-        <v>250</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2016000892</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>40</v>
-      </c>
-      <c r="G20" t="n">
-        <v>250</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2012007287</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>40</v>
-      </c>
-      <c r="G21" t="n">
-        <v>250</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2609,288 +2457,288 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014006776</v>
+        <v>2014001071</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>35.0754196</v>
+        <v>21.26412199824406</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>23.58464770616458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014006776</v>
+        <v>2014001071</v>
       </c>
       <c r="B3" t="n">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D3" t="n">
-        <v>37.264122</v>
+        <v>23.4528244</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2016003675</v>
+        <v>2012006409</v>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>67.27516798327788</v>
+        <v>49.83635974327785</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>74.49139058015248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2013003984</v>
+        <v>2013005899</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>22.63206099824407</v>
+        <v>69.59261758327787</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2016001810</v>
+        <v>2016003741</v>
       </c>
       <c r="B6" t="n">
         <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>46.65857139566241</v>
+        <v>70.46166118327787</v>
       </c>
       <c r="E6" t="n">
-        <v>55.50317063264474</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2016001810</v>
+        <v>2016008662</v>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D7" t="n">
-        <v>51.5026847956624</v>
+        <v>27.619464272</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013006559</v>
+        <v>2016003003</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>57.96418489566239</v>
+        <v>20.9905342</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>23.94226738945864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2014008337</v>
+        <v>2013007225</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" t="n">
-        <v>37.26412146054121</v>
+        <v>19.81887586054121</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>39.45540644862668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2016008287</v>
+        <v>2016008691</v>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D10" t="n">
-        <v>21.26412199824405</v>
+        <v>63.79899358327788</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2013004313</v>
+        <v>2015009109</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>25.3228192</v>
+        <v>58.5194071956624</v>
       </c>
       <c r="E11" t="n">
-        <v>38.8268088932527</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2013004313</v>
+        <v>2015009109</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
-        <v>38.35847266054119</v>
+        <v>52.89315456</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2013004313</v>
+        <v>2015003253</v>
       </c>
       <c r="B13" t="n">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
         <v>143</v>
       </c>
       <c r="D13" t="n">
-        <v>39.1792366</v>
+        <v>21.26412199824407</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2013002813</v>
+        <v>2015007870</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D14" t="n">
-        <v>73.06879198327789</v>
+        <v>32.41518004054122</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2015001236</v>
+        <v>2016002048</v>
       </c>
       <c r="B15" t="n">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>143</v>
       </c>
       <c r="D15" t="n">
-        <v>74.22751679999998</v>
+        <v>5.513511418244064</v>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>23.99999999824407</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2016002717</v>
+        <v>2016005796</v>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D16" t="n">
-        <v>23.48817106054121</v>
+        <v>69.5926175832779</v>
       </c>
       <c r="E16" t="n">
-        <v>39.99887627991509</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2014004151</v>
+        <v>2012004369</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D17" t="n">
-        <v>20.99053419824408</v>
+        <v>16.47510663446736</v>
       </c>
       <c r="E17" t="n">
-        <v>23.94226738878318</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2012000389</v>
+        <v>2015004048</v>
       </c>
       <c r="B18" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" t="n">
-        <v>40.17293119566239</v>
+        <v>26.71884879566241</v>
       </c>
       <c r="E18" t="n">
         <v>60</v>
@@ -2898,173 +2746,47 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2016002515</v>
+        <v>2012005204</v>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D19" t="n">
-        <v>5.5</v>
+        <v>25.04967015446734</v>
       </c>
       <c r="E19" t="n">
-        <v>59.98586043265208</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n">
-        <v>2013008091</v>
-      </c>
-      <c r="B20" t="n">
-        <v>44</v>
-      </c>
-      <c r="C20" t="n">
-        <v>118</v>
-      </c>
-      <c r="D20" t="n">
-        <v>28.67132889046736</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30</v>
-      </c>
+      <c r="A20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n">
-        <v>2013004707</v>
-      </c>
-      <c r="B21" t="n">
-        <v>42</v>
-      </c>
-      <c r="C21" t="n">
-        <v>116</v>
-      </c>
-      <c r="D21" t="n">
-        <v>55.68791998327789</v>
-      </c>
-      <c r="E21" t="n">
-        <v>75</v>
-      </c>
+      <c r="A21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
-        <v>2016001550</v>
-      </c>
-      <c r="B22" t="n">
-        <v>26</v>
-      </c>
-      <c r="C22" t="n">
-        <v>116</v>
-      </c>
-      <c r="D22" t="n">
-        <v>71.5238256</v>
-      </c>
-      <c r="E22" t="n">
-        <v>75</v>
-      </c>
+      <c r="A22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n">
-        <v>2016001550</v>
-      </c>
-      <c r="B23" t="n">
-        <v>124</v>
-      </c>
-      <c r="C23" t="n">
-        <v>143</v>
-      </c>
-      <c r="D23" t="n">
-        <v>71.48520144</v>
-      </c>
-      <c r="E23" t="n">
-        <v>75</v>
-      </c>
+      <c r="A23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
-        <v>2016007992</v>
-      </c>
-      <c r="B24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C24" t="n">
-        <v>27</v>
-      </c>
-      <c r="D24" t="n">
-        <v>17.4338928</v>
-      </c>
-      <c r="E24" t="n">
-        <v>23.23434451914973</v>
-      </c>
+      <c r="A24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n">
-        <v>2016007992</v>
-      </c>
-      <c r="B25" t="n">
-        <v>36</v>
-      </c>
-      <c r="C25" t="n">
-        <v>118</v>
-      </c>
-      <c r="D25" t="n">
-        <v>20.16977079824404</v>
-      </c>
-      <c r="E25" t="n">
-        <v>23.67224445752118</v>
-      </c>
+      <c r="A25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n">
-        <v>2016007992</v>
-      </c>
-      <c r="B26" t="n">
-        <v>135</v>
-      </c>
-      <c r="C26" t="n">
-        <v>139</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.896183</v>
-      </c>
-      <c r="E26" t="n">
-        <v>22.36887142902908</v>
-      </c>
+      <c r="A26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n">
-        <v>2016000892</v>
-      </c>
-      <c r="B27" t="n">
-        <v>55</v>
-      </c>
-      <c r="C27" t="n">
-        <v>118</v>
-      </c>
-      <c r="D27" t="n">
-        <v>35.34900686054122</v>
-      </c>
-      <c r="E27" t="n">
-        <v>40</v>
-      </c>
+      <c r="A27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n">
-        <v>2012007287</v>
-      </c>
-      <c r="B28" t="n">
-        <v>58</v>
-      </c>
-      <c r="C28" t="n">
-        <v>117</v>
-      </c>
-      <c r="D28" t="n">
-        <v>29.0243006605412</v>
-      </c>
-      <c r="E28" t="n">
-        <v>40</v>
-      </c>
+      <c r="A28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="n"/>
@@ -6669,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>10.21380936783349</v>
+        <v>8.511507806527908</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6678,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>12.17450806814349</v>
+        <v>10.14542339011957</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6687,7 +6409,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>10.27793000036211</v>
+        <v>8.564941666968425</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6696,7 +6418,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>10.30647760467126</v>
+        <v>8.588731337226051</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6705,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>10.58832812005475</v>
+        <v>8.823606766712293</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6714,7 +6436,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>6.789436427367732</v>
+        <v>5.65786368947311</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6723,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>11.60490675803774</v>
+        <v>9.670755631698114</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6732,7 +6454,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>11.46556539711643</v>
+        <v>9.554637830930355</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6741,7 +6463,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>6.985749678484466</v>
+        <v>5.821458065403722</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6750,7 +6472,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>13.14061339276691</v>
+        <v>10.95051116063909</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6759,7 +6481,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>12.24942975603422</v>
+        <v>10.20785813002852</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6768,7 +6490,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>11.94647655021686</v>
+        <v>9.955397125180721</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6777,7 +6499,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>11.42192350288221</v>
+        <v>9.518269585735172</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6786,7 +6508,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>10.59338881204266</v>
+        <v>8.827824010035551</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6795,7 +6517,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>12.1625023364163</v>
+        <v>10.13541861368025</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6804,7 +6526,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>14.23422361858685</v>
+        <v>11.86185301548905</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6813,7 +6535,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>11.61443456289026</v>
+        <v>9.678695469075214</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6822,7 +6544,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>13.55685406472944</v>
+        <v>11.29737838727453</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6831,7 +6553,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>11.37258478149751</v>
+        <v>9.47715398458126</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6840,7 +6562,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>9.703371822019871</v>
+        <v>8.08614318501656</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6849,7 +6571,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>9.2739105332868</v>
+        <v>7.728258777739001</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6858,7 +6580,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>10.25744505461643</v>
+        <v>8.547870878847029</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6867,7 +6589,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>10.65438817514759</v>
+        <v>8.878656812622994</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6876,7 +6598,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>9.2948719931622</v>
+        <v>7.745726660968501</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6885,7 +6607,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>9.399442421962693</v>
+        <v>7.83286868496891</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6894,7 +6616,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>6.881274854753992</v>
+        <v>5.734395712294994</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6903,7 +6625,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4.981550639241998</v>
+        <v>4.151292199368332</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6912,7 +6634,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>8.194415956008527</v>
+        <v>6.82867996334044</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6921,7 +6643,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.804975805228468</v>
+        <v>3.170813171023723</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6930,7 +6652,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>3.638299536976056</v>
+        <v>3.03191628081338</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6939,7 +6661,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>8.145025033259657</v>
+        <v>6.787520861049715</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6948,7 +6670,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>4.745704935695847</v>
+        <v>3.954754113079873</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6957,7 +6679,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>4.010696831124688</v>
+        <v>3.342247359270573</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6966,7 +6688,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>4.416360294898022</v>
+        <v>3.680300245748351</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6975,7 +6697,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.514770822955934</v>
+        <v>2.928975685796612</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6984,7 +6706,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.7273298094089152</v>
+        <v>0.6061081745074294</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6993,7 +6715,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.090781044197357</v>
+        <v>1.742317536831131</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -7002,7 +6724,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.687738143254215</v>
+        <v>2.239781786045179</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -7011,7 +6733,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.595288664810136</v>
+        <v>2.162740554008447</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -7020,7 +6742,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>4.262791309267286</v>
+        <v>3.552326091056072</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -7029,7 +6751,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.7584529073197447</v>
+        <v>0.6320440894331206</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -7038,7 +6760,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.864972193894722</v>
+        <v>3.220810161578935</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -7047,7 +6769,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.123616033255167</v>
+        <v>0.1030133610459725</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -7056,7 +6778,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4.753371572948176</v>
+        <v>3.961142977456814</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -7065,7 +6787,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>5.824576552652797</v>
+        <v>4.853813793877331</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -7074,7 +6796,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.669562610859722</v>
+        <v>3.057968842383102</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -7083,7 +6805,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>5.93284230098468</v>
+        <v>4.944035250820566</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7092,7 +6814,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>5.899717780385364</v>
+        <v>4.91643148365447</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7101,7 +6823,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>5.413268214001946</v>
+        <v>4.511056845001622</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7110,7 +6832,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>5.899204253671614</v>
+        <v>4.916003544726346</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7119,7 +6841,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.993570739794566</v>
+        <v>3.327975616495472</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7128,7 +6850,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>4.773383952926104</v>
+        <v>3.977819960771754</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7137,7 +6859,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>5.35236294792323</v>
+        <v>4.460302456602692</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7146,7 +6868,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>3.098101885440383</v>
+        <v>2.581751571200319</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7155,7 +6877,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>7.242878506685486</v>
+        <v>6.035732088904572</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7164,7 +6886,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>9.181657087171507</v>
+        <v>7.651380905976256</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7173,7 +6895,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>4.054506102159555</v>
+        <v>3.378755085132962</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7182,7 +6904,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>11.28093116682028</v>
+        <v>9.400775972350234</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7191,7 +6913,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>10.73443002201644</v>
+        <v>8.945358351680364</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7200,7 +6922,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>11.00602451302497</v>
+        <v>9.171687094187472</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7209,7 +6931,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>12.79912140107339</v>
+        <v>10.66593450089449</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7218,7 +6940,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>13.1360040380698</v>
+        <v>10.94667003172483</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7227,7 +6949,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>12.81131648779106</v>
+        <v>10.67609707315921</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7236,7 +6958,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>15.04689109027606</v>
+        <v>12.53907590856338</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7245,7 +6967,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>16.19032363923479</v>
+        <v>13.49193636602899</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7254,7 +6976,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>16.11464293686103</v>
+        <v>13.42886911405086</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7263,7 +6985,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>16.24180363210943</v>
+        <v>13.53483636009119</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7272,7 +6994,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>19.30523262646295</v>
+        <v>16.08769385538579</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7281,7 +7003,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>18.14259058597334</v>
+        <v>15.11882548831112</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7290,7 +7012,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>19.4203822276155</v>
+        <v>16.18365185634625</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7299,7 +7021,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>20.83277621023491</v>
+        <v>17.36064684186242</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7308,7 +7030,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>18.8599112535385</v>
+        <v>15.71659271128208</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7317,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>22.64202883249821</v>
+        <v>18.86835736041518</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7326,7 +7048,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>20.52138559826498</v>
+        <v>17.10115466522082</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7335,7 +7057,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>19.98189091671489</v>
+        <v>16.65157576392908</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7344,7 +7066,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>20.5004442832396</v>
+        <v>17.08370356936634</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7353,7 +7075,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>21.84146405874033</v>
+        <v>18.20122004895028</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7362,7 +7084,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>22.27484203067704</v>
+        <v>18.56236835889753</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7371,7 +7093,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>23.13929232763839</v>
+        <v>19.28274360636533</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7380,7 +7102,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>22.40490066660089</v>
+        <v>18.67075055550074</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7389,7 +7111,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>20.80251054762939</v>
+        <v>17.33542545635782</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7398,7 +7120,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>23.09196856792497</v>
+        <v>19.24330713993747</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7407,7 +7129,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>22.09008721632262</v>
+        <v>18.40840601360218</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7416,7 +7138,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>18.18317020797971</v>
+        <v>15.15264183998309</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7425,7 +7147,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>21.12339540502338</v>
+        <v>17.60282950418615</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7434,7 +7156,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>20.2737806689856</v>
+        <v>16.89481722415467</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7443,7 +7165,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>20.72960994002427</v>
+        <v>17.27467495002022</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7452,7 +7174,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>20.702228666435</v>
+        <v>17.25185722202917</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7461,7 +7183,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>18.10769052249752</v>
+        <v>15.08974210208127</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7470,7 +7192,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>20.51443234844416</v>
+        <v>17.09536029037013</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7479,7 +7201,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>20.0972371763029</v>
+        <v>16.74769764691909</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7488,7 +7210,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>21.61261130747628</v>
+        <v>18.0105094228969</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7497,7 +7219,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>21.76446208831547</v>
+        <v>18.13705174026289</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7506,7 +7228,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>22.81741535516674</v>
+        <v>19.01451279597228</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7515,7 +7237,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>21.0218634569816</v>
+        <v>17.51821954748467</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7524,7 +7246,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>20.21958141447194</v>
+        <v>16.84965117872661</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7533,7 +7255,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>18.96282962100451</v>
+        <v>15.80235801750376</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7542,7 +7264,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>18.41394946540376</v>
+        <v>15.34495788783646</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7551,7 +7273,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>20.49915549437966</v>
+        <v>17.08262957864972</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7560,7 +7282,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>20.09995903955291</v>
+        <v>16.74996586629409</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7569,7 +7291,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>20.98052382841611</v>
+        <v>17.48376985701343</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7578,7 +7300,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>17.0412696293835</v>
+        <v>14.20105802448625</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7587,7 +7309,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>18.11055581991231</v>
+        <v>15.09212984992692</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7596,7 +7318,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>20.75574479300201</v>
+        <v>17.29645399416835</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7605,7 +7327,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>18.04941005013628</v>
+        <v>15.04117504178024</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7614,7 +7336,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>20.13199142566335</v>
+        <v>16.77665952138613</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7623,7 +7345,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>19.16499212990525</v>
+        <v>15.97082677492104</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7632,7 +7354,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>14.499331935783</v>
+        <v>12.0827766131525</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7641,7 +7363,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>14.63163877184601</v>
+        <v>12.19303230987168</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7650,7 +7372,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>14.78570708916436</v>
+        <v>12.32142257430363</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7659,7 +7381,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>10.07084739098552</v>
+        <v>8.392372825821264</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7668,7 +7390,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>12.63693784585346</v>
+        <v>10.53078153821121</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7677,7 +7399,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>11.53279930751635</v>
+        <v>9.610666089596963</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7686,7 +7408,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>6.387802636261453</v>
+        <v>5.323168863551211</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7695,7 +7417,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>8.345866210091817</v>
+        <v>6.954888508409848</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7704,7 +7426,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>3.887633014086717</v>
+        <v>3.239694178405597</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7713,7 +7435,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>4.292131822865986</v>
+        <v>3.576776519054989</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7722,7 +7444,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>7.791369298500259</v>
+        <v>6.492807748750216</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7731,7 +7453,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>6.02130979114254</v>
+        <v>5.017758159285449</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7740,7 +7462,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>2.697114058679715</v>
+        <v>2.247595048899762</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7749,7 +7471,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>4.801717337566752</v>
+        <v>4.001431114638961</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7758,7 +7480,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>7.051440635546849</v>
+        <v>5.876200529622374</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7767,7 +7489,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>9.990862137576629</v>
+        <v>8.325718447980524</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7776,7 +7498,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>9.263487664109112</v>
+        <v>7.71957305342426</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7785,7 +7507,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>12.00028736544243</v>
+        <v>10.00023947120203</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7794,7 +7516,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>9.355132822513893</v>
+        <v>7.795944018761578</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7803,7 +7525,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>11.56684370486586</v>
+        <v>9.639036420721553</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7812,7 +7534,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>9.622749998824599</v>
+        <v>8.018958332353833</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7821,7 +7543,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>10.13283896727381</v>
+        <v>8.444032472728175</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7830,7 +7552,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>7.670403375011444</v>
+        <v>6.392002812509538</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7839,7 +7561,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>10.23080970445833</v>
+        <v>8.525674753715276</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7848,7 +7570,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>8.611526832064548</v>
+        <v>7.17627236005379</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7857,7 +7579,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>12.94901118935335</v>
+        <v>10.79084265779446</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7866,7 +7588,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>12.40496560345895</v>
+        <v>10.33747133621579</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7875,7 +7597,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>13.36970310838303</v>
+        <v>11.14141925698586</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7884,7 +7606,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>13.27485114361413</v>
+        <v>11.06237595301178</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7893,7 +7615,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>12.85416169383195</v>
+        <v>10.71180141152663</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7902,7 +7624,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>10.42734769908679</v>
+        <v>8.689456415905662</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7911,7 +7633,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>14.15766035723873</v>
+        <v>11.79805029769895</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7920,7 +7642,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>12.24367983213812</v>
+        <v>10.20306652678176</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7929,7 +7651,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>11.06732535755147</v>
+        <v>9.222771131292891</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7938,7 +7660,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>10.86364744786593</v>
+        <v>9.053039539888276</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7947,7 +7669,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>9.172133244315384</v>
+        <v>7.64344437026282</v>
       </c>
     </row>
     <row r="145">
@@ -7955,7 +7677,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>12.4356641308143</v>
+        <v>10.36305344234525</v>
       </c>
     </row>
     <row r="146">
@@ -8002,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-32.76012238972088</v>
+        <v>-27.30010199143407</v>
       </c>
     </row>
     <row r="3">
@@ -8010,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-33.36188032257904</v>
+        <v>-27.80156693548253</v>
       </c>
     </row>
     <row r="4">
@@ -8018,7 +7740,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-32.3152778718652</v>
+        <v>-26.92939822655433</v>
       </c>
     </row>
     <row r="5">
@@ -8026,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-33.01302024143744</v>
+        <v>-27.51085020119787</v>
       </c>
     </row>
     <row r="6">
@@ -8034,7 +7756,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-33.36687220613967</v>
+        <v>-27.80572683844972</v>
       </c>
     </row>
     <row r="7">
@@ -8042,7 +7764,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-33.40518255256723</v>
+        <v>-27.83765212713936</v>
       </c>
     </row>
     <row r="8">
@@ -8050,7 +7772,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-33.30438870669682</v>
+        <v>-27.75365725558068</v>
       </c>
     </row>
     <row r="9">
@@ -8058,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-33.69620311601065</v>
+        <v>-28.08016926334221</v>
       </c>
     </row>
     <row r="10">
@@ -8066,7 +7788,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-33.63178577423525</v>
+        <v>-28.02648814519604</v>
       </c>
     </row>
     <row r="11">
@@ -8074,7 +7796,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-34.86109118884274</v>
+        <v>-29.05090932403562</v>
       </c>
     </row>
     <row r="12">
@@ -8082,7 +7804,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-34.17978495501256</v>
+        <v>-28.48315412917713</v>
       </c>
     </row>
     <row r="13">
@@ -8090,7 +7812,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-33.72180955829199</v>
+        <v>-28.10150796524333</v>
       </c>
     </row>
     <row r="14">
@@ -8098,7 +7820,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-32.07569841251507</v>
+        <v>-26.72974867709589</v>
       </c>
     </row>
     <row r="15">
@@ -8106,7 +7828,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-32.34768945371749</v>
+        <v>-26.95640787809791</v>
       </c>
     </row>
     <row r="16">
@@ -8114,7 +7836,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-31.98583650943185</v>
+        <v>-26.65486375785987</v>
       </c>
     </row>
     <row r="17">
@@ -8122,7 +7844,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-32.04549367936643</v>
+        <v>-26.70457806613869</v>
       </c>
     </row>
     <row r="18">
@@ -8130,7 +7852,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-33.07716767122616</v>
+        <v>-27.56430639268847</v>
       </c>
     </row>
     <row r="19">
@@ -8138,7 +7860,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-32.67029659036979</v>
+        <v>-27.22524715864149</v>
       </c>
     </row>
     <row r="20">
@@ -8146,7 +7868,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-34.56528686451254</v>
+        <v>-28.80440572042712</v>
       </c>
     </row>
     <row r="21">
@@ -8154,7 +7876,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-33.83144073656403</v>
+        <v>-28.19286728047002</v>
       </c>
     </row>
     <row r="22">
@@ -8162,7 +7884,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-33.91371069545813</v>
+        <v>-28.26142557954844</v>
       </c>
     </row>
     <row r="23">
@@ -8170,7 +7892,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-33.01373321786964</v>
+        <v>-27.5114443482247</v>
       </c>
     </row>
     <row r="24">
@@ -8178,7 +7900,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-35.13886526725782</v>
+        <v>-29.28238772271485</v>
       </c>
     </row>
     <row r="25">
@@ -8186,7 +7908,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-34.61234229433157</v>
+        <v>-28.84361857860964</v>
       </c>
     </row>
     <row r="26">
@@ -8194,7 +7916,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-36.47141998827898</v>
+        <v>-30.39284999023248</v>
       </c>
     </row>
     <row r="27">
@@ -8202,7 +7924,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-35.22876396850852</v>
+        <v>-29.35730330709043</v>
       </c>
     </row>
     <row r="28">
@@ -8210,7 +7932,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-36.31883533057343</v>
+        <v>-30.26569610881119</v>
       </c>
     </row>
     <row r="29">
@@ -8218,7 +7940,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-34.80562057199619</v>
+        <v>-29.00468380999682</v>
       </c>
     </row>
     <row r="30">
@@ -8226,7 +7948,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-37.95072566078749</v>
+        <v>-31.62560471732291</v>
       </c>
     </row>
     <row r="31">
@@ -8234,7 +7956,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-38.3339296014035</v>
+        <v>-31.94494133450292</v>
       </c>
     </row>
     <row r="32">
@@ -8242,7 +7964,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-38.27092524677969</v>
+        <v>-31.89243770564974</v>
       </c>
     </row>
     <row r="33">
@@ -8250,7 +7972,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-37.90201897985546</v>
+        <v>-31.58501581654621</v>
       </c>
     </row>
     <row r="34">
@@ -8258,7 +7980,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-38.23082438094397</v>
+        <v>-31.85902031745331</v>
       </c>
     </row>
     <row r="35">
@@ -8266,7 +7988,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-38.42599545027681</v>
+        <v>-32.02166287523067</v>
       </c>
     </row>
     <row r="36">
@@ -8274,7 +7996,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-38.78752740384976</v>
+        <v>-32.32293950320813</v>
       </c>
     </row>
     <row r="37">
@@ -8282,7 +8004,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-39.01248485199089</v>
+        <v>-32.51040404332574</v>
       </c>
     </row>
     <row r="38">
@@ -8290,7 +8012,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-38.79481596779794</v>
+        <v>-32.32901330649829</v>
       </c>
     </row>
     <row r="39">
@@ -8298,7 +8020,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-36.84756402643842</v>
+        <v>-30.70630335536535</v>
       </c>
     </row>
     <row r="40">
@@ -8306,7 +8028,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-38.8056463580326</v>
+        <v>-32.33803863169383</v>
       </c>
     </row>
     <row r="41">
@@ -8314,7 +8036,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-38.29570485213164</v>
+        <v>-31.91308737677636</v>
       </c>
     </row>
     <row r="42">
@@ -8322,7 +8044,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-38.38752636820848</v>
+        <v>-31.9896053068404</v>
       </c>
     </row>
     <row r="43">
@@ -8330,7 +8052,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-38.23574753609672</v>
+        <v>-31.86312294674727</v>
       </c>
     </row>
     <row r="44">
@@ -8338,7 +8060,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-37.31819490879017</v>
+        <v>-31.09849575732514</v>
       </c>
     </row>
     <row r="45">
@@ -8346,7 +8068,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-38.51762695389249</v>
+        <v>-32.09802246157707</v>
       </c>
     </row>
     <row r="46">
@@ -8354,7 +8076,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-37.71508158225</v>
+        <v>-31.429234651875</v>
       </c>
     </row>
     <row r="47">
@@ -8362,7 +8084,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-37.28501302884337</v>
+        <v>-31.07084419070281</v>
       </c>
     </row>
     <row r="48">
@@ -8370,7 +8092,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-37.99115084242857</v>
+        <v>-31.65929236869048</v>
       </c>
     </row>
     <row r="49">
@@ -8378,7 +8100,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-37.85788035065524</v>
+        <v>-31.54823362554604</v>
       </c>
     </row>
     <row r="50">
@@ -8386,7 +8108,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-37.25742508830127</v>
+        <v>-31.04785424025106</v>
       </c>
     </row>
     <row r="51">
@@ -8394,7 +8116,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-37.32980294771791</v>
+        <v>-31.10816912309826</v>
       </c>
     </row>
     <row r="52">
@@ -8402,7 +8124,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-35.57551043384711</v>
+        <v>-29.64625869487259</v>
       </c>
     </row>
     <row r="53">
@@ -8410,7 +8132,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-36.76555790287232</v>
+        <v>-30.63796491906027</v>
       </c>
     </row>
     <row r="54">
@@ -8418,7 +8140,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-36.8836494364412</v>
+        <v>-30.73637453036767</v>
       </c>
     </row>
     <row r="55">
@@ -8426,7 +8148,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-34.82337322339507</v>
+        <v>-29.01947768616256</v>
       </c>
     </row>
     <row r="56">
@@ -8434,7 +8156,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-36.18230661487492</v>
+        <v>-30.15192217906243</v>
       </c>
     </row>
     <row r="57">
@@ -8442,7 +8164,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-37.87755959199389</v>
+        <v>-31.56463299332824</v>
       </c>
     </row>
     <row r="58">
@@ -8450,7 +8172,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-36.11169250429663</v>
+        <v>-30.09307708691385</v>
       </c>
     </row>
     <row r="59">
@@ -8458,7 +8180,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-35.67660062459914</v>
+        <v>-29.73050052049928</v>
       </c>
     </row>
     <row r="60">
@@ -8466,7 +8188,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-36.12487229489408</v>
+        <v>-30.10406024574506</v>
       </c>
     </row>
     <row r="61">
@@ -8474,7 +8196,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-33.93746864795148</v>
+        <v>-28.2812238732929</v>
       </c>
     </row>
     <row r="62">
@@ -8482,7 +8204,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-35.12753795922182</v>
+        <v>-29.27294829935152</v>
       </c>
     </row>
     <row r="63">
@@ -8490,7 +8212,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-34.4408055177564</v>
+        <v>-28.70067126479699</v>
       </c>
     </row>
     <row r="64">
@@ -8498,7 +8220,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-33.80002784991328</v>
+        <v>-28.16668987492774</v>
       </c>
     </row>
     <row r="65">
@@ -8506,7 +8228,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-34.66751829277145</v>
+        <v>-28.88959857730954</v>
       </c>
     </row>
     <row r="66">
@@ -8514,7 +8236,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-32.70351464800103</v>
+        <v>-27.25292887333419</v>
       </c>
     </row>
     <row r="67">
@@ -8522,7 +8244,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-31.73450117791165</v>
+        <v>-26.44541764825971</v>
       </c>
     </row>
     <row r="68">
@@ -8530,7 +8252,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-33.25734448469385</v>
+        <v>-27.71445373724488</v>
       </c>
     </row>
     <row r="69">
@@ -8538,7 +8260,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-31.56951705811404</v>
+        <v>-26.30793088176171</v>
       </c>
     </row>
     <row r="70">
@@ -8546,7 +8268,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-31.11147954991414</v>
+        <v>-25.92623295826179</v>
       </c>
     </row>
     <row r="71">
@@ -8554,7 +8276,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-31.06424759702964</v>
+        <v>-25.8868729975247</v>
       </c>
     </row>
     <row r="72">
@@ -8562,7 +8284,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-30.93329210078057</v>
+        <v>-25.77774341731714</v>
       </c>
     </row>
     <row r="73">
@@ -8570,7 +8292,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-30.62541037909818</v>
+        <v>-25.52117531591515</v>
       </c>
     </row>
     <row r="74">
@@ -8578,7 +8300,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-31.48219318577153</v>
+        <v>-26.23516098814294</v>
       </c>
     </row>
     <row r="75">
@@ -8586,7 +8308,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-30.71565769339252</v>
+        <v>-25.59638141116043</v>
       </c>
     </row>
     <row r="76">
@@ -8594,7 +8316,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-30.48688900176053</v>
+        <v>-25.40574083480044</v>
       </c>
     </row>
     <row r="77">
@@ -8602,7 +8324,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-31.64129124786571</v>
+        <v>-26.36774270655476</v>
       </c>
     </row>
     <row r="78">
@@ -8610,7 +8332,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-31.13834057706408</v>
+        <v>-25.9486171475534</v>
       </c>
     </row>
     <row r="79">
@@ -8618,7 +8340,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-30.69093226400445</v>
+        <v>-25.57577688667038</v>
       </c>
     </row>
     <row r="80">
@@ -8626,7 +8348,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-31.99037214652117</v>
+        <v>-26.65864345543431</v>
       </c>
     </row>
     <row r="81">
@@ -8634,7 +8356,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-31.12362841433416</v>
+        <v>-25.93635701194513</v>
       </c>
     </row>
     <row r="82">
@@ -8642,7 +8364,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-30.37680035340382</v>
+        <v>-25.31400029450318</v>
       </c>
     </row>
     <row r="83">
@@ -8650,7 +8372,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-30.41917172000174</v>
+        <v>-25.34930976666812</v>
       </c>
     </row>
     <row r="84">
@@ -8658,7 +8380,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-30.7241253409434</v>
+        <v>-25.6034377841195</v>
       </c>
     </row>
     <row r="85">
@@ -8666,7 +8388,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-31.1458919662871</v>
+        <v>-25.95490997190591</v>
       </c>
     </row>
     <row r="86">
@@ -8674,7 +8396,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-31.74877578883998</v>
+        <v>-26.45731315736665</v>
       </c>
     </row>
     <row r="87">
@@ -8682,7 +8404,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-31.06108043326861</v>
+        <v>-25.88423369439051</v>
       </c>
     </row>
     <row r="88">
@@ -8690,7 +8412,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-30.9360761810246</v>
+        <v>-25.78006348418717</v>
       </c>
     </row>
     <row r="89">
@@ -8698,7 +8420,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-31.08439315332073</v>
+        <v>-25.90366096110061</v>
       </c>
     </row>
     <row r="90">
@@ -8706,7 +8428,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-30.81381000310873</v>
+        <v>-25.67817500259061</v>
       </c>
     </row>
     <row r="91">
@@ -8714,7 +8436,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-30.72932027514644</v>
+        <v>-25.60776689595537</v>
       </c>
     </row>
     <row r="92">
@@ -8722,7 +8444,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-31.09680822044573</v>
+        <v>-25.91400685037144</v>
       </c>
     </row>
     <row r="93">
@@ -8730,7 +8452,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-31.44294008731308</v>
+        <v>-26.2024500727609</v>
       </c>
     </row>
     <row r="94">
@@ -8738,7 +8460,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-31.09292787548732</v>
+        <v>-25.91077322957277</v>
       </c>
     </row>
     <row r="95">
@@ -8746,7 +8468,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-30.41192877105388</v>
+        <v>-25.34327397587823</v>
       </c>
     </row>
     <row r="96">
@@ -8754,7 +8476,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-30.81153819131585</v>
+        <v>-25.67628182609655</v>
       </c>
     </row>
     <row r="97">
@@ -8762,7 +8484,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-32.26411589114829</v>
+        <v>-26.88676324262358</v>
       </c>
     </row>
     <row r="98">
@@ -8770,7 +8492,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-31.28890707286091</v>
+        <v>-26.07408922738409</v>
       </c>
     </row>
     <row r="99">
@@ -8778,7 +8500,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-32.16203041490187</v>
+        <v>-26.80169201241823</v>
       </c>
     </row>
     <row r="100">
@@ -8786,7 +8508,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-31.30350967542396</v>
+        <v>-26.0862580628533</v>
       </c>
     </row>
     <row r="101">
@@ -8794,7 +8516,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-30.65619119891464</v>
+        <v>-25.54682599909553</v>
       </c>
     </row>
     <row r="102">
@@ -8802,7 +8524,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-30.84699514125501</v>
+        <v>-25.70582928437918</v>
       </c>
     </row>
     <row r="103">
@@ -8810,7 +8532,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-31.55605744962802</v>
+        <v>-26.29671454135669</v>
       </c>
     </row>
     <row r="104">
@@ -8818,7 +8540,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-31.13367587360373</v>
+        <v>-25.94472989466978</v>
       </c>
     </row>
     <row r="105">
@@ -8826,7 +8548,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-30.7593432619002</v>
+        <v>-25.6327860515835</v>
       </c>
     </row>
     <row r="106">
@@ -8834,7 +8556,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-30.90107223469234</v>
+        <v>-25.75089352891029</v>
       </c>
     </row>
     <row r="107">
@@ -8842,7 +8564,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-30.84051038911094</v>
+        <v>-25.70042532425912</v>
       </c>
     </row>
     <row r="108">
@@ -8850,7 +8572,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-31.06401896181917</v>
+        <v>-25.88668246818264</v>
       </c>
     </row>
     <row r="109">
@@ -8858,7 +8580,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-34.83930520946557</v>
+        <v>-29.03275434122131</v>
       </c>
     </row>
     <row r="110">
@@ -8866,7 +8588,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-34.2896227149313</v>
+        <v>-28.57468559577608</v>
       </c>
     </row>
     <row r="111">
@@ -8874,7 +8596,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-34.45786108216414</v>
+        <v>-28.71488423513678</v>
       </c>
     </row>
     <row r="112">
@@ -8882,7 +8604,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-36.80742020744454</v>
+        <v>-30.67285017287045</v>
       </c>
     </row>
     <row r="113">
@@ -8890,7 +8612,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-34.4882362056239</v>
+        <v>-28.74019683801992</v>
       </c>
     </row>
     <row r="114">
@@ -8898,7 +8620,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-36.04393035460129</v>
+        <v>-30.0366086288344</v>
       </c>
     </row>
     <row r="115">
@@ -8906,7 +8628,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-38.74634851977648</v>
+        <v>-32.28862376648041</v>
       </c>
     </row>
     <row r="116">
@@ -8914,7 +8636,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-36.08489767380441</v>
+        <v>-30.07074806150367</v>
       </c>
     </row>
     <row r="117">
@@ -8922,7 +8644,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-34.86696952586919</v>
+        <v>-29.05580793822433</v>
       </c>
     </row>
     <row r="118">
@@ -8930,7 +8652,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-37.30335366847914</v>
+        <v>-31.08612805706595</v>
       </c>
     </row>
     <row r="119">
@@ -8938,7 +8660,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-35.50527158836059</v>
+        <v>-29.58772632363382</v>
       </c>
     </row>
     <row r="120">
@@ -8946,7 +8668,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-36.46654184430167</v>
+        <v>-30.3887848702514</v>
       </c>
     </row>
     <row r="121">
@@ -8954,7 +8676,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-35.38638369477979</v>
+        <v>-29.48865307898316</v>
       </c>
     </row>
     <row r="122">
@@ -8962,7 +8684,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-37.41696771268649</v>
+        <v>-31.18080642723875</v>
       </c>
     </row>
     <row r="123">
@@ -8970,7 +8692,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-36.23530192489746</v>
+        <v>-30.19608493741455</v>
       </c>
     </row>
     <row r="124">
@@ -8978,7 +8700,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-34.96568041368077</v>
+        <v>-29.13806701140064</v>
       </c>
     </row>
     <row r="125">
@@ -8986,7 +8708,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-37.51697685250037</v>
+        <v>-31.26414737708364</v>
       </c>
     </row>
     <row r="126">
@@ -8994,7 +8716,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-35.01158620766376</v>
+        <v>-29.1763218397198</v>
       </c>
     </row>
     <row r="127">
@@ -9002,7 +8724,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-33.99379083509063</v>
+        <v>-28.32815902924219</v>
       </c>
     </row>
     <row r="128">
@@ -9010,7 +8732,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-32.50216929501021</v>
+        <v>-27.08514107917518</v>
       </c>
     </row>
     <row r="129">
@@ -9018,7 +8740,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-34.3333413426649</v>
+        <v>-28.61111778555409</v>
       </c>
     </row>
     <row r="130">
@@ -9026,7 +8748,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-32.45049442915808</v>
+        <v>-27.04207869096506</v>
       </c>
     </row>
     <row r="131">
@@ -9034,7 +8756,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-33.36656183472378</v>
+        <v>-27.80546819560315</v>
       </c>
     </row>
     <row r="132">
@@ -9042,7 +8764,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-33.07294701254752</v>
+        <v>-27.56078917712293</v>
       </c>
     </row>
     <row r="133">
@@ -9050,7 +8772,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-33.39997393214919</v>
+        <v>-27.83331161012433</v>
       </c>
     </row>
     <row r="134">
@@ -9058,7 +8780,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-32.86498097338174</v>
+        <v>-27.38748414448478</v>
       </c>
     </row>
     <row r="135">
@@ -9066,7 +8788,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-32.20742137609916</v>
+        <v>-26.83951781341597</v>
       </c>
     </row>
     <row r="136">
@@ -9074,7 +8796,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-34.01986010446407</v>
+        <v>-28.34988342038672</v>
       </c>
     </row>
     <row r="137">
@@ -9082,7 +8804,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-32.79975774556647</v>
+        <v>-27.33313145463872</v>
       </c>
     </row>
     <row r="138">
@@ -9090,7 +8812,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-32.70739018804335</v>
+        <v>-27.25615849003612</v>
       </c>
     </row>
     <row r="139">
@@ -9098,7 +8820,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-32.38975420026263</v>
+        <v>-26.99146183355219</v>
       </c>
     </row>
     <row r="140">
@@ -9106,7 +8828,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-33.86436734534745</v>
+        <v>-28.22030612112287</v>
       </c>
     </row>
     <row r="141">
@@ -9114,7 +8836,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-33.79583889429005</v>
+        <v>-28.16319907857504</v>
       </c>
     </row>
     <row r="142">
@@ -9122,7 +8844,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-32.86725456866095</v>
+        <v>-27.38937880721747</v>
       </c>
     </row>
     <row r="143">
@@ -9130,7 +8852,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-33.04066158256342</v>
+        <v>-27.53388465213618</v>
       </c>
     </row>
     <row r="144">
@@ -9138,7 +8860,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-33.15498147851164</v>
+        <v>-27.62915123209304</v>
       </c>
     </row>
     <row r="145">
@@ -9146,7 +8868,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-33.10609383144048</v>
+        <v>-27.5884115262004</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014001071</v>
+        <v>2012008552</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012006409</v>
+        <v>2014001110</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013005899</v>
+        <v>2016001658</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016003741</v>
+        <v>2012002924</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016008662</v>
+        <v>2013005610</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016003003</v>
+        <v>2014001012</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2013007225</v>
+        <v>2015000786</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2016008691</v>
+        <v>2016002483</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015009109</v>
+        <v>2015003862</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2015003253</v>
+        <v>2013006483</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2015007870</v>
+        <v>2016003079</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2016002048</v>
+        <v>2012001597</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>7.4</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
         <v>250</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2016005796</v>
+        <v>2012007033</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2012004369</v>
+        <v>2016005569</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2015004048</v>
+        <v>2015002541</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2012005204</v>
+        <v>2014008491</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G17" t="n">
         <v>250</v>
@@ -2457,288 +2457,288 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014001071</v>
+        <v>2012008552</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D2" t="n">
-        <v>21.26412199824406</v>
+        <v>37.75657950054121</v>
       </c>
       <c r="E2" t="n">
-        <v>23.58464770616458</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014001071</v>
+        <v>2014001110</v>
       </c>
       <c r="B3" t="n">
         <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4528244</v>
+        <v>26.81672547446735</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012006409</v>
+        <v>2016001658</v>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>49.83635974327785</v>
+        <v>36.82638152</v>
       </c>
       <c r="E4" t="n">
-        <v>74.49139058015248</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2013005899</v>
+        <v>2012002924</v>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>69.59261758327787</v>
+        <v>37.8112976</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2016003741</v>
+        <v>2012002924</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D6" t="n">
-        <v>70.46166118327787</v>
+        <v>37.8112976</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2016008662</v>
+        <v>2013005610</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" t="n">
-        <v>27.619464272</v>
+        <v>72.45080542327787</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2016003003</v>
+        <v>2014001012</v>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>20.9905342</v>
+        <v>58.14925899999999</v>
       </c>
       <c r="E8" t="n">
-        <v>23.94226738945864</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2013007225</v>
+        <v>2014001012</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D9" t="n">
-        <v>19.81887586054121</v>
+        <v>59.25970359999999</v>
       </c>
       <c r="E9" t="n">
-        <v>39.45540644862668</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2016008691</v>
+        <v>2015000786</v>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" t="n">
-        <v>63.79899358327788</v>
+        <v>27.37194778000001</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2015009109</v>
+        <v>2016002483</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D11" t="n">
-        <v>58.5194071956624</v>
+        <v>23.35664447446736</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>29.99999999446738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2015009109</v>
+        <v>2015003862</v>
       </c>
       <c r="B12" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
         <v>120</v>
       </c>
       <c r="D12" t="n">
-        <v>52.89315456</v>
+        <v>34.0293480605412</v>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2015003253</v>
+        <v>2013006483</v>
       </c>
       <c r="B13" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D13" t="n">
-        <v>21.26412199824407</v>
+        <v>71.8167254632779</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2015007870</v>
+        <v>2016003079</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D14" t="n">
-        <v>32.41518004054122</v>
+        <v>70.36510078327787</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2016002048</v>
+        <v>2012001597</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
         <v>143</v>
       </c>
       <c r="D15" t="n">
-        <v>5.513511418244064</v>
+        <v>37.1273275605412</v>
       </c>
       <c r="E15" t="n">
-        <v>23.99999999824407</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2016005796</v>
+        <v>2012007033</v>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D16" t="n">
-        <v>69.5926175832779</v>
+        <v>52.98422878327789</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>74.91646804836961</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2012004369</v>
+        <v>2016005569</v>
       </c>
       <c r="B17" t="n">
         <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D17" t="n">
-        <v>16.47510663446736</v>
+        <v>71.13758398327788</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2015004048</v>
+        <v>2015002541</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>26.71884879566241</v>
+        <v>58.5194072</v>
       </c>
       <c r="E18" t="n">
         <v>60</v>
@@ -2746,26 +2746,54 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2012005204</v>
+        <v>2015002541</v>
       </c>
       <c r="B19" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D19" t="n">
-        <v>25.04967015446734</v>
+        <v>58.14925899999999</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n"/>
+      <c r="A20" s="7" t="n">
+        <v>2015002541</v>
+      </c>
+      <c r="B20" t="n">
+        <v>131</v>
+      </c>
+      <c r="C20" t="n">
+        <v>143</v>
+      </c>
+      <c r="D20" t="n">
+        <v>58.8895554</v>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n"/>
+      <c r="A21" s="7" t="n">
+        <v>2014008491</v>
+      </c>
+      <c r="B21" t="n">
+        <v>32</v>
+      </c>
+      <c r="C21" t="n">
+        <v>120</v>
+      </c>
+      <c r="D21" t="n">
+        <v>60.32281918327789</v>
+      </c>
+      <c r="E21" t="n">
+        <v>74.99306979203367</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>

--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012008552</v>
+        <v>2016003669</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014001110</v>
+        <v>2013006261</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016001658</v>
+        <v>2012002520</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012002924</v>
+        <v>2014005039</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013005610</v>
+        <v>2014005273</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2014001012</v>
+        <v>2012005500</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2015000786</v>
+        <v>2013006954</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2016002483</v>
+        <v>2014003334</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015003862</v>
+        <v>2015000808</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2013006483</v>
+        <v>2015007622</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2016003079</v>
+        <v>2016007597</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2012001597</v>
+        <v>2016004992</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>7.4</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
         <v>250</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2012007033</v>
+        <v>2012006429</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2016005569</v>
+        <v>2013000025</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2327,82 +2327,6 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2015002541</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>60</v>
-      </c>
-      <c r="G16" t="n">
-        <v>250</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2014008491</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>75</v>
-      </c>
-      <c r="G17" t="n">
-        <v>250</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2457,101 +2381,101 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012008552</v>
+        <v>2016003669</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>37.75657950054121</v>
+        <v>58.14925899566239</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014001110</v>
+        <v>2013006261</v>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>26.81672547446735</v>
+        <v>23.06035540750435</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>39.99999946054121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2016001658</v>
+        <v>2012002520</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>36.82638152</v>
+        <v>68.8201344</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2012002924</v>
+        <v>2014005039</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>37.8112976</v>
+        <v>58.5194072</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2012002924</v>
+        <v>2014005039</v>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>37.8112976</v>
+        <v>51.85673960000001</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2013005610</v>
+        <v>2014005273</v>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n">
-        <v>72.45080542327787</v>
+        <v>73.068792</v>
       </c>
       <c r="E7" t="n">
         <v>75</v>
@@ -2559,16 +2483,16 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2014001012</v>
+        <v>2012005500</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="D8" t="n">
-        <v>58.14925899999999</v>
+        <v>57.7791107956624</v>
       </c>
       <c r="E8" t="n">
         <v>60</v>
@@ -2576,33 +2500,33 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2014001012</v>
+        <v>2013006954</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D9" t="n">
-        <v>59.25970359999999</v>
+        <v>22.08488539824406</v>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2015000786</v>
+        <v>2014003334</v>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>27.37194778000001</v>
+        <v>29.44638704</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -2610,67 +2534,67 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2016002483</v>
+        <v>2014003334</v>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="n">
-        <v>23.35664447446736</v>
+        <v>25.29428984</v>
       </c>
       <c r="E11" t="n">
-        <v>29.99999999446738</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2015003862</v>
+        <v>2015000808</v>
       </c>
       <c r="B12" t="n">
         <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D12" t="n">
-        <v>34.0293480605412</v>
+        <v>24.35721466054121</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>39.99924265252688</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2013006483</v>
+        <v>2015007622</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D13" t="n">
-        <v>71.8167254632779</v>
+        <v>63.65415298327788</v>
       </c>
       <c r="E13" t="n">
-        <v>75</v>
+        <v>74.70197654458291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2016003079</v>
+        <v>2016007597</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D14" t="n">
-        <v>70.36510078327787</v>
+        <v>71.91006718327789</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
@@ -2678,50 +2602,50 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2012001597</v>
+        <v>2016004992</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D15" t="n">
-        <v>37.1273275605412</v>
+        <v>18.09732135446736</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>29.99999999446736</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2012007033</v>
+        <v>2012006429</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D16" t="n">
-        <v>52.98422878327789</v>
+        <v>72.68255040000001</v>
       </c>
       <c r="E16" t="n">
-        <v>74.91646804836961</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2016005569</v>
+        <v>2012006429</v>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C17" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D17" t="n">
-        <v>71.13758398327788</v>
+        <v>74.034396</v>
       </c>
       <c r="E17" t="n">
         <v>75</v>
@@ -2729,71 +2653,29 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2015002541</v>
+        <v>2013000025</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D18" t="n">
-        <v>58.5194072</v>
+        <v>13.76781627824407</v>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>23.99999999824405</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>2015002541</v>
-      </c>
-      <c r="B19" t="n">
-        <v>33</v>
-      </c>
-      <c r="C19" t="n">
-        <v>123</v>
-      </c>
-      <c r="D19" t="n">
-        <v>58.14925899999999</v>
-      </c>
-      <c r="E19" t="n">
-        <v>60</v>
-      </c>
+      <c r="A19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n">
-        <v>2015002541</v>
-      </c>
-      <c r="B20" t="n">
-        <v>131</v>
-      </c>
-      <c r="C20" t="n">
-        <v>143</v>
-      </c>
-      <c r="D20" t="n">
-        <v>58.8895554</v>
-      </c>
-      <c r="E20" t="n">
-        <v>60</v>
-      </c>
+      <c r="A20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n">
-        <v>2014008491</v>
-      </c>
-      <c r="B21" t="n">
-        <v>32</v>
-      </c>
-      <c r="C21" t="n">
-        <v>120</v>
-      </c>
-      <c r="D21" t="n">
-        <v>60.32281918327789</v>
-      </c>
-      <c r="E21" t="n">
-        <v>74.99306979203367</v>
-      </c>
+      <c r="A21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -6419,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>8.511507806527908</v>
+        <v>6.471073320219815</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6428,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>10.14542339011957</v>
+        <v>7.238211551208511</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6437,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>8.564941666968425</v>
+        <v>6.79869034643848</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6446,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>8.588731337226051</v>
+        <v>5.459855331583282</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6455,7 +6337,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>8.823606766712293</v>
+        <v>6.011973429449244</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6464,7 +6346,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>5.65786368947311</v>
+        <v>5.792924663005212</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6473,7 +6355,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>9.670755631698114</v>
+        <v>5.505274650494125</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6482,7 +6364,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>9.554637830930355</v>
+        <v>7.039758186473527</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6491,7 +6373,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>5.821458065403722</v>
+        <v>5.599038229073454</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6500,7 +6382,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>10.95051116063909</v>
+        <v>6.271473756877581</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6509,7 +6391,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>10.20785813002852</v>
+        <v>6.626418852812672</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6518,7 +6400,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>9.955397125180721</v>
+        <v>5.828130137809925</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6527,7 +6409,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>9.518269585735172</v>
+        <v>6.048755441796998</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6536,7 +6418,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>8.827824010035551</v>
+        <v>6.769528214498612</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6545,7 +6427,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>10.13541861368025</v>
+        <v>6.900017199267448</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6554,7 +6436,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>11.86185301548905</v>
+        <v>7.402969334273726</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6563,7 +6445,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>9.678695469075214</v>
+        <v>6.763356596937673</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6572,7 +6454,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>11.29737838727453</v>
+        <v>6.906993721902308</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6581,7 +6463,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>9.47715398458126</v>
+        <v>6.032419998757499</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6590,7 +6472,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8.08614318501656</v>
+        <v>4.696440049672596</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6599,7 +6481,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>7.728258777739001</v>
+        <v>4.125235634127717</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6608,7 +6490,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>8.547870878847029</v>
+        <v>4.797429432226048</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6617,7 +6499,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>8.878656812622994</v>
+        <v>5.787995544506853</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6626,7 +6508,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>7.745726660968501</v>
+        <v>6.180383770907494</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6635,7 +6517,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>7.83286868496891</v>
+        <v>5.687876786474396</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6644,7 +6526,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5.734395712294994</v>
+        <v>5.574516751621936</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6653,7 +6535,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4.151292199368332</v>
+        <v>5.092989547175906</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6662,7 +6544,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>6.82867996334044</v>
+        <v>4.067704393407773</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6671,7 +6553,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.170813171023723</v>
+        <v>3.152663215977675</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6680,7 +6562,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>3.03191628081338</v>
+        <v>3.55667714697233</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6689,7 +6571,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>6.787520861049715</v>
+        <v>3.944296269901229</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6698,7 +6580,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>3.954754113079873</v>
+        <v>2.955395474559286</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6707,7 +6589,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.342247359270573</v>
+        <v>3.137703216316484</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6716,7 +6598,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.680300245748351</v>
+        <v>1.637969120199438</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6725,7 +6607,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.928975685796612</v>
+        <v>2.154594670230009</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6734,7 +6616,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.6061081745074294</v>
+        <v>2.70040067175818</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6743,7 +6625,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.742317536831131</v>
+        <v>2.879570559144268</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6752,7 +6634,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.239781786045179</v>
+        <v>1.325384289835073</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6761,7 +6643,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.162740554008447</v>
+        <v>2.80357591505257</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6770,7 +6652,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.552326091056072</v>
+        <v>2.569368566397738</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6779,7 +6661,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.6320440894331206</v>
+        <v>3.77399281205243</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6788,7 +6670,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.220810161578935</v>
+        <v>3.752684632117334</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6797,7 +6679,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.1030133610459725</v>
+        <v>3.597991634751566</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6806,7 +6688,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.961142977456814</v>
+        <v>4.606739681699855</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6815,7 +6697,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>4.853813793877331</v>
+        <v>4.430511732953638</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6824,7 +6706,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.057968842383102</v>
+        <v>3.841737032106247</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6833,7 +6715,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.944035250820566</v>
+        <v>4.915048889387843</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6842,7 +6724,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>4.91643148365447</v>
+        <v>4.335964098851727</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6851,7 +6733,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.511056845001622</v>
+        <v>4.047499901925465</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6860,7 +6742,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4.916003544726346</v>
+        <v>4.534297464962898</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6869,7 +6751,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.327975616495472</v>
+        <v>4.174141727557233</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6878,7 +6760,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>3.977819960771754</v>
+        <v>4.54572129005996</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6887,7 +6769,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.460302456602692</v>
+        <v>4.545944371359077</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6896,7 +6778,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.581751571200319</v>
+        <v>4.542015333120299</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6905,7 +6787,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>6.035732088904572</v>
+        <v>4.867980899910489</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6914,7 +6796,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>7.651380905976256</v>
+        <v>5.518628976788546</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6923,7 +6805,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>3.378755085132962</v>
+        <v>4.913343330480974</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6932,7 +6814,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>9.400775972350234</v>
+        <v>4.708073312307016</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6941,7 +6823,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.945358351680364</v>
+        <v>6.311937428609429</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6950,7 +6832,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>9.171687094187472</v>
+        <v>6.781358661486483</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6959,7 +6841,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>10.66593450089449</v>
+        <v>7.939578296752212</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6968,7 +6850,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>10.94667003172483</v>
+        <v>8.667962824845004</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6977,7 +6859,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>10.67609707315921</v>
+        <v>9.286901597856446</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6986,7 +6868,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>12.53907590856338</v>
+        <v>9.362268692462964</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6995,7 +6877,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>13.49193636602899</v>
+        <v>10.7679434016804</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7004,7 +6886,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>13.42886911405086</v>
+        <v>10.70157309341373</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7013,7 +6895,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>13.53483636009119</v>
+        <v>10.7674351721727</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7022,7 +6904,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>16.08769385538579</v>
+        <v>10.7714751703642</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7031,7 +6913,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>15.11882548831112</v>
+        <v>11.4476211529982</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7040,7 +6922,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>16.18365185634625</v>
+        <v>11.24287841688752</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7049,7 +6931,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>17.36064684186242</v>
+        <v>11.43431750684772</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7058,7 +6940,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>15.71659271128208</v>
+        <v>11.63628411523898</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7067,7 +6949,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>18.86835736041518</v>
+        <v>11.78001383608352</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7076,7 +6958,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>17.10115466522082</v>
+        <v>13.38206172466362</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7085,7 +6967,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>16.65157576392908</v>
+        <v>13.44471815655156</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7094,7 +6976,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>17.08370356936634</v>
+        <v>13.28121918070047</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7103,7 +6985,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>18.20122004895028</v>
+        <v>13.82435686225426</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7112,7 +6994,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>18.56236835889753</v>
+        <v>13.86499749278869</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7121,7 +7003,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>19.28274360636533</v>
+        <v>13.54700535752997</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7130,7 +7012,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>18.67075055550074</v>
+        <v>13.76507137709022</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7139,7 +7021,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>17.33542545635782</v>
+        <v>13.30568678631739</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7148,7 +7030,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>19.24330713993747</v>
+        <v>13.26632382617896</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7157,7 +7039,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>18.40840601360218</v>
+        <v>12.96704871869788</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7166,7 +7048,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>15.15264183998309</v>
+        <v>11.99059202283064</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7175,7 +7057,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>17.60282950418615</v>
+        <v>12.38802042217488</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7184,7 +7066,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>16.89481722415467</v>
+        <v>12.85225720838136</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7193,7 +7075,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>17.27467495002022</v>
+        <v>12.60303724001253</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7202,7 +7084,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>17.25185722202917</v>
+        <v>12.7268958977489</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7211,7 +7093,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>15.08974210208127</v>
+        <v>12.10387327151193</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7220,7 +7102,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>17.09536029037013</v>
+        <v>11.95825812938154</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7229,7 +7111,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>16.74769764691909</v>
+        <v>11.28668455629721</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7238,7 +7120,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>18.0105094228969</v>
+        <v>11.18446983146064</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7247,7 +7129,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>18.13705174026289</v>
+        <v>12.07450047858135</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7256,7 +7138,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>19.01451279597228</v>
+        <v>12.28364188715777</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7265,7 +7147,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>17.51821954748467</v>
+        <v>11.29932540379412</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7274,7 +7156,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>16.84965117872661</v>
+        <v>9.501226476599484</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7283,7 +7165,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>15.80235801750376</v>
+        <v>10.04527924129282</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7292,7 +7174,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>15.34495788783646</v>
+        <v>10.78084339649784</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7301,7 +7183,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>17.08262957864972</v>
+        <v>11.38990258011694</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7310,7 +7192,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>16.74996586629409</v>
+        <v>11.8370866441212</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7319,7 +7201,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>17.48376985701343</v>
+        <v>12.30152912810825</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7328,7 +7210,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>14.20105802448625</v>
+        <v>11.64218744338386</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7337,7 +7219,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>15.09212984992692</v>
+        <v>12.00696627288113</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7346,7 +7228,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>17.29645399416835</v>
+        <v>12.40799056245686</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7355,7 +7237,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>15.04117504178024</v>
+        <v>11.87579375792432</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7364,7 +7246,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>16.77665952138613</v>
+        <v>11.55474798497072</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7373,7 +7255,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>15.97082677492104</v>
+        <v>12.03217988608254</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7382,7 +7264,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>12.0827766131525</v>
+        <v>7.741484624013973</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7391,7 +7273,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>12.19303230987168</v>
+        <v>8.171590305118416</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7400,7 +7282,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>12.32142257430363</v>
+        <v>6.925182889261475</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7409,7 +7291,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>8.392372825821264</v>
+        <v>7.538364233450394</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7418,7 +7300,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>10.53078153821121</v>
+        <v>7.639566721929791</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7427,7 +7309,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>9.610666089596963</v>
+        <v>6.213261287128908</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7436,7 +7318,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>5.323168863551211</v>
+        <v>6.146582347612428</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7445,7 +7327,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>6.954888508409848</v>
+        <v>6.840076519622782</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7454,7 +7336,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>3.239694178405597</v>
+        <v>5.397090483967581</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7463,7 +7345,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>3.576776519054989</v>
+        <v>4.954538387147244</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7472,7 +7354,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>6.492807748750216</v>
+        <v>4.791554721763315</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7481,7 +7363,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>5.017758159285449</v>
+        <v>4.958725560876291</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7490,7 +7372,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>2.247595048899762</v>
+        <v>4.20553168759057</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7499,7 +7381,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>4.001431114638961</v>
+        <v>4.709294450766922</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7508,7 +7390,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>5.876200529622374</v>
+        <v>6.207628892232919</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7517,7 +7399,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>8.325718447980524</v>
+        <v>6.782355237646368</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7526,7 +7408,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>7.71957305342426</v>
+        <v>6.568347708222162</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7535,7 +7417,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>10.00023947120203</v>
+        <v>5.732199710336547</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7544,7 +7426,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>7.795944018761578</v>
+        <v>7.066321026840675</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7553,7 +7435,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>9.639036420721553</v>
+        <v>7.097322057225196</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7562,7 +7444,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>8.018958332353833</v>
+        <v>7.073799911650206</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7571,7 +7453,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>8.444032472728175</v>
+        <v>7.278402615078975</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7580,7 +7462,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>6.392002812509538</v>
+        <v>6.713592886494805</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7589,7 +7471,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>8.525674753715276</v>
+        <v>6.075030311255227</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7598,7 +7480,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>7.17627236005379</v>
+        <v>6.612640367595006</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7607,7 +7489,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>10.79084265779446</v>
+        <v>7.741922420906568</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7616,7 +7498,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>10.33747133621579</v>
+        <v>6.829082904231514</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7625,7 +7507,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>11.14141925698586</v>
+        <v>7.175408987086456</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7634,7 +7516,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>11.06237595301178</v>
+        <v>7.040658806685154</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7643,7 +7525,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>10.71180141152663</v>
+        <v>6.668366882850418</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7652,7 +7534,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>8.689456415905662</v>
+        <v>8.088354644784488</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7661,7 +7543,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>11.79805029769895</v>
+        <v>7.594749786534629</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7670,7 +7552,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>10.20306652678176</v>
+        <v>5.74869422026819</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7679,7 +7561,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>9.222771131292891</v>
+        <v>5.722145794107307</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7688,7 +7570,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>9.053039539888276</v>
+        <v>6.340832097725804</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7697,7 +7579,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>7.64344437026282</v>
+        <v>6.196555356153983</v>
       </c>
     </row>
     <row r="145">
@@ -7705,7 +7587,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>10.36305344234525</v>
+        <v>6.326898180685073</v>
       </c>
     </row>
     <row r="146">
@@ -7752,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-27.30010199143407</v>
+        <v>-15.56477530065309</v>
       </c>
     </row>
     <row r="3">
@@ -7760,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-27.80156693548253</v>
+        <v>-16.03348329612114</v>
       </c>
     </row>
     <row r="4">
@@ -7768,7 +7650,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-26.92939822655433</v>
+        <v>-16.03216317989761</v>
       </c>
     </row>
     <row r="5">
@@ -7776,7 +7658,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-27.51085020119787</v>
+        <v>-15.653086918641</v>
       </c>
     </row>
     <row r="6">
@@ -7784,7 +7666,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-27.80572683844972</v>
+        <v>-15.75648977571565</v>
       </c>
     </row>
     <row r="7">
@@ -7792,7 +7674,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-27.83765212713936</v>
+        <v>-15.70012481560449</v>
       </c>
     </row>
     <row r="8">
@@ -7800,7 +7682,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-27.75365725558068</v>
+        <v>-15.77731725681397</v>
       </c>
     </row>
     <row r="9">
@@ -7808,7 +7690,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-28.08016926334221</v>
+        <v>-16.55652707143227</v>
       </c>
     </row>
     <row r="10">
@@ -7816,7 +7698,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-28.02648814519604</v>
+        <v>-16.29418551214676</v>
       </c>
     </row>
     <row r="11">
@@ -7824,7 +7706,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-29.05090932403562</v>
+        <v>-17.05717394034915</v>
       </c>
     </row>
     <row r="12">
@@ -7832,7 +7714,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-28.48315412917713</v>
+        <v>-17.00592956233382</v>
       </c>
     </row>
     <row r="13">
@@ -7840,7 +7722,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-28.10150796524333</v>
+        <v>-16.57233442436146</v>
       </c>
     </row>
     <row r="14">
@@ -7848,7 +7730,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-26.72974867709589</v>
+        <v>-16.69079590554418</v>
       </c>
     </row>
     <row r="15">
@@ -7856,7 +7738,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-26.95640787809791</v>
+        <v>-16.33635777837382</v>
       </c>
     </row>
     <row r="16">
@@ -7864,7 +7746,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-26.65486375785987</v>
+        <v>-16.67986597260235</v>
       </c>
     </row>
     <row r="17">
@@ -7872,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-26.70457806613869</v>
+        <v>-16.56547611290773</v>
       </c>
     </row>
     <row r="18">
@@ -7880,7 +7762,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-27.56430639268847</v>
+        <v>-16.47612402108385</v>
       </c>
     </row>
     <row r="19">
@@ -7888,7 +7770,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-27.22524715864149</v>
+        <v>-17.47387772275449</v>
       </c>
     </row>
     <row r="20">
@@ -7896,7 +7778,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-28.80440572042712</v>
+        <v>-17.7407503386747</v>
       </c>
     </row>
     <row r="21">
@@ -7904,7 +7786,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-28.19286728047002</v>
+        <v>-17.95870310661714</v>
       </c>
     </row>
     <row r="22">
@@ -7912,7 +7794,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-28.26142557954844</v>
+        <v>-17.80793509751874</v>
       </c>
     </row>
     <row r="23">
@@ -7920,7 +7802,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-27.5114443482247</v>
+        <v>-17.87809839415479</v>
       </c>
     </row>
     <row r="24">
@@ -7928,7 +7810,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-29.28238772271485</v>
+        <v>-18.3748937546948</v>
       </c>
     </row>
     <row r="25">
@@ -7936,7 +7818,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-28.84361857860964</v>
+        <v>-18.47630597330096</v>
       </c>
     </row>
     <row r="26">
@@ -7944,7 +7826,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-30.39284999023248</v>
+        <v>-17.48970631060818</v>
       </c>
     </row>
     <row r="27">
@@ -7952,7 +7834,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-29.35730330709043</v>
+        <v>-18.27854766324256</v>
       </c>
     </row>
     <row r="28">
@@ -7960,7 +7842,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-30.26569610881119</v>
+        <v>-18.81853691201492</v>
       </c>
     </row>
     <row r="29">
@@ -7968,7 +7850,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-29.00468380999682</v>
+        <v>-19.21220398605169</v>
       </c>
     </row>
     <row r="30">
@@ -7976,7 +7858,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-31.62560471732291</v>
+        <v>-19.84732480459835</v>
       </c>
     </row>
     <row r="31">
@@ -7984,7 +7866,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-31.94494133450292</v>
+        <v>-19.39065542301071</v>
       </c>
     </row>
     <row r="32">
@@ -7992,7 +7874,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-31.89243770564974</v>
+        <v>-19.39039505022983</v>
       </c>
     </row>
     <row r="33">
@@ -8000,7 +7882,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-31.58501581654621</v>
+        <v>-19.61176476654581</v>
       </c>
     </row>
     <row r="34">
@@ -8008,7 +7890,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-31.85902031745331</v>
+        <v>-19.93710935351995</v>
       </c>
     </row>
     <row r="35">
@@ -8016,7 +7898,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-32.02166287523067</v>
+        <v>-20.06650651066935</v>
       </c>
     </row>
     <row r="36">
@@ -8024,7 +7906,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-32.32293950320813</v>
+        <v>-19.16202026637161</v>
       </c>
     </row>
     <row r="37">
@@ -8032,7 +7914,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-32.51040404332574</v>
+        <v>-19.96952617999251</v>
       </c>
     </row>
     <row r="38">
@@ -8040,7 +7922,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-32.32901330649829</v>
+        <v>-20.18458503724993</v>
       </c>
     </row>
     <row r="39">
@@ -8048,7 +7930,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-30.70630335536535</v>
+        <v>-19.69025344458499</v>
       </c>
     </row>
     <row r="40">
@@ -8056,7 +7938,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-32.33803863169383</v>
+        <v>-20.01593966831394</v>
       </c>
     </row>
     <row r="41">
@@ -8064,7 +7946,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-31.91308737677636</v>
+        <v>-20.05766971516751</v>
       </c>
     </row>
     <row r="42">
@@ -8072,7 +7954,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-31.9896053068404</v>
+        <v>-19.42172316184038</v>
       </c>
     </row>
     <row r="43">
@@ -8080,7 +7962,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-31.86312294674727</v>
+        <v>-19.66644253959073</v>
       </c>
     </row>
     <row r="44">
@@ -8088,7 +7970,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-31.09849575732514</v>
+        <v>-19.75787261687491</v>
       </c>
     </row>
     <row r="45">
@@ -8096,7 +7978,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-32.09802246157707</v>
+        <v>-19.33849222298528</v>
       </c>
     </row>
     <row r="46">
@@ -8104,7 +7986,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-31.429234651875</v>
+        <v>-19.39858373855937</v>
       </c>
     </row>
     <row r="47">
@@ -8112,7 +7994,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-31.07084419070281</v>
+        <v>-18.92248863391962</v>
       </c>
     </row>
     <row r="48">
@@ -8120,7 +8002,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-31.65929236869048</v>
+        <v>-18.80367533131354</v>
       </c>
     </row>
     <row r="49">
@@ -8128,7 +8010,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-31.54823362554604</v>
+        <v>-19.37265260380453</v>
       </c>
     </row>
     <row r="50">
@@ -8136,7 +8018,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-31.04785424025106</v>
+        <v>-19.27294515319937</v>
       </c>
     </row>
     <row r="51">
@@ -8144,7 +8026,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-31.10816912309826</v>
+        <v>-18.86885246012193</v>
       </c>
     </row>
     <row r="52">
@@ -8152,7 +8034,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-29.64625869487259</v>
+        <v>-19.41869764295755</v>
       </c>
     </row>
     <row r="53">
@@ -8160,7 +8042,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-30.63796491906027</v>
+        <v>-19.00362803657373</v>
       </c>
     </row>
     <row r="54">
@@ -8168,7 +8050,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-30.73637453036767</v>
+        <v>-19.16991743737804</v>
       </c>
     </row>
     <row r="55">
@@ -8176,7 +8058,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-29.01947768616256</v>
+        <v>-19.18478100566632</v>
       </c>
     </row>
     <row r="56">
@@ -8184,7 +8066,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-30.15192217906243</v>
+        <v>-19.15867577182495</v>
       </c>
     </row>
     <row r="57">
@@ -8192,7 +8074,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-31.56463299332824</v>
+        <v>-18.80497725016111</v>
       </c>
     </row>
     <row r="58">
@@ -8200,7 +8082,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-30.09307708691385</v>
+        <v>-19.10156896281611</v>
       </c>
     </row>
     <row r="59">
@@ -8208,7 +8090,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-29.73050052049928</v>
+        <v>-19.0390900401669</v>
       </c>
     </row>
     <row r="60">
@@ -8216,7 +8098,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-30.10406024574506</v>
+        <v>-18.43305298263682</v>
       </c>
     </row>
     <row r="61">
@@ -8224,7 +8106,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-28.2812238732929</v>
+        <v>-18.14890762898439</v>
       </c>
     </row>
     <row r="62">
@@ -8232,7 +8114,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-29.27294829935152</v>
+        <v>-18.26664172540062</v>
       </c>
     </row>
     <row r="63">
@@ -8240,7 +8122,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-28.70067126479699</v>
+        <v>-17.41082506375628</v>
       </c>
     </row>
     <row r="64">
@@ -8248,7 +8130,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-28.16668987492774</v>
+        <v>-17.17401459140917</v>
       </c>
     </row>
     <row r="65">
@@ -8256,7 +8138,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-28.88959857730954</v>
+        <v>-17.38629630901393</v>
       </c>
     </row>
     <row r="66">
@@ -8264,7 +8146,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-27.25292887333419</v>
+        <v>-16.68744009150654</v>
       </c>
     </row>
     <row r="67">
@@ -8272,7 +8154,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-26.44541764825971</v>
+        <v>-16.6614205927651</v>
       </c>
     </row>
     <row r="68">
@@ -8280,7 +8162,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-27.71445373724488</v>
+        <v>-16.32239992966815</v>
       </c>
     </row>
     <row r="69">
@@ -8288,7 +8170,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-26.30793088176171</v>
+        <v>-16.03645467538338</v>
       </c>
     </row>
     <row r="70">
@@ -8296,7 +8178,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-25.92623295826179</v>
+        <v>-16.03679173554855</v>
       </c>
     </row>
     <row r="71">
@@ -8304,7 +8186,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-25.8868729975247</v>
+        <v>-16.02366140878396</v>
       </c>
     </row>
     <row r="72">
@@ -8312,7 +8194,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-25.77774341731714</v>
+        <v>-15.78888920619243</v>
       </c>
     </row>
     <row r="73">
@@ -8320,7 +8202,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-25.52117531591515</v>
+        <v>-15.68765177724535</v>
       </c>
     </row>
     <row r="74">
@@ -8328,7 +8210,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-26.23516098814294</v>
+        <v>-15.73044033168052</v>
       </c>
     </row>
     <row r="75">
@@ -8336,7 +8218,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-25.59638141116043</v>
+        <v>-15.3390907410346</v>
       </c>
     </row>
     <row r="76">
@@ -8344,7 +8226,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-25.40574083480044</v>
+        <v>-15.44358060870696</v>
       </c>
     </row>
     <row r="77">
@@ -8352,7 +8234,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-26.36774270655476</v>
+        <v>-15.54209356898166</v>
       </c>
     </row>
     <row r="78">
@@ -8360,7 +8242,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-25.9486171475534</v>
+        <v>-15.45290285015093</v>
       </c>
     </row>
     <row r="79">
@@ -8368,7 +8250,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-25.57577688667038</v>
+        <v>-15.42823668144901</v>
       </c>
     </row>
     <row r="80">
@@ -8376,7 +8258,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-26.65864345543431</v>
+        <v>-15.35579114893783</v>
       </c>
     </row>
     <row r="81">
@@ -8384,7 +8266,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-25.93635701194513</v>
+        <v>-15.22549442800126</v>
       </c>
     </row>
     <row r="82">
@@ -8392,7 +8274,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-25.31400029450318</v>
+        <v>-15.27546335632606</v>
       </c>
     </row>
     <row r="83">
@@ -8400,7 +8282,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-25.34930976666812</v>
+        <v>-15.2126029764518</v>
       </c>
     </row>
     <row r="84">
@@ -8408,7 +8290,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-25.6034377841195</v>
+        <v>-15.4086259614211</v>
       </c>
     </row>
     <row r="85">
@@ -8416,7 +8298,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-25.95490997190591</v>
+        <v>-16.0260773128084</v>
       </c>
     </row>
     <row r="86">
@@ -8424,7 +8306,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-26.45731315736665</v>
+        <v>-15.91187185506044</v>
       </c>
     </row>
     <row r="87">
@@ -8432,7 +8314,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-25.88423369439051</v>
+        <v>-15.91521125726499</v>
       </c>
     </row>
     <row r="88">
@@ -8440,7 +8322,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-25.78006348418717</v>
+        <v>-15.94526605704976</v>
       </c>
     </row>
     <row r="89">
@@ -8448,7 +8330,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-25.90366096110061</v>
+        <v>-15.64096122550706</v>
       </c>
     </row>
     <row r="90">
@@ -8456,7 +8338,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-25.67817500259061</v>
+        <v>-15.70964167878105</v>
       </c>
     </row>
     <row r="91">
@@ -8464,7 +8346,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-25.60776689595537</v>
+        <v>-16.24584424033804</v>
       </c>
     </row>
     <row r="92">
@@ -8472,7 +8354,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-25.91400685037144</v>
+        <v>-16.0558446863558</v>
       </c>
     </row>
     <row r="93">
@@ -8480,7 +8362,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-26.2024500727609</v>
+        <v>-16.15063932059338</v>
       </c>
     </row>
     <row r="94">
@@ -8488,7 +8370,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-25.91077322957277</v>
+        <v>-16.02910453790521</v>
       </c>
     </row>
     <row r="95">
@@ -8496,7 +8378,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-25.34327397587823</v>
+        <v>-15.86777721440659</v>
       </c>
     </row>
     <row r="96">
@@ -8504,7 +8386,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-25.67628182609655</v>
+        <v>-16.00577828907489</v>
       </c>
     </row>
     <row r="97">
@@ -8512,7 +8394,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-26.88676324262358</v>
+        <v>-16.98426753487469</v>
       </c>
     </row>
     <row r="98">
@@ -8520,7 +8402,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-26.07408922738409</v>
+        <v>-16.50176874403093</v>
       </c>
     </row>
     <row r="99">
@@ -8528,7 +8410,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-26.80169201241823</v>
+        <v>-16.13981523840324</v>
       </c>
     </row>
     <row r="100">
@@ -8536,7 +8418,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-26.0862580628533</v>
+        <v>-15.99480046463885</v>
       </c>
     </row>
     <row r="101">
@@ -8544,7 +8426,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-25.54682599909553</v>
+        <v>-15.75173894716714</v>
       </c>
     </row>
     <row r="102">
@@ -8552,7 +8434,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-25.70582928437918</v>
+        <v>-15.40625354531265</v>
       </c>
     </row>
     <row r="103">
@@ -8560,7 +8442,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-26.29671454135669</v>
+        <v>-15.93806890243037</v>
       </c>
     </row>
     <row r="104">
@@ -8568,7 +8450,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-25.94472989466978</v>
+        <v>-15.66606622819085</v>
       </c>
     </row>
     <row r="105">
@@ -8576,7 +8458,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-25.6327860515835</v>
+        <v>-15.63593501113251</v>
       </c>
     </row>
     <row r="106">
@@ -8584,7 +8466,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-25.75089352891029</v>
+        <v>-15.5600102224115</v>
       </c>
     </row>
     <row r="107">
@@ -8592,7 +8474,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-25.70042532425912</v>
+        <v>-15.9497610591619</v>
       </c>
     </row>
     <row r="108">
@@ -8600,7 +8482,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-25.88668246818264</v>
+        <v>-15.74597784940955</v>
       </c>
     </row>
     <row r="109">
@@ -8608,7 +8490,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-29.03275434122131</v>
+        <v>-18.26693836378544</v>
       </c>
     </row>
     <row r="110">
@@ -8616,7 +8498,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-28.57468559577608</v>
+        <v>-18.09371062314604</v>
       </c>
     </row>
     <row r="111">
@@ -8624,7 +8506,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-28.71488423513678</v>
+        <v>-17.80547490237372</v>
       </c>
     </row>
     <row r="112">
@@ -8632,7 +8514,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-30.67285017287045</v>
+        <v>-17.89259293667363</v>
       </c>
     </row>
     <row r="113">
@@ -8640,7 +8522,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-28.74019683801992</v>
+        <v>-17.36463655688224</v>
       </c>
     </row>
     <row r="114">
@@ -8648,7 +8530,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-30.0366086288344</v>
+        <v>-17.85408917222739</v>
       </c>
     </row>
     <row r="115">
@@ -8656,7 +8538,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-32.28862376648041</v>
+        <v>-18.73758824555778</v>
       </c>
     </row>
     <row r="116">
@@ -8664,7 +8546,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-30.07074806150367</v>
+        <v>-18.30774455417923</v>
       </c>
     </row>
     <row r="117">
@@ -8672,7 +8554,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-29.05580793822433</v>
+        <v>-18.222025754957</v>
       </c>
     </row>
     <row r="118">
@@ -8680,7 +8562,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-31.08612805706595</v>
+        <v>-18.35298445898572</v>
       </c>
     </row>
     <row r="119">
@@ -8688,7 +8570,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-29.58772632363382</v>
+        <v>-18.82297146780279</v>
       </c>
     </row>
     <row r="120">
@@ -8696,7 +8578,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-30.3887848702514</v>
+        <v>-18.63982258446021</v>
       </c>
     </row>
     <row r="121">
@@ -8704,7 +8586,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-29.48865307898316</v>
+        <v>-18.13320812123419</v>
       </c>
     </row>
     <row r="122">
@@ -8712,7 +8594,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-31.18080642723875</v>
+        <v>-18.39593180615956</v>
       </c>
     </row>
     <row r="123">
@@ -8720,7 +8602,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-30.19608493741455</v>
+        <v>-18.61910809495814</v>
       </c>
     </row>
     <row r="124">
@@ -8728,7 +8610,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-29.13806701140064</v>
+        <v>-18.21595940493831</v>
       </c>
     </row>
     <row r="125">
@@ -8736,7 +8618,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-31.26414737708364</v>
+        <v>-18.70476948447964</v>
       </c>
     </row>
     <row r="126">
@@ -8744,7 +8626,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-29.1763218397198</v>
+        <v>-18.11403638836586</v>
       </c>
     </row>
     <row r="127">
@@ -8752,7 +8634,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-28.32815902924219</v>
+        <v>-17.60869624238583</v>
       </c>
     </row>
     <row r="128">
@@ -8760,7 +8642,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-27.08514107917518</v>
+        <v>-17.85306325871143</v>
       </c>
     </row>
     <row r="129">
@@ -8768,7 +8650,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-28.61111778555409</v>
+        <v>-17.57107162109097</v>
       </c>
     </row>
     <row r="130">
@@ -8776,7 +8658,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-27.04207869096506</v>
+        <v>-17.42342070952992</v>
       </c>
     </row>
     <row r="131">
@@ -8784,7 +8666,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-27.80546819560315</v>
+        <v>-17.01522315075224</v>
       </c>
     </row>
     <row r="132">
@@ -8792,7 +8674,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-27.56078917712293</v>
+        <v>-17.48794005181188</v>
       </c>
     </row>
     <row r="133">
@@ -8800,7 +8682,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-27.83331161012433</v>
+        <v>-16.94341377000091</v>
       </c>
     </row>
     <row r="134">
@@ -8808,7 +8690,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-27.38748414448478</v>
+        <v>-16.33014652712375</v>
       </c>
     </row>
     <row r="135">
@@ -8816,7 +8698,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-26.83951781341597</v>
+        <v>-16.40913401959476</v>
       </c>
     </row>
     <row r="136">
@@ -8824,7 +8706,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-28.34988342038672</v>
+        <v>-16.72287942863958</v>
       </c>
     </row>
     <row r="137">
@@ -8832,7 +8714,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-27.33313145463872</v>
+        <v>-16.33463284654039</v>
       </c>
     </row>
     <row r="138">
@@ -8840,7 +8722,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-27.25615849003612</v>
+        <v>-16.55843520515903</v>
       </c>
     </row>
     <row r="139">
@@ -8848,7 +8730,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-26.99146183355219</v>
+        <v>-16.13440150914926</v>
       </c>
     </row>
     <row r="140">
@@ -8856,7 +8738,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-28.22030612112287</v>
+        <v>-15.51727690549618</v>
       </c>
     </row>
     <row r="141">
@@ -8864,7 +8746,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-28.16319907857504</v>
+        <v>-16.28364493371688</v>
       </c>
     </row>
     <row r="142">
@@ -8872,7 +8754,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-27.38937880721747</v>
+        <v>-16.18162873774583</v>
       </c>
     </row>
     <row r="143">
@@ -8880,7 +8762,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-27.53388465213618</v>
+        <v>-16.36106797473703</v>
       </c>
     </row>
     <row r="144">
@@ -8888,7 +8770,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-27.62915123209304</v>
+        <v>-16.18371589662329</v>
       </c>
     </row>
     <row r="145">
@@ -8896,7 +8778,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-27.5884115262004</v>
+        <v>-15.5667927513374</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016003669</v>
+        <v>2014007284</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2013006261</v>
+        <v>2013006481</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2012002520</v>
+        <v>2014004066</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014005039</v>
+        <v>2015005244</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2014005273</v>
+        <v>2014008814</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2012005500</v>
+        <v>2014001472</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2013006954</v>
+        <v>2015009293</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2014003334</v>
+        <v>2015004649</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015000808</v>
+        <v>2013009370</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2015007622</v>
+        <v>2012001781</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2016007597</v>
+        <v>2013009250</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2016004992</v>
+        <v>2013007737</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>7.4</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
         <v>250</v>
@@ -2251,82 +2251,6 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2012006429</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
-      <c r="G14" t="n">
-        <v>250</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2013000025</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24</v>
-      </c>
-      <c r="G15" t="n">
-        <v>250</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2381,152 +2305,152 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016003669</v>
+        <v>2014007284</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>58.14925899566239</v>
+        <v>65.92332239999999</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013006261</v>
+        <v>2013006481</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>23.06035540750435</v>
+        <v>4.75</v>
       </c>
       <c r="E3" t="n">
-        <v>39.99999946054121</v>
+        <v>39.9939157585001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012002520</v>
+        <v>2014004066</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>68.8201344</v>
+        <v>11.85270167824406</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>20.47343047191591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2014005039</v>
+        <v>2014004066</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D5" t="n">
-        <v>58.5194072</v>
+        <v>22.13960295824409</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2014005039</v>
+        <v>2015005244</v>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" t="n">
-        <v>51.85673960000001</v>
+        <v>28.67132889046735</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2014005273</v>
+        <v>2014008814</v>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D7" t="n">
-        <v>73.068792</v>
+        <v>8.276862942784247</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>29.78293332780068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2012005500</v>
+        <v>2014001472</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>57.7791107956624</v>
+        <v>25.57109632</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2013006954</v>
+        <v>2014001472</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>22.08488539824406</v>
+        <v>27.840909456</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2014003334</v>
+        <v>2014001472</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="D10" t="n">
-        <v>29.44638704</v>
+        <v>27.840909456</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -2534,67 +2458,67 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2014003334</v>
+        <v>2015009293</v>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D11" t="n">
-        <v>25.29428984</v>
+        <v>56.298518</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2015000808</v>
+        <v>2015009293</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C12" t="n">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>24.35721466054121</v>
+        <v>55.5582216</v>
       </c>
       <c r="E12" t="n">
-        <v>39.99924265252688</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2015007622</v>
+        <v>2015004649</v>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D13" t="n">
-        <v>63.65415298327788</v>
+        <v>54.8179251956624</v>
       </c>
       <c r="E13" t="n">
-        <v>74.70197654458291</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2016007597</v>
+        <v>2013009370</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D14" t="n">
-        <v>71.91006718327789</v>
+        <v>67.43610198327787</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
@@ -2602,74 +2526,88 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2016004992</v>
+        <v>2012001781</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D15" t="n">
-        <v>18.09732135446736</v>
+        <v>38.6320604605412</v>
       </c>
       <c r="E15" t="n">
-        <v>29.99999999446736</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2012006429</v>
+        <v>2013009250</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D16" t="n">
-        <v>72.68255040000001</v>
+        <v>23.91025744</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>29.99999999446736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2012006429</v>
+        <v>2013007737</v>
       </c>
       <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
         <v>116</v>
       </c>
-      <c r="C17" t="n">
-        <v>130</v>
-      </c>
       <c r="D17" t="n">
-        <v>74.034396</v>
+        <v>39.1792366</v>
       </c>
       <c r="E17" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2013000025</v>
+        <v>2013007737</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C18" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D18" t="n">
-        <v>13.76781627824407</v>
+        <v>39.1792366</v>
       </c>
       <c r="E18" t="n">
-        <v>23.99999999824405</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n"/>
+      <c r="A19" s="7" t="n">
+        <v>2013007737</v>
+      </c>
+      <c r="B19" t="n">
+        <v>123</v>
+      </c>
+      <c r="C19" t="n">
+        <v>143</v>
+      </c>
+      <c r="D19" t="n">
+        <v>39.4528244</v>
+      </c>
+      <c r="E19" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -3176,7 +3114,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -3210,7 +3148,7 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
@@ -3244,7 +3182,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -3278,7 +3216,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -3295,7 +3233,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -3312,7 +3250,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -3346,7 +3284,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -3363,7 +3301,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -3380,7 +3318,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -3397,7 +3335,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -3414,7 +3352,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -3431,7 +3369,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -3448,7 +3386,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -3465,7 +3403,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -3482,7 +3420,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -3499,7 +3437,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -3516,7 +3454,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -3567,7 +3505,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -3618,7 +3556,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -3652,7 +3590,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -3669,7 +3607,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -3686,7 +3624,7 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
@@ -6301,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>6.471073320219815</v>
+        <v>9.747871974005676</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6310,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>7.238211551208511</v>
+        <v>4.09166803909605</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6319,7 +6257,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>6.79869034643848</v>
+        <v>4.33106796488959</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6328,7 +6266,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>5.459855331583282</v>
+        <v>4.936999022864126</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6337,7 +6275,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>6.011973429449244</v>
+        <v>5.714339986476767</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6346,7 +6284,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>5.792924663005212</v>
+        <v>4.870966571397275</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6355,7 +6293,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>5.505274650494125</v>
+        <v>6.363978108929451</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6364,7 +6302,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>7.039758186473527</v>
+        <v>6.18683624857076</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6373,7 +6311,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>5.599038229073454</v>
+        <v>8.192052766261677</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6382,7 +6320,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>6.271473756877581</v>
+        <v>6.559230147067393</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6391,7 +6329,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>6.626418852812672</v>
+        <v>6.528055894064357</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6400,7 +6338,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>5.828130137809925</v>
+        <v>4.18542637809568</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6409,7 +6347,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>6.048755441796998</v>
+        <v>6.564220670011611</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6418,7 +6356,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6.769528214498612</v>
+        <v>5.440137618245617</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6427,7 +6365,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>6.900017199267448</v>
+        <v>7.747636289364485</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6436,7 +6374,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>7.402969334273726</v>
+        <v>6.337071461516846</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6445,7 +6383,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>6.763356596937673</v>
+        <v>8.505374341324968</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6454,7 +6392,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.906993721902308</v>
+        <v>7.455912283107593</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6463,7 +6401,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.032419998757499</v>
+        <v>6.480912747759926</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6472,7 +6410,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4.696440049672596</v>
+        <v>4.507603168461475</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6481,7 +6419,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>4.125235634127717</v>
+        <v>4.781221410421992</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6490,7 +6428,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>4.797429432226048</v>
+        <v>5.4050813744802</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6499,7 +6437,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>5.787995544506853</v>
+        <v>5.043557110917879</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6508,7 +6446,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>6.180383770907494</v>
+        <v>5.799769806719779</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6517,7 +6455,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>5.687876786474396</v>
+        <v>5.744744137028698</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6526,7 +6464,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5.574516751621936</v>
+        <v>0</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6535,7 +6473,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>5.092989547175906</v>
+        <v>1.225518787383099</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6544,7 +6482,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>4.067704393407773</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6553,7 +6491,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.152663215977675</v>
+        <v>3.254094110955297</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6562,7 +6500,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>3.55667714697233</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6571,7 +6509,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>3.944296269901229</v>
+        <v>2.612020232710538</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6580,7 +6518,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.955395474559286</v>
+        <v>0</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6589,7 +6527,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.137703216316484</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6598,7 +6536,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.637969120199438</v>
+        <v>0</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6607,7 +6545,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.154594670230009</v>
+        <v>4.159875447051707</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6616,7 +6554,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.70040067175818</v>
+        <v>0</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6625,7 +6563,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.879570559144268</v>
+        <v>0</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6634,7 +6572,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.325384289835073</v>
+        <v>0</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6643,7 +6581,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.80357591505257</v>
+        <v>0</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6652,7 +6590,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.569368566397738</v>
+        <v>0</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6661,7 +6599,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.77399281205243</v>
+        <v>0</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6670,7 +6608,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.752684632117334</v>
+        <v>0</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6679,7 +6617,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>3.597991634751566</v>
+        <v>0</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6688,7 +6626,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4.606739681699855</v>
+        <v>0</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6697,7 +6635,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>4.430511732953638</v>
+        <v>0</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6706,7 +6644,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.841737032106247</v>
+        <v>0</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6715,7 +6653,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.915048889387843</v>
+        <v>0.5800721589741867</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6724,7 +6662,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>4.335964098851727</v>
+        <v>1.478855126412387</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6733,7 +6671,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.047499901925465</v>
+        <v>0</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6742,7 +6680,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4.534297464962898</v>
+        <v>1.29332036558429</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6751,7 +6689,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>4.174141727557233</v>
+        <v>2.770200253188744</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6760,7 +6698,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>4.54572129005996</v>
+        <v>0</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6769,7 +6707,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.545944371359077</v>
+        <v>1.323190813898586</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6778,7 +6716,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>4.542015333120299</v>
+        <v>0</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6787,7 +6725,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>4.867980899910489</v>
+        <v>0</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6796,7 +6734,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>5.518628976788546</v>
+        <v>0</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6805,7 +6743,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>4.913343330480974</v>
+        <v>6.225746192732648</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6814,7 +6752,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>4.708073312307016</v>
+        <v>0.9169149206503379</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6823,7 +6761,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>6.311937428609429</v>
+        <v>4.047321119801</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6832,7 +6770,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>6.781358661486483</v>
+        <v>5.257393345538574</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6841,7 +6779,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>7.939578296752212</v>
+        <v>4.528713552261939</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6850,7 +6788,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>8.667962824845004</v>
+        <v>8.379157593438414</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6859,7 +6797,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>9.286901597856446</v>
+        <v>8.249775365270898</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6868,7 +6806,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>9.362268692462964</v>
+        <v>5.618945673632868</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6877,7 +6815,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>10.7679434016804</v>
+        <v>10.75373367519515</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6886,7 +6824,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>10.70157309341373</v>
+        <v>7.724295061236427</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6895,7 +6833,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>10.7674351721727</v>
+        <v>9.286790087500322</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6904,7 +6842,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>10.7714751703642</v>
+        <v>10.29605370770129</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6913,7 +6851,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>11.4476211529982</v>
+        <v>9.909039149557641</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6922,7 +6860,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>11.24287841688752</v>
+        <v>11.18068471240343</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6931,7 +6869,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>11.43431750684772</v>
+        <v>11.13141447646327</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6940,7 +6878,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>11.63628411523898</v>
+        <v>15.97796349179317</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6949,7 +6887,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>11.78001383608352</v>
+        <v>15.1722350832066</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6958,7 +6896,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>13.38206172466362</v>
+        <v>13.47470031655392</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6967,7 +6905,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>13.44471815655156</v>
+        <v>12.21839283984573</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6976,7 +6914,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>13.28121918070047</v>
+        <v>14.38933447534305</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6985,7 +6923,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>13.82435686225426</v>
+        <v>15.73131232992266</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6994,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>13.86499749278869</v>
+        <v>12.11559024120705</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7003,7 +6941,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>13.54700535752997</v>
+        <v>13.69739178380413</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7012,7 +6950,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>13.76507137709022</v>
+        <v>13.81085804138401</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7021,7 +6959,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>13.30568678631739</v>
+        <v>13.18365531017496</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7030,7 +6968,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>13.26632382617896</v>
+        <v>13.64872301868117</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7039,7 +6977,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>12.96704871869788</v>
+        <v>15.68323368107889</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7048,7 +6986,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>11.99059202283064</v>
+        <v>13.22521417995718</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7057,7 +6995,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>12.38802042217488</v>
+        <v>12.99154794139836</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7066,7 +7004,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>12.85225720838136</v>
+        <v>17.18722349168867</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7075,7 +7013,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>12.60303724001253</v>
+        <v>19.19457154201076</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7084,7 +7022,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>12.7268958977489</v>
+        <v>17.13666893994367</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7093,7 +7031,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>12.10387327151193</v>
+        <v>16.4134721399278</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7102,7 +7040,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>11.95825812938154</v>
+        <v>13.53705221769949</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7111,7 +7049,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>11.28668455629721</v>
+        <v>12.36865140160723</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7120,7 +7058,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>11.18446983146064</v>
+        <v>14.98329473290706</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7129,7 +7067,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>12.07450047858135</v>
+        <v>14.00430065885958</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7138,7 +7076,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>12.28364188715777</v>
+        <v>9.349856918112259</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7147,7 +7085,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>11.29932540379412</v>
+        <v>15.8368033370256</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7156,7 +7094,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>9.501226476599484</v>
+        <v>14.8377980743077</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7165,7 +7103,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>10.04527924129282</v>
+        <v>14.81567840331389</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7174,7 +7112,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>10.78084339649784</v>
+        <v>14.8027631095823</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7183,7 +7121,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>11.38990258011694</v>
+        <v>14.78820815923569</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7192,7 +7130,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>11.8370866441212</v>
+        <v>16.66377539387781</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7201,7 +7139,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>12.30152912810825</v>
+        <v>18.49520689003542</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7210,7 +7148,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>11.64218744338386</v>
+        <v>18.78437483607988</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7219,7 +7157,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>12.00696627288113</v>
+        <v>14.08268141191444</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7228,7 +7166,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>12.40799056245686</v>
+        <v>13.01327926691954</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7237,7 +7175,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>11.87579375792432</v>
+        <v>17.23327872425903</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7246,7 +7184,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>11.55474798497072</v>
+        <v>12.40897002627752</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7255,7 +7193,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>12.03217988608254</v>
+        <v>13.11733803881405</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7264,7 +7202,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>7.741484624013973</v>
+        <v>13.94200247012241</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7273,7 +7211,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>8.171590305118416</v>
+        <v>12.61558360481897</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7282,7 +7220,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>6.925182889261475</v>
+        <v>12.17035886366967</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7291,7 +7229,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>7.538364233450394</v>
+        <v>13.43439028515725</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7300,7 +7238,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>7.639566721929791</v>
+        <v>9.027296836402979</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7309,7 +7247,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>6.213261287128908</v>
+        <v>11.3461588001439</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7318,7 +7256,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>6.146582347612428</v>
+        <v>12.15102703858869</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7327,7 +7265,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>6.840076519622782</v>
+        <v>8.01266339593286</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7336,7 +7274,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>5.397090483967581</v>
+        <v>6.485721871236413</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7345,7 +7283,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>4.954538387147244</v>
+        <v>9.044062388615163</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7354,7 +7292,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>4.791554721763315</v>
+        <v>8.970553989072194</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7363,7 +7301,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>4.958725560876291</v>
+        <v>7.513604004534116</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7372,7 +7310,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>4.20553168759057</v>
+        <v>8.790196063318241</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7381,7 +7319,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>4.709294450766922</v>
+        <v>8.975966986160369</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7390,7 +7328,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>6.207628892232919</v>
+        <v>10.21908137073251</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7399,7 +7337,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>6.782355237646368</v>
+        <v>6.257047136090048</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7408,7 +7346,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>6.568347708222162</v>
+        <v>8.721080083128426</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7417,7 +7355,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>5.732199710336547</v>
+        <v>9.392592663940194</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7426,7 +7364,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>7.066321026840675</v>
+        <v>10.12905140876442</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7435,7 +7373,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>7.097322057225196</v>
+        <v>8.188421036713809</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7444,7 +7382,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>7.073799911650206</v>
+        <v>6.76704405791974</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7453,7 +7391,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>7.278402615078975</v>
+        <v>4.853736320934653</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7462,7 +7400,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>6.713592886494805</v>
+        <v>6.604387132851693</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7471,7 +7409,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>6.075030311255227</v>
+        <v>11.4720318072314</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7480,7 +7418,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>6.612640367595006</v>
+        <v>9.272029901689125</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7489,7 +7427,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>7.741922420906568</v>
+        <v>9.654662234610512</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7498,7 +7436,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>6.829082904231514</v>
+        <v>7.583691196699095</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7507,7 +7445,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>7.175408987086456</v>
+        <v>11.01197588367795</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7516,7 +7454,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>7.040658806685154</v>
+        <v>9.471581491375865</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7525,7 +7463,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>6.668366882850418</v>
+        <v>7.940244851914823</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7534,7 +7472,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>8.088354644784488</v>
+        <v>7.258156305423521</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7543,7 +7481,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>7.594749786534629</v>
+        <v>8.506092515270293</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7552,7 +7490,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>5.74869422026819</v>
+        <v>9.350092564365658</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7561,7 +7499,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>5.722145794107307</v>
+        <v>4.838458759029984</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7570,7 +7508,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>6.340832097725804</v>
+        <v>3.333874469593995</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7579,7 +7517,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>6.196555356153983</v>
+        <v>4.851889946731058</v>
       </c>
     </row>
     <row r="145">
@@ -7587,7 +7525,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>6.326898180685073</v>
+        <v>3.594158491118698</v>
       </c>
     </row>
     <row r="146">
@@ -7634,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-15.56477530065309</v>
+        <v>-28.30988919752149</v>
       </c>
     </row>
     <row r="3">
@@ -7642,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-16.03348329612114</v>
+        <v>-28.99644389994529</v>
       </c>
     </row>
     <row r="4">
@@ -7650,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-16.03216317989761</v>
+        <v>-30.04924296245701</v>
       </c>
     </row>
     <row r="5">
@@ -7658,7 +7596,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-15.653086918641</v>
+        <v>-29.08763888456474</v>
       </c>
     </row>
     <row r="6">
@@ -7666,7 +7604,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-15.75648977571565</v>
+        <v>-28.99505912112604</v>
       </c>
     </row>
     <row r="7">
@@ -7674,7 +7612,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-15.70012481560449</v>
+        <v>-28.40926495334307</v>
       </c>
     </row>
     <row r="8">
@@ -7682,7 +7620,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-15.77731725681397</v>
+        <v>-28.94770995676911</v>
       </c>
     </row>
     <row r="9">
@@ -7690,7 +7628,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-16.55652707143227</v>
+        <v>-28.03445468941546</v>
       </c>
     </row>
     <row r="10">
@@ -7698,7 +7636,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-16.29418551214676</v>
+        <v>-28.54394212671826</v>
       </c>
     </row>
     <row r="11">
@@ -7706,7 +7644,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-17.05717394034915</v>
+        <v>-28.63108451621622</v>
       </c>
     </row>
     <row r="12">
@@ -7714,7 +7652,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-17.00592956233382</v>
+        <v>-29.30270519954504</v>
       </c>
     </row>
     <row r="13">
@@ -7722,7 +7660,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-16.57233442436146</v>
+        <v>-29.25452007272293</v>
       </c>
     </row>
     <row r="14">
@@ -7730,7 +7668,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-16.69079590554418</v>
+        <v>-28.72235979675887</v>
       </c>
     </row>
     <row r="15">
@@ -7738,7 +7676,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-16.33635777837382</v>
+        <v>-28.47088319585125</v>
       </c>
     </row>
     <row r="16">
@@ -7746,7 +7684,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-16.67986597260235</v>
+        <v>-28.72525839935929</v>
       </c>
     </row>
     <row r="17">
@@ -7754,7 +7692,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-16.56547611290773</v>
+        <v>-28.85383795854474</v>
       </c>
     </row>
     <row r="18">
@@ -7762,7 +7700,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-16.47612402108385</v>
+        <v>-28.76643878035081</v>
       </c>
     </row>
     <row r="19">
@@ -7770,7 +7708,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-17.47387772275449</v>
+        <v>-29.03668398147473</v>
       </c>
     </row>
     <row r="20">
@@ -7778,7 +7716,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-17.7407503386747</v>
+        <v>-28.2845957363697</v>
       </c>
     </row>
     <row r="21">
@@ -7786,7 +7724,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-17.95870310661714</v>
+        <v>-29.76988432024531</v>
       </c>
     </row>
     <row r="22">
@@ -7794,7 +7732,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-17.80793509751874</v>
+        <v>-29.52058667715097</v>
       </c>
     </row>
     <row r="23">
@@ -7802,7 +7740,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-17.87809839415479</v>
+        <v>-29.69609726263394</v>
       </c>
     </row>
     <row r="24">
@@ -7810,7 +7748,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-18.3748937546948</v>
+        <v>-29.75382345185904</v>
       </c>
     </row>
     <row r="25">
@@ -7818,7 +7756,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-18.47630597330096</v>
+        <v>-29.6701991603423</v>
       </c>
     </row>
     <row r="26">
@@ -7826,7 +7764,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-17.48970631060818</v>
+        <v>-29.19206043900289</v>
       </c>
     </row>
     <row r="27">
@@ -7834,7 +7772,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-18.27854766324256</v>
+        <v>-29.99483366465709</v>
       </c>
     </row>
     <row r="28">
@@ -7842,7 +7780,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-18.81853691201492</v>
+        <v>-31.07829364490953</v>
       </c>
     </row>
     <row r="29">
@@ -7850,7 +7788,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-19.21220398605169</v>
+        <v>-30.16073514648857</v>
       </c>
     </row>
     <row r="30">
@@ -7858,7 +7796,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-19.84732480459835</v>
+        <v>-30.9374313931348</v>
       </c>
     </row>
     <row r="31">
@@ -7866,7 +7804,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-19.39065542301071</v>
+        <v>-31.27061332293252</v>
       </c>
     </row>
     <row r="32">
@@ -7874,7 +7812,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-19.39039505022983</v>
+        <v>-31.00867438581916</v>
       </c>
     </row>
     <row r="33">
@@ -7882,7 +7820,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-19.61176476654581</v>
+        <v>-33.90077942885242</v>
       </c>
     </row>
     <row r="34">
@@ -7890,7 +7828,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-19.93710935351995</v>
+        <v>-33.8761846764732</v>
       </c>
     </row>
     <row r="35">
@@ -7898,7 +7836,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-20.06650651066935</v>
+        <v>-32.58291336365756</v>
       </c>
     </row>
     <row r="36">
@@ -7906,7 +7844,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-19.16202026637161</v>
+        <v>-31.63490272185636</v>
       </c>
     </row>
     <row r="37">
@@ -7914,7 +7852,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-19.96952617999251</v>
+        <v>-33.01728833162218</v>
       </c>
     </row>
     <row r="38">
@@ -7922,7 +7860,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-20.18458503724993</v>
+        <v>-32.76508128629489</v>
       </c>
     </row>
     <row r="39">
@@ -7930,7 +7868,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-19.69025344458499</v>
+        <v>-32.96987890448332</v>
       </c>
     </row>
     <row r="40">
@@ -7938,7 +7876,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-20.01593966831394</v>
+        <v>-32.35862876648954</v>
       </c>
     </row>
     <row r="41">
@@ -7946,7 +7884,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-20.05766971516751</v>
+        <v>-32.91080227189713</v>
       </c>
     </row>
     <row r="42">
@@ -7954,7 +7892,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-19.42172316184038</v>
+        <v>-33.35406269209452</v>
       </c>
     </row>
     <row r="43">
@@ -7962,7 +7900,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-19.66644253959073</v>
+        <v>-33.41087484978134</v>
       </c>
     </row>
     <row r="44">
@@ -7970,7 +7908,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-19.75787261687491</v>
+        <v>-33.41464071432893</v>
       </c>
     </row>
     <row r="45">
@@ -7978,7 +7916,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-19.33849222298528</v>
+        <v>-32.46570570926922</v>
       </c>
     </row>
     <row r="46">
@@ -7986,7 +7924,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-19.39858373855937</v>
+        <v>-31.8408514364346</v>
       </c>
     </row>
     <row r="47">
@@ -7994,7 +7932,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-18.92248863391962</v>
+        <v>-31.8406801593306</v>
       </c>
     </row>
     <row r="48">
@@ -8002,7 +7940,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-18.80367533131354</v>
+        <v>-31.36397956571087</v>
       </c>
     </row>
     <row r="49">
@@ -8010,7 +7948,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-19.37265260380453</v>
+        <v>-32.22145031843213</v>
       </c>
     </row>
     <row r="50">
@@ -8018,7 +7956,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-19.27294515319937</v>
+        <v>-31.64689846000917</v>
       </c>
     </row>
     <row r="51">
@@ -8026,7 +7964,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-18.86885246012193</v>
+        <v>-31.38998406091457</v>
       </c>
     </row>
     <row r="52">
@@ -8034,7 +7972,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-19.41869764295755</v>
+        <v>-31.96869269989673</v>
       </c>
     </row>
     <row r="53">
@@ -8042,7 +7980,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-19.00362803657373</v>
+        <v>-32.71049211661339</v>
       </c>
     </row>
     <row r="54">
@@ -8050,7 +7988,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-19.16991743737804</v>
+        <v>-31.84038085492856</v>
       </c>
     </row>
     <row r="55">
@@ -8058,7 +7996,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-19.18478100566632</v>
+        <v>-31.53437560735236</v>
       </c>
     </row>
     <row r="56">
@@ -8066,7 +8004,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-19.15867577182495</v>
+        <v>-30.81324843489492</v>
       </c>
     </row>
     <row r="57">
@@ -8074,7 +8012,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-18.80497725016111</v>
+        <v>-30.78913878206452</v>
       </c>
     </row>
     <row r="58">
@@ -8082,7 +8020,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-19.10156896281611</v>
+        <v>-31.34936769413406</v>
       </c>
     </row>
     <row r="59">
@@ -8090,7 +8028,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-19.0390900401669</v>
+        <v>-32.14355677337808</v>
       </c>
     </row>
     <row r="60">
@@ -8098,7 +8036,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-18.43305298263682</v>
+        <v>-30.74526953546468</v>
       </c>
     </row>
     <row r="61">
@@ -8106,7 +8044,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-18.14890762898439</v>
+        <v>-30.57743839637051</v>
       </c>
     </row>
     <row r="62">
@@ -8114,7 +8052,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-18.26664172540062</v>
+        <v>-30.84039488495518</v>
       </c>
     </row>
     <row r="63">
@@ -8122,7 +8060,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-17.41082506375628</v>
+        <v>-30.29486566810297</v>
       </c>
     </row>
     <row r="64">
@@ -8130,7 +8068,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-17.17401459140917</v>
+        <v>-29.90774702738221</v>
       </c>
     </row>
     <row r="65">
@@ -8138,7 +8076,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-17.38629630901393</v>
+        <v>-29.72956810691749</v>
       </c>
     </row>
     <row r="66">
@@ -8146,7 +8084,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-16.68744009150654</v>
+        <v>-28.70721900329385</v>
       </c>
     </row>
     <row r="67">
@@ -8154,7 +8092,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-16.6614205927651</v>
+        <v>-28.72894986593763</v>
       </c>
     </row>
     <row r="68">
@@ -8162,7 +8100,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-16.32239992966815</v>
+        <v>-29.18156187184716</v>
       </c>
     </row>
     <row r="69">
@@ -8170,7 +8108,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-16.03645467538338</v>
+        <v>-28.06794916980589</v>
       </c>
     </row>
     <row r="70">
@@ -8178,7 +8116,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-16.03679173554855</v>
+        <v>-29.23213126727407</v>
       </c>
     </row>
     <row r="71">
@@ -8186,7 +8124,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-16.02366140878396</v>
+        <v>-28.40849765332816</v>
       </c>
     </row>
     <row r="72">
@@ -8194,7 +8132,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-15.78888920619243</v>
+        <v>-27.28794610301408</v>
       </c>
     </row>
     <row r="73">
@@ -8202,7 +8140,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-15.68765177724535</v>
+        <v>-27.24042693169143</v>
       </c>
     </row>
     <row r="74">
@@ -8210,7 +8148,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-15.73044033168052</v>
+        <v>-27.48071247365052</v>
       </c>
     </row>
     <row r="75">
@@ -8218,7 +8156,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-15.3390907410346</v>
+        <v>-27.41371043222117</v>
       </c>
     </row>
     <row r="76">
@@ -8226,7 +8164,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-15.44358060870696</v>
+        <v>-26.90382145908173</v>
       </c>
     </row>
     <row r="77">
@@ -8234,7 +8172,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-15.54209356898166</v>
+        <v>-26.90452642646597</v>
       </c>
     </row>
     <row r="78">
@@ -8242,7 +8180,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-15.45290285015093</v>
+        <v>-26.62257142579168</v>
       </c>
     </row>
     <row r="79">
@@ -8250,7 +8188,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-15.42823668144901</v>
+        <v>-26.73662185193687</v>
       </c>
     </row>
     <row r="80">
@@ -8258,7 +8196,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-15.35579114893783</v>
+        <v>-26.75902863010222</v>
       </c>
     </row>
     <row r="81">
@@ -8266,7 +8204,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-15.22549442800126</v>
+        <v>-26.18906722519293</v>
       </c>
     </row>
     <row r="82">
@@ -8274,7 +8212,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-15.27546335632606</v>
+        <v>-26.48929676199876</v>
       </c>
     </row>
     <row r="83">
@@ -8282,7 +8220,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-15.2126029764518</v>
+        <v>-26.14416888873877</v>
       </c>
     </row>
     <row r="84">
@@ -8290,7 +8228,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-15.4086259614211</v>
+        <v>-26.0217626121838</v>
       </c>
     </row>
     <row r="85">
@@ -8298,7 +8236,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-16.0260773128084</v>
+        <v>-26.06513211580096</v>
       </c>
     </row>
     <row r="86">
@@ -8306,7 +8244,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-15.91187185506044</v>
+        <v>-26.10895486832768</v>
       </c>
     </row>
     <row r="87">
@@ -8314,7 +8252,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-15.91521125726499</v>
+        <v>-26.04422526617636</v>
       </c>
     </row>
     <row r="88">
@@ -8322,7 +8260,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-15.94526605704976</v>
+        <v>-26.35415816841934</v>
       </c>
     </row>
     <row r="89">
@@ -8330,7 +8268,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-15.64096122550706</v>
+        <v>-26.02251685503749</v>
       </c>
     </row>
     <row r="90">
@@ -8338,7 +8276,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-15.70964167878105</v>
+        <v>-26.15083522283763</v>
       </c>
     </row>
     <row r="91">
@@ -8346,7 +8284,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-16.24584424033804</v>
+        <v>-27.49220715328213</v>
       </c>
     </row>
     <row r="92">
@@ -8354,7 +8292,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-16.0558446863558</v>
+        <v>-27.54454526167644</v>
       </c>
     </row>
     <row r="93">
@@ -8362,7 +8300,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-16.15063932059338</v>
+        <v>-27.57296219430798</v>
       </c>
     </row>
     <row r="94">
@@ -8370,7 +8308,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-16.02910453790521</v>
+        <v>-26.38883490924107</v>
       </c>
     </row>
     <row r="95">
@@ -8378,7 +8316,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-15.86777721440659</v>
+        <v>-26.31720504451954</v>
       </c>
     </row>
     <row r="96">
@@ -8386,7 +8324,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-16.00577828907489</v>
+        <v>-26.51280491431584</v>
       </c>
     </row>
     <row r="97">
@@ -8394,7 +8332,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-16.98426753487469</v>
+        <v>-26.05805962449578</v>
       </c>
     </row>
     <row r="98">
@@ -8402,7 +8340,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-16.50176874403093</v>
+        <v>-26.16176559175829</v>
       </c>
     </row>
     <row r="99">
@@ -8410,7 +8348,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-16.13981523840324</v>
+        <v>-26.33355199339844</v>
       </c>
     </row>
     <row r="100">
@@ -8418,7 +8356,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-15.99480046463885</v>
+        <v>-26.10733788904979</v>
       </c>
     </row>
     <row r="101">
@@ -8426,7 +8364,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-15.75173894716714</v>
+        <v>-25.84120352508413</v>
       </c>
     </row>
     <row r="102">
@@ -8434,7 +8372,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-15.40625354531265</v>
+        <v>-26.00862683305085</v>
       </c>
     </row>
     <row r="103">
@@ -8442,7 +8380,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-15.93806890243037</v>
+        <v>-26.20417276262479</v>
       </c>
     </row>
     <row r="104">
@@ -8450,7 +8388,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-15.66606622819085</v>
+        <v>-25.9411067827565</v>
       </c>
     </row>
     <row r="105">
@@ -8458,7 +8396,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-15.63593501113251</v>
+        <v>-26.17661532098544</v>
       </c>
     </row>
     <row r="106">
@@ -8466,7 +8404,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-15.5600102224115</v>
+        <v>-26.15237934369299</v>
       </c>
     </row>
     <row r="107">
@@ -8474,7 +8412,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-15.9497610591619</v>
+        <v>-26.61400889466161</v>
       </c>
     </row>
     <row r="108">
@@ -8482,7 +8420,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-15.74597784940955</v>
+        <v>-28.93513100616067</v>
       </c>
     </row>
     <row r="109">
@@ -8490,7 +8428,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-18.26693836378544</v>
+        <v>-27.67457000347926</v>
       </c>
     </row>
     <row r="110">
@@ -8498,7 +8436,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-18.09371062314604</v>
+        <v>-27.26948284891106</v>
       </c>
     </row>
     <row r="111">
@@ -8506,7 +8444,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-17.80547490237372</v>
+        <v>-27.74248142473442</v>
       </c>
     </row>
     <row r="112">
@@ -8514,7 +8452,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-17.89259293667363</v>
+        <v>-28.14955445955294</v>
       </c>
     </row>
     <row r="113">
@@ -8522,7 +8460,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-17.36463655688224</v>
+        <v>-27.63143834465195</v>
       </c>
     </row>
     <row r="114">
@@ -8530,7 +8468,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-17.85408917222739</v>
+        <v>-28.15459342564282</v>
       </c>
     </row>
     <row r="115">
@@ -8538,7 +8476,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-18.73758824555778</v>
+        <v>-27.9798270980655</v>
       </c>
     </row>
     <row r="116">
@@ -8546,7 +8484,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-18.30774455417923</v>
+        <v>-27.66549875588982</v>
       </c>
     </row>
     <row r="117">
@@ -8554,7 +8492,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-18.222025754957</v>
+        <v>-28.40018084127397</v>
       </c>
     </row>
     <row r="118">
@@ -8562,7 +8500,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-18.35298445898572</v>
+        <v>-28.44201239591326</v>
       </c>
     </row>
     <row r="119">
@@ -8570,7 +8508,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-18.82297146780279</v>
+        <v>-27.59033851424477</v>
       </c>
     </row>
     <row r="120">
@@ -8578,7 +8516,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-18.63982258446021</v>
+        <v>-29.21812519340518</v>
       </c>
     </row>
     <row r="121">
@@ -8586,7 +8524,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-18.13320812123419</v>
+        <v>-28.47151750954047</v>
       </c>
     </row>
     <row r="122">
@@ -8594,7 +8532,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-18.39593180615956</v>
+        <v>-27.96029301576013</v>
       </c>
     </row>
     <row r="123">
@@ -8602,7 +8540,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-18.61910809495814</v>
+        <v>-28.6160180764811</v>
       </c>
     </row>
     <row r="124">
@@ -8610,7 +8548,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-18.21595940493831</v>
+        <v>-28.61530620715751</v>
       </c>
     </row>
     <row r="125">
@@ -8618,7 +8556,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-18.70476948447964</v>
+        <v>-28.7560864459085</v>
       </c>
     </row>
     <row r="126">
@@ -8626,7 +8564,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-18.11403638836586</v>
+        <v>-28.30725788087915</v>
       </c>
     </row>
     <row r="127">
@@ -8634,7 +8572,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-17.60869624238583</v>
+        <v>-27.84820641028447</v>
       </c>
     </row>
     <row r="128">
@@ -8642,7 +8580,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-17.85306325871143</v>
+        <v>-27.498716687204</v>
       </c>
     </row>
     <row r="129">
@@ -8650,7 +8588,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-17.57107162109097</v>
+        <v>-27.47655682307447</v>
       </c>
     </row>
     <row r="130">
@@ -8658,7 +8596,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-17.42342070952992</v>
+        <v>-28.56604545996868</v>
       </c>
     </row>
     <row r="131">
@@ -8666,7 +8604,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-17.01522315075224</v>
+        <v>-28.83058405549703</v>
       </c>
     </row>
     <row r="132">
@@ -8674,7 +8612,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-17.48794005181188</v>
+        <v>-27.7346766548126</v>
       </c>
     </row>
     <row r="133">
@@ -8682,7 +8620,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-16.94341377000091</v>
+        <v>-27.72524387252678</v>
       </c>
     </row>
     <row r="134">
@@ -8690,7 +8628,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-16.33014652712375</v>
+        <v>-27.72615648060234</v>
       </c>
     </row>
     <row r="135">
@@ -8698,7 +8636,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-16.40913401959476</v>
+        <v>-27.42321185082749</v>
       </c>
     </row>
     <row r="136">
@@ -8706,7 +8644,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-16.72287942863958</v>
+        <v>-27.46146037115041</v>
       </c>
     </row>
     <row r="137">
@@ -8714,7 +8652,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-16.33463284654039</v>
+        <v>-28.76762875028172</v>
       </c>
     </row>
     <row r="138">
@@ -8722,7 +8660,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-16.55843520515903</v>
+        <v>-28.24156003760685</v>
       </c>
     </row>
     <row r="139">
@@ -8730,7 +8668,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-16.13440150914926</v>
+        <v>-28.65234268027174</v>
       </c>
     </row>
     <row r="140">
@@ -8738,7 +8676,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-15.51727690549618</v>
+        <v>-28.72178619975476</v>
       </c>
     </row>
     <row r="141">
@@ -8746,7 +8684,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-16.28364493371688</v>
+        <v>-27.59903343860972</v>
       </c>
     </row>
     <row r="142">
@@ -8754,7 +8692,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-16.18162873774583</v>
+        <v>-28.60177894237143</v>
       </c>
     </row>
     <row r="143">
@@ -8762,7 +8700,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-16.36106797473703</v>
+        <v>-27.55396436916791</v>
       </c>
     </row>
     <row r="144">
@@ -8770,7 +8708,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-16.18371589662329</v>
+        <v>-28.90034160450241</v>
       </c>
     </row>
     <row r="145">
@@ -8778,7 +8716,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-15.5667927513374</v>
+        <v>-28.29995813165967</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014007284</v>
+        <v>2012001636</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1833,424 +1833,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2013006481</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G3" t="n">
-        <v>250</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2014004066</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24</v>
-      </c>
-      <c r="G4" t="n">
-        <v>250</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2015005244</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30</v>
-      </c>
-      <c r="G5" t="n">
-        <v>250</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2014008814</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" t="n">
-        <v>250</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2014001472</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" t="n">
-        <v>250</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2015009293</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>60</v>
-      </c>
-      <c r="G8" t="n">
-        <v>250</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2015004649</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>60</v>
-      </c>
-      <c r="G9" t="n">
-        <v>250</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2013009370</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" t="n">
-        <v>250</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2012001781</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>40</v>
-      </c>
-      <c r="G11" t="n">
-        <v>250</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2013009250</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>30</v>
-      </c>
-      <c r="G12" t="n">
-        <v>250</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2013007737</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" t="n">
-        <v>250</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2305,16 +1887,16 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014007284</v>
+        <v>2012001636</v>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D2" t="n">
-        <v>65.92332239999999</v>
+        <v>68.70748058327788</v>
       </c>
       <c r="E2" t="n">
         <v>75</v>
@@ -2322,292 +1904,68 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013006481</v>
+        <v>2012001636</v>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>4.75</v>
+        <v>72.66710073600001</v>
       </c>
       <c r="E3" t="n">
-        <v>39.9939157585001</v>
+        <v>73.54275951019062</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>2014004066</v>
-      </c>
-      <c r="B4" t="n">
-        <v>28</v>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.85270167824406</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20.47343047191591</v>
-      </c>
+      <c r="A4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
-        <v>2014004066</v>
-      </c>
-      <c r="B5" t="n">
-        <v>46</v>
-      </c>
-      <c r="C5" t="n">
-        <v>110</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.13960295824409</v>
-      </c>
-      <c r="E5" t="n">
-        <v>24</v>
-      </c>
+      <c r="A5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v>2015005244</v>
-      </c>
-      <c r="B6" t="n">
-        <v>37</v>
-      </c>
-      <c r="C6" t="n">
-        <v>118</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28.67132889046735</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30</v>
-      </c>
+      <c r="A6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
-        <v>2014008814</v>
-      </c>
-      <c r="B7" t="n">
-        <v>39</v>
-      </c>
-      <c r="C7" t="n">
-        <v>122</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8.276862942784247</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29.78293332780068</v>
-      </c>
+      <c r="A7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
-        <v>2014001472</v>
-      </c>
-      <c r="B8" t="n">
-        <v>21</v>
-      </c>
-      <c r="C8" t="n">
-        <v>41</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25.57109632</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30</v>
-      </c>
+      <c r="A8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n">
-        <v>2014001472</v>
-      </c>
-      <c r="B9" t="n">
-        <v>46</v>
-      </c>
-      <c r="C9" t="n">
-        <v>54</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27.840909456</v>
-      </c>
-      <c r="E9" t="n">
-        <v>30</v>
-      </c>
+      <c r="A9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
-        <v>2014001472</v>
-      </c>
-      <c r="B10" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" t="n">
-        <v>122</v>
-      </c>
-      <c r="D10" t="n">
-        <v>27.840909456</v>
-      </c>
-      <c r="E10" t="n">
-        <v>30</v>
-      </c>
+      <c r="A10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>2015009293</v>
-      </c>
-      <c r="B11" t="n">
-        <v>34</v>
-      </c>
-      <c r="C11" t="n">
-        <v>118</v>
-      </c>
-      <c r="D11" t="n">
-        <v>56.298518</v>
-      </c>
-      <c r="E11" t="n">
-        <v>60</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>2015009293</v>
-      </c>
-      <c r="B12" t="n">
-        <v>120</v>
-      </c>
-      <c r="C12" t="n">
-        <v>143</v>
-      </c>
-      <c r="D12" t="n">
-        <v>55.5582216</v>
-      </c>
-      <c r="E12" t="n">
-        <v>60</v>
-      </c>
+      <c r="A12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>2015004649</v>
-      </c>
-      <c r="B13" t="n">
-        <v>48</v>
-      </c>
-      <c r="C13" t="n">
-        <v>132</v>
-      </c>
-      <c r="D13" t="n">
-        <v>54.8179251956624</v>
-      </c>
-      <c r="E13" t="n">
-        <v>60</v>
-      </c>
+      <c r="A13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>2013009370</v>
-      </c>
-      <c r="B14" t="n">
-        <v>26</v>
-      </c>
-      <c r="C14" t="n">
-        <v>112</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67.43610198327787</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75</v>
-      </c>
+      <c r="A14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>2012001781</v>
-      </c>
-      <c r="B15" t="n">
-        <v>26</v>
-      </c>
-      <c r="C15" t="n">
-        <v>143</v>
-      </c>
-      <c r="D15" t="n">
-        <v>38.6320604605412</v>
-      </c>
-      <c r="E15" t="n">
-        <v>40</v>
-      </c>
+      <c r="A15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v>2013009250</v>
-      </c>
-      <c r="B16" t="n">
-        <v>39</v>
-      </c>
-      <c r="C16" t="n">
-        <v>111</v>
-      </c>
-      <c r="D16" t="n">
-        <v>23.91025744</v>
-      </c>
-      <c r="E16" t="n">
-        <v>29.99999999446736</v>
-      </c>
+      <c r="A16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>2013007737</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n">
-        <v>116</v>
-      </c>
-      <c r="D17" t="n">
-        <v>39.1792366</v>
-      </c>
-      <c r="E17" t="n">
-        <v>40</v>
-      </c>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>2013007737</v>
-      </c>
-      <c r="B18" t="n">
-        <v>118</v>
-      </c>
-      <c r="C18" t="n">
-        <v>122</v>
-      </c>
-      <c r="D18" t="n">
-        <v>39.1792366</v>
-      </c>
-      <c r="E18" t="n">
-        <v>40</v>
-      </c>
+      <c r="A18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>2013007737</v>
-      </c>
-      <c r="B19" t="n">
-        <v>123</v>
-      </c>
-      <c r="C19" t="n">
-        <v>143</v>
-      </c>
-      <c r="D19" t="n">
-        <v>39.4528244</v>
-      </c>
-      <c r="E19" t="n">
-        <v>40</v>
-      </c>
+      <c r="A19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -3114,7 +2472,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -3148,7 +2506,7 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
@@ -3182,7 +2540,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -3250,7 +2608,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -3352,7 +2710,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -3403,7 +2761,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -3454,7 +2812,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -3471,7 +2829,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -3488,7 +2846,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -3539,7 +2897,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -3573,7 +2931,7 @@
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D54" s="4" t="n"/>
       <c r="E54" s="4" t="n"/>
@@ -3590,7 +2948,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -3607,7 +2965,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -3624,7 +2982,7 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
@@ -6239,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>9.747871974005676</v>
+        <v>5.32977239543569</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6248,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>4.09166803909605</v>
+        <v>5.590909789154792</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6257,7 +5615,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>4.33106796488959</v>
+        <v>4.797039123797391</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6266,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>4.936999022864126</v>
+        <v>6.006777523354425</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6275,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5.714339986476767</v>
+        <v>6.497047386061909</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6284,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>4.870966571397275</v>
+        <v>6.128207619868802</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6293,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>6.363978108929451</v>
+        <v>5.24465551271367</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6302,7 +5660,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>6.18683624857076</v>
+        <v>5.435048268567703</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6311,7 +5669,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>8.192052766261677</v>
+        <v>4.00571026304175</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6320,7 +5678,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>6.559230147067393</v>
+        <v>4.288858353661068</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6329,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>6.528055894064357</v>
+        <v>4.698434338560868</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6338,7 +5696,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>4.18542637809568</v>
+        <v>4.56272109573309</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6347,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>6.564220670011611</v>
+        <v>3.327294463123222</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6356,7 +5714,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>5.440137618245617</v>
+        <v>3.56057305548769</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6365,7 +5723,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>7.747636289364485</v>
+        <v>3.636885472386199</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6374,7 +5732,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>6.337071461516846</v>
+        <v>4.306452339220908</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6383,7 +5741,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>8.505374341324968</v>
+        <v>4.938823555575103</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6392,7 +5750,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>7.455912283107593</v>
+        <v>5.009893074642648</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6401,7 +5759,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.480912747759926</v>
+        <v>3.07608028109056</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6410,7 +5768,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4.507603168461475</v>
+        <v>5.100399116786598</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6419,7 +5777,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>4.781221410421992</v>
+        <v>3.623549801693903</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6428,7 +5786,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>5.4050813744802</v>
+        <v>3.663406356469821</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6437,7 +5795,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>5.043557110917879</v>
+        <v>2.737368958161849</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6446,7 +5804,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>5.799769806719779</v>
+        <v>2.44539085802745</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6455,7 +5813,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>5.744744137028698</v>
+        <v>0.4341957613403023</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6464,7 +5822,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>2.521292461933457</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6473,7 +5831,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.225518787383099</v>
+        <v>1.297064128573405</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6482,7 +5840,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>2.13208635039741</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6491,7 +5849,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.254094110955297</v>
+        <v>0.5292821873882189</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6500,7 +5858,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>2.213153022644644</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6509,7 +5867,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.612020232710538</v>
+        <v>0.6473625876533446</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6536,7 +5894,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>0.6719879377252649</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6545,7 +5903,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>4.159875447051707</v>
+        <v>0.4855621295808548</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6590,7 +5948,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>0.4421645953782155</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6617,7 +5975,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>0.1171519304641678</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6644,7 +6002,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>0.7644401062453999</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6653,7 +6011,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.5800721589741867</v>
+        <v>0</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6662,7 +6020,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.478855126412387</v>
+        <v>0</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6680,7 +6038,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.29332036558429</v>
+        <v>0.1729454068793425</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6689,7 +6047,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.770200253188744</v>
+        <v>0</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6707,7 +6065,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1.323190813898586</v>
+        <v>0</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6716,7 +6074,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>0.7831005420732953</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6725,7 +6083,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>1.670528796657361</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6734,7 +6092,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>0.1581323981690881</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6743,7 +6101,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>6.225746192732648</v>
+        <v>0.6945220956766447</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6752,7 +6110,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.9169149206503379</v>
+        <v>2.434603979026692</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6761,7 +6119,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>4.047321119801</v>
+        <v>3.272623759510765</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6770,7 +6128,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>5.257393345538574</v>
+        <v>2.581790547887602</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6779,7 +6137,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>4.528713552261939</v>
+        <v>4.64988871278541</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6788,7 +6146,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>8.379157593438414</v>
+        <v>3.552258902236832</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6797,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>8.249775365270898</v>
+        <v>3.592335208009128</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6806,7 +6164,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>5.618945673632868</v>
+        <v>4.23196262284132</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6815,7 +6173,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>10.75373367519515</v>
+        <v>5.697595176975618</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6824,7 +6182,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>7.724295061236427</v>
+        <v>5.763582415226225</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6833,7 +6191,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>9.286790087500322</v>
+        <v>5.597621245399463</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6842,7 +6200,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>10.29605370770129</v>
+        <v>7.04218943211143</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6851,7 +6209,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>9.909039149557641</v>
+        <v>6.448935423434026</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6860,7 +6218,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>11.18068471240343</v>
+        <v>6.572473006481189</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6869,7 +6227,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>11.13141447646327</v>
+        <v>6.705107355880927</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6878,7 +6236,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>15.97796349179317</v>
+        <v>8.283837032893459</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6887,7 +6245,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>15.1722350832066</v>
+        <v>9.306705293561711</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6896,7 +6254,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>13.47470031655392</v>
+        <v>10.48656965042945</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6905,7 +6263,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>12.21839283984573</v>
+        <v>8.395226546060593</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6914,7 +6272,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>14.38933447534305</v>
+        <v>9.383194443718166</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6923,7 +6281,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>15.73131232992266</v>
+        <v>10.1467294050429</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6932,7 +6290,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>12.11559024120705</v>
+        <v>9.744486248413363</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6941,7 +6299,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>13.69739178380413</v>
+        <v>8.821563968470755</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6950,7 +6308,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>13.81085804138401</v>
+        <v>9.072037335652849</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6959,7 +6317,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>13.18365531017496</v>
+        <v>9.466562969997247</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6968,7 +6326,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>13.64872301868117</v>
+        <v>9.295751341382887</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6977,7 +6335,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>15.68323368107889</v>
+        <v>10.15663835788732</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6986,7 +6344,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>13.22521417995718</v>
+        <v>10.47020281522048</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6995,7 +6353,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>12.99154794139836</v>
+        <v>9.186876164197757</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7004,7 +6362,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>17.18722349168867</v>
+        <v>10.48056129675778</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7013,7 +6371,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>19.19457154201076</v>
+        <v>10.24231671571076</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7022,7 +6380,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>17.13666893994367</v>
+        <v>9.92224721946611</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7031,7 +6389,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>16.4134721399278</v>
+        <v>3.502353347407245</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7040,7 +6398,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>13.53705221769949</v>
+        <v>0.5298101081390236</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7049,7 +6407,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>12.36865140160723</v>
+        <v>2.739621559288422</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7058,7 +6416,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>14.98329473290706</v>
+        <v>3.44583858937402</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7067,7 +6425,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>14.00430065885958</v>
+        <v>3.176119147676066</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7076,7 +6434,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>9.349856918112259</v>
+        <v>5.356969815018403</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7085,7 +6443,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>15.8368033370256</v>
+        <v>3.867631558266622</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7094,7 +6452,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>14.8377980743077</v>
+        <v>5.277288576575643</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7103,7 +6461,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>14.81567840331389</v>
+        <v>7.385857562511433</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7112,7 +6470,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>14.8027631095823</v>
+        <v>6.733954929839073</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7121,7 +6479,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>14.78820815923569</v>
+        <v>7.02884682620587</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7130,7 +6488,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>16.66377539387781</v>
+        <v>7.862346425098428</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7139,7 +6497,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>18.49520689003542</v>
+        <v>8.652265647827983</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7148,7 +6506,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>18.78437483607988</v>
+        <v>6.121048857175634</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7157,7 +6515,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>14.08268141191444</v>
+        <v>6.763001367400072</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7166,7 +6524,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>13.01327926691954</v>
+        <v>4.694428477734779</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7175,7 +6533,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>17.23327872425903</v>
+        <v>7.400588644066348</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7184,7 +6542,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>12.40897002627752</v>
+        <v>5.762003197431989</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7193,7 +6551,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>13.11733803881405</v>
+        <v>6.082606328087816</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7202,7 +6560,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>13.94200247012241</v>
+        <v>7.094367947831425</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7211,7 +6569,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>12.61558360481897</v>
+        <v>6.66202610017938</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7220,7 +6578,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>12.17035886366967</v>
+        <v>5.453449847182665</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7229,7 +6587,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>13.43439028515725</v>
+        <v>5.359229098632825</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7238,7 +6596,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>9.027296836402979</v>
+        <v>5.295452277020138</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7247,7 +6605,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>11.3461588001439</v>
+        <v>6.478273272950512</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7256,7 +6614,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>12.15102703858869</v>
+        <v>5.260564738432759</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7265,7 +6623,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>8.01266339593286</v>
+        <v>1.731736359032757</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7274,7 +6632,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>6.485721871236413</v>
+        <v>2.871051001506572</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7283,7 +6641,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>9.044062388615163</v>
+        <v>3.627430525693182</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7292,7 +6650,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>8.970553989072194</v>
+        <v>3.98765689073505</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7301,7 +6659,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>7.513604004534116</v>
+        <v>3.353197246658993</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7310,7 +6668,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>8.790196063318241</v>
+        <v>2.709941915327859</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7319,7 +6677,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>8.975966986160369</v>
+        <v>2.228513318093938</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7328,7 +6686,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>10.21908137073251</v>
+        <v>4.623547355637758</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7337,7 +6695,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>6.257047136090048</v>
+        <v>2.720234653982958</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7346,7 +6704,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>8.721080083128426</v>
+        <v>4.323093819431056</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7355,7 +6713,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>9.392592663940194</v>
+        <v>3.074891912597345</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7364,7 +6722,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>10.12905140876442</v>
+        <v>4.655865202802716</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7373,7 +6731,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>8.188421036713809</v>
+        <v>6.572113108603461</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7382,7 +6740,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>6.76704405791974</v>
+        <v>4.514513290580803</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7391,7 +6749,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>4.853736320934653</v>
+        <v>4.591059153388503</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7400,7 +6758,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>6.604387132851693</v>
+        <v>4.217792762946105</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7409,7 +6767,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>11.4720318072314</v>
+        <v>4.778791612782773</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7418,7 +6776,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>9.272029901689125</v>
+        <v>6.071748891712833</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7427,7 +6785,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>9.654662234610512</v>
+        <v>5.349938102774812</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7436,7 +6794,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>7.583691196699095</v>
+        <v>7.094561720091987</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7445,7 +6803,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>11.01197588367795</v>
+        <v>6.530679763083893</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7454,7 +6812,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>9.471581491375865</v>
+        <v>6.870020370589474</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7463,7 +6821,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>7.940244851914823</v>
+        <v>4.168897598750762</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7472,7 +6830,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>7.258156305423521</v>
+        <v>5.626267236256185</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7481,7 +6839,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>8.506092515270293</v>
+        <v>4.690237931165024</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7490,7 +6848,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>9.350092564365658</v>
+        <v>4.835383675471429</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7499,7 +6857,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>4.838458759029984</v>
+        <v>4.984035952299952</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7508,7 +6866,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>3.333874469593995</v>
+        <v>4.989506664179041</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7517,7 +6875,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>4.851889946731058</v>
+        <v>5.135206028021384</v>
       </c>
     </row>
     <row r="145">
@@ -7525,7 +6883,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>3.594158491118698</v>
+        <v>5.821472759507667</v>
       </c>
     </row>
     <row r="146">
@@ -7572,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-28.30988919752149</v>
+        <v>-21.67135451681592</v>
       </c>
     </row>
     <row r="3">
@@ -7580,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-28.99644389994529</v>
+        <v>-21.64057742291325</v>
       </c>
     </row>
     <row r="4">
@@ -7588,7 +6946,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-30.04924296245701</v>
+        <v>-21.65928718152002</v>
       </c>
     </row>
     <row r="5">
@@ -7596,7 +6954,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-29.08763888456474</v>
+        <v>-21.68385823718889</v>
       </c>
     </row>
     <row r="6">
@@ -7604,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-28.99505912112604</v>
+        <v>-21.74642421003318</v>
       </c>
     </row>
     <row r="7">
@@ -7612,7 +6970,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-28.40926495334307</v>
+        <v>-21.68709514064582</v>
       </c>
     </row>
     <row r="8">
@@ -7620,7 +6978,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-28.94770995676911</v>
+        <v>-21.744186189457</v>
       </c>
     </row>
     <row r="9">
@@ -7628,7 +6986,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-28.03445468941546</v>
+        <v>-24.79285503787017</v>
       </c>
     </row>
     <row r="10">
@@ -7636,7 +6994,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-28.54394212671826</v>
+        <v>-24.53038235413926</v>
       </c>
     </row>
     <row r="11">
@@ -7644,7 +7002,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-28.63108451621622</v>
+        <v>-24.45984918736211</v>
       </c>
     </row>
     <row r="12">
@@ -7652,7 +7010,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-29.30270519954504</v>
+        <v>-25.05805719647756</v>
       </c>
     </row>
     <row r="13">
@@ -7660,7 +7018,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-29.25452007272293</v>
+        <v>-25.73706019548857</v>
       </c>
     </row>
     <row r="14">
@@ -7668,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-28.72235979675887</v>
+        <v>-21.96966408998007</v>
       </c>
     </row>
     <row r="15">
@@ -7676,7 +7034,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-28.47088319585125</v>
+        <v>-25.1022928172194</v>
       </c>
     </row>
     <row r="16">
@@ -7684,7 +7042,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-28.72525839935929</v>
+        <v>-22.03345042441474</v>
       </c>
     </row>
     <row r="17">
@@ -7692,7 +7050,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-28.85383795854474</v>
+        <v>-24.63717508137792</v>
       </c>
     </row>
     <row r="18">
@@ -7700,7 +7058,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-28.76643878035081</v>
+        <v>-24.64047801391441</v>
       </c>
     </row>
     <row r="19">
@@ -7708,7 +7066,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-29.03668398147473</v>
+        <v>-22.05174028425004</v>
       </c>
     </row>
     <row r="20">
@@ -7716,7 +7074,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-28.2845957363697</v>
+        <v>-25.12076525473799</v>
       </c>
     </row>
     <row r="21">
@@ -7724,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-29.76988432024531</v>
+        <v>-25.32010923657194</v>
       </c>
     </row>
     <row r="22">
@@ -7732,7 +7090,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-29.52058667715097</v>
+        <v>-26.11978083145794</v>
       </c>
     </row>
     <row r="23">
@@ -7740,7 +7098,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-29.69609726263394</v>
+        <v>-25.0711408683077</v>
       </c>
     </row>
     <row r="24">
@@ -7748,7 +7106,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-29.75382345185904</v>
+        <v>-25.48737247731862</v>
       </c>
     </row>
     <row r="25">
@@ -7756,7 +7114,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-29.6701991603423</v>
+        <v>-26.53623702003786</v>
       </c>
     </row>
     <row r="26">
@@ -7764,7 +7122,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-29.19206043900289</v>
+        <v>-26.90729602796759</v>
       </c>
     </row>
     <row r="27">
@@ -7772,7 +7130,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-29.99483366465709</v>
+        <v>-28.41289848581945</v>
       </c>
     </row>
     <row r="28">
@@ -7780,7 +7138,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-31.07829364490953</v>
+        <v>-27.80540982460964</v>
       </c>
     </row>
     <row r="29">
@@ -7788,7 +7146,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-30.16073514648857</v>
+        <v>-27.69885125272083</v>
       </c>
     </row>
     <row r="30">
@@ -7796,7 +7154,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-30.9374313931348</v>
+        <v>-27.52627152158011</v>
       </c>
     </row>
     <row r="31">
@@ -7804,7 +7162,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-31.27061332293252</v>
+        <v>-28.12494392950909</v>
       </c>
     </row>
     <row r="32">
@@ -7812,7 +7170,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-31.00867438581916</v>
+        <v>-28.22210386302794</v>
       </c>
     </row>
     <row r="33">
@@ -7820,7 +7178,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-33.90077942885242</v>
+        <v>-28.41562460001236</v>
       </c>
     </row>
     <row r="34">
@@ -7828,7 +7186,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-33.8761846764732</v>
+        <v>-28.41665656295951</v>
       </c>
     </row>
     <row r="35">
@@ -7836,7 +7194,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-32.58291336365756</v>
+        <v>-29.0285406975222</v>
       </c>
     </row>
     <row r="36">
@@ -7844,7 +7202,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-31.63490272185636</v>
+        <v>-29.87133777381277</v>
       </c>
     </row>
     <row r="37">
@@ -7852,7 +7210,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-33.01728833162218</v>
+        <v>-29.6662137203131</v>
       </c>
     </row>
     <row r="38">
@@ -7860,7 +7218,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-32.76508128629489</v>
+        <v>-30.01411632626767</v>
       </c>
     </row>
     <row r="39">
@@ -7868,7 +7226,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-32.96987890448332</v>
+        <v>-29.50781676454931</v>
       </c>
     </row>
     <row r="40">
@@ -7876,7 +7234,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-32.35862876648954</v>
+        <v>-29.15235037840043</v>
       </c>
     </row>
     <row r="41">
@@ -7884,7 +7242,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-32.91080227189713</v>
+        <v>-29.66511827342744</v>
       </c>
     </row>
     <row r="42">
@@ -7892,7 +7250,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-33.35406269209452</v>
+        <v>-29.95662972276241</v>
       </c>
     </row>
     <row r="43">
@@ -7900,7 +7258,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-33.41087484978134</v>
+        <v>-29.88390506307383</v>
       </c>
     </row>
     <row r="44">
@@ -7908,7 +7266,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-33.41464071432893</v>
+        <v>-28.46860236208698</v>
       </c>
     </row>
     <row r="45">
@@ -7916,7 +7274,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-32.46570570926922</v>
+        <v>-30.05993556397476</v>
       </c>
     </row>
     <row r="46">
@@ -7924,7 +7282,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-31.8408514364346</v>
+        <v>-28.96851201707594</v>
       </c>
     </row>
     <row r="47">
@@ -7932,7 +7290,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-31.8406801593306</v>
+        <v>-30.4969548052778</v>
       </c>
     </row>
     <row r="48">
@@ -7940,7 +7298,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-31.36397956571087</v>
+        <v>-29.72638813951031</v>
       </c>
     </row>
     <row r="49">
@@ -7948,7 +7306,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-32.22145031843213</v>
+        <v>-29.51684595307862</v>
       </c>
     </row>
     <row r="50">
@@ -7956,7 +7314,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-31.64689846000917</v>
+        <v>-29.88052506162882</v>
       </c>
     </row>
     <row r="51">
@@ -7964,7 +7322,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-31.38998406091457</v>
+        <v>-30.24477190623026</v>
       </c>
     </row>
     <row r="52">
@@ -7972,7 +7330,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-31.96869269989673</v>
+        <v>-30.70225879171441</v>
       </c>
     </row>
     <row r="53">
@@ -7980,7 +7338,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-32.71049211661339</v>
+        <v>-29.73722021853217</v>
       </c>
     </row>
     <row r="54">
@@ -7988,7 +7346,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-31.84038085492856</v>
+        <v>-30.02304071712826</v>
       </c>
     </row>
     <row r="55">
@@ -7996,7 +7354,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-31.53437560735236</v>
+        <v>-28.72427639932633</v>
       </c>
     </row>
     <row r="56">
@@ -8004,7 +7362,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-30.81324843489492</v>
+        <v>-28.98632569281896</v>
       </c>
     </row>
     <row r="57">
@@ -8012,7 +7370,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-30.78913878206452</v>
+        <v>-29.66451193158535</v>
       </c>
     </row>
     <row r="58">
@@ -8020,7 +7378,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-31.34936769413406</v>
+        <v>-30.09191211200815</v>
       </c>
     </row>
     <row r="59">
@@ -8028,7 +7386,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-32.14355677337808</v>
+        <v>-28.39479956563244</v>
       </c>
     </row>
     <row r="60">
@@ -8036,7 +7394,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-30.74526953546468</v>
+        <v>-27.95752928538304</v>
       </c>
     </row>
     <row r="61">
@@ -8044,7 +7402,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-30.57743839637051</v>
+        <v>-27.81942218248888</v>
       </c>
     </row>
     <row r="62">
@@ -8052,7 +7410,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-30.84039488495518</v>
+        <v>-27.94391633323202</v>
       </c>
     </row>
     <row r="63">
@@ -8060,7 +7418,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-30.29486566810297</v>
+        <v>-28.3069810435984</v>
       </c>
     </row>
     <row r="64">
@@ -8068,7 +7426,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-29.90774702738221</v>
+        <v>-28.28121290809795</v>
       </c>
     </row>
     <row r="65">
@@ -8076,7 +7434,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-29.72956810691749</v>
+        <v>-27.0887784740353</v>
       </c>
     </row>
     <row r="66">
@@ -8084,7 +7442,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-28.70721900329385</v>
+        <v>-26.90008149343288</v>
       </c>
     </row>
     <row r="67">
@@ -8092,7 +7450,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-28.72894986593763</v>
+        <v>-26.91743347806852</v>
       </c>
     </row>
     <row r="68">
@@ -8100,7 +7458,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-29.18156187184716</v>
+        <v>-27.36907320562246</v>
       </c>
     </row>
     <row r="69">
@@ -8108,7 +7466,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-28.06794916980589</v>
+        <v>-26.37449412795065</v>
       </c>
     </row>
     <row r="70">
@@ -8116,7 +7474,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-29.23213126727407</v>
+        <v>-26.88250082661083</v>
       </c>
     </row>
     <row r="71">
@@ -8124,7 +7482,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-28.40849765332816</v>
+        <v>-26.22468963391438</v>
       </c>
     </row>
     <row r="72">
@@ -8132,7 +7490,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-27.28794610301408</v>
+        <v>-26.13963836643768</v>
       </c>
     </row>
     <row r="73">
@@ -8140,7 +7498,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-27.24042693169143</v>
+        <v>-25.94732765921971</v>
       </c>
     </row>
     <row r="74">
@@ -8148,7 +7506,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-27.48071247365052</v>
+        <v>-25.99782797731412</v>
       </c>
     </row>
     <row r="75">
@@ -8156,7 +7514,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-27.41371043222117</v>
+        <v>-26.00721819739729</v>
       </c>
     </row>
     <row r="76">
@@ -8164,7 +7522,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-26.90382145908173</v>
+        <v>-26.45799198704394</v>
       </c>
     </row>
     <row r="77">
@@ -8172,7 +7530,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-26.90452642646597</v>
+        <v>-26.36455980820989</v>
       </c>
     </row>
     <row r="78">
@@ -8180,7 +7538,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-26.62257142579168</v>
+        <v>-25.66673176856308</v>
       </c>
     </row>
     <row r="79">
@@ -8188,7 +7546,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-26.73662185193687</v>
+        <v>-25.62950408199938</v>
       </c>
     </row>
     <row r="80">
@@ -8196,7 +7554,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-26.75902863010222</v>
+        <v>-26.04868525724957</v>
       </c>
     </row>
     <row r="81">
@@ -8204,7 +7562,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-26.18906722519293</v>
+        <v>-25.69732335088875</v>
       </c>
     </row>
     <row r="82">
@@ -8212,7 +7570,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-26.48929676199876</v>
+        <v>-26.02406436035468</v>
       </c>
     </row>
     <row r="83">
@@ -8220,7 +7578,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-26.14416888873877</v>
+        <v>-25.88668487667133</v>
       </c>
     </row>
     <row r="84">
@@ -8228,7 +7586,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-26.0217626121838</v>
+        <v>-25.73180857398314</v>
       </c>
     </row>
     <row r="85">
@@ -8236,7 +7594,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-26.06513211580096</v>
+        <v>-26.07876795359499</v>
       </c>
     </row>
     <row r="86">
@@ -8244,7 +7602,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-26.10895486832768</v>
+        <v>-25.71847884995731</v>
       </c>
     </row>
     <row r="87">
@@ -8252,7 +7610,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-26.04422526617636</v>
+        <v>-25.61995575791708</v>
       </c>
     </row>
     <row r="88">
@@ -8260,7 +7618,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-26.35415816841934</v>
+        <v>-25.63691958835055</v>
       </c>
     </row>
     <row r="89">
@@ -8268,7 +7626,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-26.02251685503749</v>
+        <v>-25.45091478969147</v>
       </c>
     </row>
     <row r="90">
@@ -8276,7 +7634,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-26.15083522283763</v>
+        <v>-25.54464153970912</v>
       </c>
     </row>
     <row r="91">
@@ -8284,7 +7642,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-27.49220715328213</v>
+        <v>-25.60751711484617</v>
       </c>
     </row>
     <row r="92">
@@ -8292,7 +7650,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-27.54454526167644</v>
+        <v>-25.45739303970552</v>
       </c>
     </row>
     <row r="93">
@@ -8300,7 +7658,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-27.57296219430798</v>
+        <v>-26.13863963904493</v>
       </c>
     </row>
     <row r="94">
@@ -8308,7 +7666,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-26.38883490924107</v>
+        <v>-25.65950498875818</v>
       </c>
     </row>
     <row r="95">
@@ -8316,7 +7674,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-26.31720504451954</v>
+        <v>-25.72898346747913</v>
       </c>
     </row>
     <row r="96">
@@ -8324,7 +7682,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-26.51280491431584</v>
+        <v>-25.71461314247897</v>
       </c>
     </row>
     <row r="97">
@@ -8332,7 +7690,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-26.05805962449578</v>
+        <v>-25.59030960346075</v>
       </c>
     </row>
     <row r="98">
@@ -8340,7 +7698,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-26.16176559175829</v>
+        <v>-25.94516968361862</v>
       </c>
     </row>
     <row r="99">
@@ -8348,7 +7706,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-26.33355199339844</v>
+        <v>-25.82122126069994</v>
       </c>
     </row>
     <row r="100">
@@ -8356,7 +7714,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-26.10733788904979</v>
+        <v>-25.80123156421883</v>
       </c>
     </row>
     <row r="101">
@@ -8364,7 +7722,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-25.84120352508413</v>
+        <v>-26.29195434375972</v>
       </c>
     </row>
     <row r="102">
@@ -8372,7 +7730,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-26.00862683305085</v>
+        <v>-26.07116003125924</v>
       </c>
     </row>
     <row r="103">
@@ -8380,7 +7738,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-26.20417276262479</v>
+        <v>-27.44005054986009</v>
       </c>
     </row>
     <row r="104">
@@ -8388,7 +7746,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-25.9411067827565</v>
+        <v>-27.61063076958988</v>
       </c>
     </row>
     <row r="105">
@@ -8396,7 +7754,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-26.17661532098544</v>
+        <v>-26.73083337699573</v>
       </c>
     </row>
     <row r="106">
@@ -8404,7 +7762,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-26.15237934369299</v>
+        <v>-27.34732266897237</v>
       </c>
     </row>
     <row r="107">
@@ -8412,7 +7770,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-26.61400889466161</v>
+        <v>-27.24044269084518</v>
       </c>
     </row>
     <row r="108">
@@ -8420,7 +7778,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-28.93513100616067</v>
+        <v>-26.7842261834811</v>
       </c>
     </row>
     <row r="109">
@@ -8428,7 +7786,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-27.67457000347926</v>
+        <v>-27.22162857176365</v>
       </c>
     </row>
     <row r="110">
@@ -8436,7 +7794,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-27.26948284891106</v>
+        <v>-27.52172804639097</v>
       </c>
     </row>
     <row r="111">
@@ -8444,7 +7802,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-27.74248142473442</v>
+        <v>-26.74461229022686</v>
       </c>
     </row>
     <row r="112">
@@ -8452,7 +7810,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-28.14955445955294</v>
+        <v>-26.7585292493237</v>
       </c>
     </row>
     <row r="113">
@@ -8460,7 +7818,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-27.63143834465195</v>
+        <v>-26.27463172480028</v>
       </c>
     </row>
     <row r="114">
@@ -8468,7 +7826,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-28.15459342564282</v>
+        <v>-26.6529931282552</v>
       </c>
     </row>
     <row r="115">
@@ -8476,7 +7834,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-27.9798270980655</v>
+        <v>-27.69343679580852</v>
       </c>
     </row>
     <row r="116">
@@ -8484,7 +7842,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-27.66549875588982</v>
+        <v>-28.08899949243554</v>
       </c>
     </row>
     <row r="117">
@@ -8492,7 +7850,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-28.40018084127397</v>
+        <v>-27.14635210952966</v>
       </c>
     </row>
     <row r="118">
@@ -8500,7 +7858,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-28.44201239591326</v>
+        <v>-26.95386162879974</v>
       </c>
     </row>
     <row r="119">
@@ -8508,7 +7866,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-27.59033851424477</v>
+        <v>-27.27488829176531</v>
       </c>
     </row>
     <row r="120">
@@ -8516,7 +7874,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-29.21812519340518</v>
+        <v>-27.85042927426669</v>
       </c>
     </row>
     <row r="121">
@@ -8524,7 +7882,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-28.47151750954047</v>
+        <v>-27.73782867297488</v>
       </c>
     </row>
     <row r="122">
@@ -8532,7 +7890,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-27.96029301576013</v>
+        <v>-27.16930746637809</v>
       </c>
     </row>
     <row r="123">
@@ -8540,7 +7898,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-28.6160180764811</v>
+        <v>-27.1774283480113</v>
       </c>
     </row>
     <row r="124">
@@ -8548,7 +7906,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-28.61530620715751</v>
+        <v>-27.33963643177755</v>
       </c>
     </row>
     <row r="125">
@@ -8556,7 +7914,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-28.7560864459085</v>
+        <v>-27.17853563262708</v>
       </c>
     </row>
     <row r="126">
@@ -8564,7 +7922,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-28.30725788087915</v>
+        <v>-26.8919116367687</v>
       </c>
     </row>
     <row r="127">
@@ -8572,7 +7930,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-27.84820641028447</v>
+        <v>-25.49917642101494</v>
       </c>
     </row>
     <row r="128">
@@ -8580,7 +7938,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-27.498716687204</v>
+        <v>-25.48568692659405</v>
       </c>
     </row>
     <row r="129">
@@ -8588,7 +7946,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-27.47655682307447</v>
+        <v>-25.56851110170431</v>
       </c>
     </row>
     <row r="130">
@@ -8596,7 +7954,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-28.56604545996868</v>
+        <v>-26.74276592404242</v>
       </c>
     </row>
     <row r="131">
@@ -8604,7 +7962,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-28.83058405549703</v>
+        <v>-26.93285170110893</v>
       </c>
     </row>
     <row r="132">
@@ -8612,7 +7970,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-27.7346766548126</v>
+        <v>-25.12659288577669</v>
       </c>
     </row>
     <row r="133">
@@ -8620,7 +7978,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-27.72524387252678</v>
+        <v>-25.00440649500293</v>
       </c>
     </row>
     <row r="134">
@@ -8628,7 +7986,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-27.72615648060234</v>
+        <v>-25.31870913725236</v>
       </c>
     </row>
     <row r="135">
@@ -8636,7 +7994,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-27.42321185082749</v>
+        <v>-24.9433835726064</v>
       </c>
     </row>
     <row r="136">
@@ -8644,7 +8002,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-27.46146037115041</v>
+        <v>-24.66345793378363</v>
       </c>
     </row>
     <row r="137">
@@ -8652,7 +8010,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-28.76762875028172</v>
+        <v>-24.84150479550264</v>
       </c>
     </row>
     <row r="138">
@@ -8660,7 +8018,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-28.24156003760685</v>
+        <v>-21.9284510779523</v>
       </c>
     </row>
     <row r="139">
@@ -8668,7 +8026,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-28.65234268027174</v>
+        <v>-21.92006044084552</v>
       </c>
     </row>
     <row r="140">
@@ -8676,7 +8034,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-28.72178619975476</v>
+        <v>-21.92766992387894</v>
       </c>
     </row>
     <row r="141">
@@ -8684,7 +8042,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-27.59903343860972</v>
+        <v>-21.77265615908023</v>
       </c>
     </row>
     <row r="142">
@@ -8692,7 +8050,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-28.60177894237143</v>
+        <v>-24.55381462185655</v>
       </c>
     </row>
     <row r="143">
@@ -8700,7 +8058,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-27.55396436916791</v>
+        <v>-21.85049203621035</v>
       </c>
     </row>
     <row r="144">
@@ -8708,7 +8066,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-28.90034160450241</v>
+        <v>-21.76362169274697</v>
       </c>
     </row>
     <row r="145">
@@ -8716,7 +8074,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-28.29995813165967</v>
+        <v>-21.72521415565416</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt formatCode="0.000" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,33 +125,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -531,7 +599,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1714,7 +1782,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1724,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1732,7 +1800,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="5" max="5"/>
+    <col customWidth="1" max="5" min="5" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1800,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012001636</v>
+        <v>2016003852</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1836,8 +1904,350 @@
         <v>150</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012001231</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2014007380</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2012007765</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" t="n">
+        <v>250</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2013007376</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>250</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2013008794</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2014007834</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2016003755</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24</v>
+      </c>
+      <c r="G9" t="n">
+        <v>250</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2014001566</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2013006609</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>60</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1855,7 +2265,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="15.85546875" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1887,70 +2297,224 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012001636</v>
+        <v>2016003852</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>68.70748058327788</v>
+        <v>33.16030446054119</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012001636</v>
+        <v>2012001231</v>
       </c>
       <c r="B3" t="n">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
+        <v>117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.46387039446736</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2014007380</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.632061</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39.07506207807812</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>2014007380</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>110</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.0424427</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>2014007380</v>
+      </c>
+      <c r="B6" t="n">
+        <v>111</v>
+      </c>
+      <c r="C6" t="n">
+        <v>123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.4528244</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>2012007765</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" t="n">
+        <v>109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.3458624</v>
+      </c>
+      <c r="E7" t="n">
+        <v>59.05395850748749</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>2013007376</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D8" t="n">
+        <v>69.97885918327789</v>
+      </c>
+      <c r="E8" t="n">
+        <v>73.49596985573582</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>2013008794</v>
+      </c>
+      <c r="B9" t="n">
+        <v>59</v>
+      </c>
+      <c r="C9" t="n">
+        <v>118</v>
+      </c>
+      <c r="D9" t="n">
+        <v>49.29884018327788</v>
+      </c>
+      <c r="E9" t="n">
+        <v>74.16271455896981</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>2014007834</v>
+      </c>
+      <c r="B10" t="n">
+        <v>88</v>
+      </c>
+      <c r="C10" t="n">
         <v>143</v>
       </c>
-      <c r="D3" t="n">
-        <v>72.66710073600001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>73.54275951019062</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="n"/>
+      <c r="D10" t="n">
+        <v>50.3761468</v>
+      </c>
+      <c r="E10" t="n">
+        <v>59.73146392539275</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
+      <c r="A11" s="7" t="n">
+        <v>2016003755</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.17923659824407</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="7" t="n">
+        <v>2014001566</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34</v>
+      </c>
+      <c r="D12" t="n">
+        <v>74.22751678327785</v>
+      </c>
+      <c r="E12" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
+      <c r="A13" s="7" t="n">
+        <v>2014001566</v>
+      </c>
+      <c r="B13" t="n">
+        <v>49</v>
+      </c>
+      <c r="C13" t="n">
+        <v>121</v>
+      </c>
+      <c r="D13" t="n">
+        <v>72.68255040000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="7" t="n">
+        <v>2013006609</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40</v>
+      </c>
+      <c r="C14" t="n">
+        <v>123</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29.55128719566241</v>
+      </c>
+      <c r="E14" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n"/>
@@ -1998,7 +2562,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2016,8 +2580,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="11.7109375" customWidth="1" min="2" max="2"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="2" min="2" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2472,7 +3036,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -2489,7 +3053,7 @@
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
@@ -2506,7 +3070,7 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
@@ -2523,7 +3087,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -2540,7 +3104,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -2557,7 +3121,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -2608,7 +3172,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -2625,7 +3189,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -2710,7 +3274,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -2761,7 +3325,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -2812,7 +3376,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -2880,7 +3444,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -2931,7 +3495,7 @@
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D54" s="4" t="n"/>
       <c r="E54" s="4" t="n"/>
@@ -4918,7 +5482,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -4993,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5079,7 +5643,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5190,7 +5754,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5236,7 +5800,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5555,7 +6119,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5573,10 +6137,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5597,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>5.32977239543569</v>
+        <v>5.515700162614725</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5606,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>5.590909789154792</v>
+        <v>4.163590584499095</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5615,7 +6179,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>4.797039123797391</v>
+        <v>4.163590584499095</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5624,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>6.006777523354425</v>
+        <v>4.163590584499095</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5633,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>6.497047386061909</v>
+        <v>3.00745184865097</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5642,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>6.128207619868802</v>
+        <v>3.00745184865097</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5651,7 +6215,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>5.24465551271367</v>
+        <v>3.00745184865097</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5660,7 +6224,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>5.435048268567703</v>
+        <v>1.28732545749358</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5669,7 +6233,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>4.00571026304175</v>
+        <v>1.28732545749358</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5678,7 +6242,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>4.288858353661068</v>
+        <v>1.28732545749358</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5687,7 +6251,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>4.698434338560868</v>
+        <v>2.759737095267039</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5696,7 +6260,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>4.56272109573309</v>
+        <v>2.759737095267039</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5705,7 +6269,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>3.327294463123222</v>
+        <v>2.759737095267039</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5714,7 +6278,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>3.56057305548769</v>
+        <v>1.5570356104184</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5723,7 +6287,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>3.636885472386199</v>
+        <v>1.5570356104184</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5732,7 +6296,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>4.306452339220908</v>
+        <v>1.5570356104184</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5741,7 +6305,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>4.938823555575103</v>
+        <v>1.866166982542175</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5750,7 +6314,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>5.009893074642648</v>
+        <v>1.866166982542175</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5759,7 +6323,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3.07608028109056</v>
+        <v>1.866166982542175</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5768,7 +6332,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>5.100399116786598</v>
+        <v>4.269995804547064</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5777,7 +6341,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3.623549801693903</v>
+        <v>4.269995804547064</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5786,7 +6350,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>3.663406356469821</v>
+        <v>4.269995804547064</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5795,7 +6359,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.737368958161849</v>
+        <v>2.169099251043977</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5804,7 +6368,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2.44539085802745</v>
+        <v>2.169099251043977</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5813,7 +6377,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.4341957613403023</v>
+        <v>2.169099251043977</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5822,7 +6386,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.521292461933457</v>
+        <v>0</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5831,7 +6395,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.297064128573405</v>
+        <v>0</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5840,7 +6404,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.13208635039741</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5849,7 +6413,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.5292821873882189</v>
+        <v>0</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5858,7 +6422,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.213153022644644</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5867,7 +6431,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.6473625876533446</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5894,7 +6458,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.6719879377252649</v>
+        <v>0</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5903,7 +6467,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.4855621295808548</v>
+        <v>0</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5948,7 +6512,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.4421645953782155</v>
+        <v>0</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -5975,7 +6539,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.1171519304641678</v>
+        <v>0</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6002,7 +6566,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.7644401062453999</v>
+        <v>0</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6038,7 +6602,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.1729454068793425</v>
+        <v>0</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6065,7 +6629,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0</v>
+        <v>2.369705143273511</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6074,7 +6638,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.7831005420732953</v>
+        <v>2.369705143273511</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6083,7 +6647,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.670528796657361</v>
+        <v>2.369705143273511</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6092,7 +6656,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.1581323981690881</v>
+        <v>2.719945768184713</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6101,7 +6665,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.6945220956766447</v>
+        <v>2.719945768184713</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6110,7 +6674,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2.434603979026692</v>
+        <v>2.719945768184713</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6119,7 +6683,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.272623759510765</v>
+        <v>6.556284785007905</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6128,7 +6692,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.581790547887602</v>
+        <v>6.556284785007905</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6137,7 +6701,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>4.64988871278541</v>
+        <v>6.556284785007905</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6146,7 +6710,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>3.552258902236832</v>
+        <v>7.789730944149243</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6155,7 +6719,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>3.592335208009128</v>
+        <v>7.789730944149243</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6164,7 +6728,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4.23196262284132</v>
+        <v>7.789730944149243</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6173,7 +6737,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>5.697595176975618</v>
+        <v>10.37995769836621</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6182,7 +6746,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>5.763582415226225</v>
+        <v>10.37995769836621</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6191,7 +6755,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>5.597621245399463</v>
+        <v>10.37995769836621</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6200,7 +6764,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>7.04218943211143</v>
+        <v>13.36738437752138</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6209,7 +6773,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>6.448935423434026</v>
+        <v>13.36738437752138</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6218,7 +6782,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>6.572473006481189</v>
+        <v>13.36738437752138</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6227,7 +6791,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>6.705107355880927</v>
+        <v>14.84618200232845</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6236,7 +6800,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>8.283837032893459</v>
+        <v>14.84618200232845</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6245,7 +6809,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>9.306705293561711</v>
+        <v>14.84618200232845</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6254,7 +6818,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>10.48656965042945</v>
+        <v>15.53435046556092</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6263,7 +6827,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>8.395226546060593</v>
+        <v>15.53435046556092</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6272,7 +6836,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>9.383194443718166</v>
+        <v>15.53435046556092</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6281,7 +6845,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>10.1467294050429</v>
+        <v>16.13091762281836</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6290,7 +6854,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>9.744486248413363</v>
+        <v>16.13091762281836</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6299,7 +6863,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>8.821563968470755</v>
+        <v>16.13091762281836</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6308,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>9.072037335652849</v>
+        <v>17.53415916102632</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6317,7 +6881,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>9.466562969997247</v>
+        <v>17.53415916102632</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6326,7 +6890,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>9.295751341382887</v>
+        <v>17.53415916102632</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6335,7 +6899,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>10.15663835788732</v>
+        <v>17.81018499894861</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6344,7 +6908,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>10.47020281522048</v>
+        <v>17.81018499894861</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6353,7 +6917,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>9.186876164197757</v>
+        <v>17.81018499894861</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6362,7 +6926,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>10.48056129675778</v>
+        <v>18.48689018190867</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6371,7 +6935,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>10.24231671571076</v>
+        <v>18.48689018190867</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6380,7 +6944,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>9.92224721946611</v>
+        <v>18.48689018190867</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6389,7 +6953,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>3.502353347407245</v>
+        <v>18.93493747962216</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6398,7 +6962,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>0.5298101081390236</v>
+        <v>18.93493747962216</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6407,7 +6971,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>2.739621559288422</v>
+        <v>18.93493747962216</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6416,7 +6980,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>3.44583858937402</v>
+        <v>18.81565495409813</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6425,7 +6989,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>3.176119147676066</v>
+        <v>18.81565495409813</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6434,7 +6998,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>5.356969815018403</v>
+        <v>18.81565495409813</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6443,7 +7007,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>3.867631558266622</v>
+        <v>18.80463487167981</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6452,7 +7016,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>5.277288576575643</v>
+        <v>18.80463487167981</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6461,7 +7025,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>7.385857562511433</v>
+        <v>18.80463487167981</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6470,7 +7034,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>6.733954929839073</v>
+        <v>19.12107450475508</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6479,7 +7043,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>7.02884682620587</v>
+        <v>19.12107450475508</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6488,7 +7052,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>7.862346425098428</v>
+        <v>19.12107450475508</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6497,7 +7061,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>8.652265647827983</v>
+        <v>19.19311765741358</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6506,7 +7070,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>6.121048857175634</v>
+        <v>19.19311765741358</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6515,7 +7079,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>6.763001367400072</v>
+        <v>19.19311765741358</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6524,7 +7088,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>4.694428477734779</v>
+        <v>18.99752115438519</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6533,7 +7097,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>7.400588644066348</v>
+        <v>18.99752115438519</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6542,7 +7106,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>5.762003197431989</v>
+        <v>18.99752115438519</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6551,7 +7115,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>6.082606328087816</v>
+        <v>17.47458568267161</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6560,7 +7124,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>7.094367947831425</v>
+        <v>17.47458568267161</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6569,7 +7133,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>6.66202610017938</v>
+        <v>17.47458568267161</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6578,7 +7142,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>5.453449847182665</v>
+        <v>15.34158470174381</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6587,7 +7151,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>5.359229098632825</v>
+        <v>15.34158470174381</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6596,7 +7160,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>5.295452277020138</v>
+        <v>15.34158470174381</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6605,7 +7169,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>6.478273272950512</v>
+        <v>11.13215498583738</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6614,7 +7178,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>5.260564738432759</v>
+        <v>11.13215498583738</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6623,7 +7187,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>1.731736359032757</v>
+        <v>11.13215498583738</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6632,7 +7196,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>2.871051001506572</v>
+        <v>8.790228019544685</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6641,7 +7205,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>3.627430525693182</v>
+        <v>8.790228019544685</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6650,7 +7214,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>3.98765689073505</v>
+        <v>8.790228019544685</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6659,7 +7223,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>3.353197246658993</v>
+        <v>8.022591023885067</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6668,7 +7232,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>2.709941915327859</v>
+        <v>8.022591023885067</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6677,7 +7241,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>2.228513318093938</v>
+        <v>8.022591023885067</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6686,7 +7250,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>4.623547355637758</v>
+        <v>7.125002044724219</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6695,7 +7259,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>2.720234653982958</v>
+        <v>7.125002044724219</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6704,7 +7268,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>4.323093819431056</v>
+        <v>7.125002044724219</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6713,7 +7277,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>3.074891912597345</v>
+        <v>8.493581880320107</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6722,7 +7286,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>4.655865202802716</v>
+        <v>8.493581880320107</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6731,7 +7295,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>6.572113108603461</v>
+        <v>8.493581880320107</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6740,7 +7304,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>4.514513290580803</v>
+        <v>7.972080521951625</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6749,7 +7313,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>4.591059153388503</v>
+        <v>7.972080521951625</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6758,7 +7322,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>4.217792762946105</v>
+        <v>7.972080521951625</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6767,7 +7331,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>4.778791612782773</v>
+        <v>6.783492101674497</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6776,7 +7340,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>6.071748891712833</v>
+        <v>6.783492101674497</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6785,7 +7349,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>5.349938102774812</v>
+        <v>6.783492101674497</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6794,7 +7358,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>7.094561720091987</v>
+        <v>6.455491680204684</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6803,7 +7367,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>6.530679763083893</v>
+        <v>6.455491680204684</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6812,7 +7376,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>6.870020370589474</v>
+        <v>6.455491680204684</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6821,7 +7385,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>4.168897598750762</v>
+        <v>6.201930400658183</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6830,7 +7394,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>5.626267236256185</v>
+        <v>6.201930400658183</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6839,7 +7403,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>4.690237931165024</v>
+        <v>6.201930400658183</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6848,7 +7412,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>4.835383675471429</v>
+        <v>6.446369667281656</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6857,7 +7421,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>4.984035952299952</v>
+        <v>6.446369667281656</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6866,7 +7430,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>4.989506664179041</v>
+        <v>6.446369667281656</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6875,7 +7439,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>5.135206028021384</v>
+        <v>5.515700162614725</v>
       </c>
     </row>
     <row r="145">
@@ -6883,14 +7447,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>5.821472759507667</v>
+        <v>5.515700162614725</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6908,8 +7472,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6930,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-21.67135451681592</v>
+        <v>-29.93373703982763</v>
       </c>
     </row>
     <row r="3">
@@ -6938,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-21.64057742291325</v>
+        <v>-29.61232497712167</v>
       </c>
     </row>
     <row r="4">
@@ -6946,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-21.65928718152002</v>
+        <v>-29.61232497712167</v>
       </c>
     </row>
     <row r="5">
@@ -6954,7 +7518,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-21.68385823718889</v>
+        <v>-29.61232497712167</v>
       </c>
     </row>
     <row r="6">
@@ -6962,7 +7526,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-21.74642421003318</v>
+        <v>-29.31689177547458</v>
       </c>
     </row>
     <row r="7">
@@ -6970,7 +7534,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-21.68709514064582</v>
+        <v>-29.31689177547458</v>
       </c>
     </row>
     <row r="8">
@@ -6978,7 +7542,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-21.744186189457</v>
+        <v>-29.31689177547458</v>
       </c>
     </row>
     <row r="9">
@@ -6986,7 +7550,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-24.79285503787017</v>
+        <v>-29.17522224803747</v>
       </c>
     </row>
     <row r="10">
@@ -6994,7 +7558,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-24.53038235413926</v>
+        <v>-29.17522224803747</v>
       </c>
     </row>
     <row r="11">
@@ -7002,7 +7566,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-24.45984918736211</v>
+        <v>-29.17522224803747</v>
       </c>
     </row>
     <row r="12">
@@ -7010,7 +7574,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-25.05805719647756</v>
+        <v>-29.32489490249362</v>
       </c>
     </row>
     <row r="13">
@@ -7018,7 +7582,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-25.73706019548857</v>
+        <v>-29.32489490249362</v>
       </c>
     </row>
     <row r="14">
@@ -7026,7 +7590,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-21.96966408998007</v>
+        <v>-29.32489490249362</v>
       </c>
     </row>
     <row r="15">
@@ -7034,7 +7598,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-25.1022928172194</v>
+        <v>-29.57693861605335</v>
       </c>
     </row>
     <row r="16">
@@ -7042,7 +7606,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-22.03345042441474</v>
+        <v>-29.57693861605335</v>
       </c>
     </row>
     <row r="17">
@@ -7050,7 +7614,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-24.63717508137792</v>
+        <v>-29.57693861605335</v>
       </c>
     </row>
     <row r="18">
@@ -7058,7 +7622,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-24.64047801391441</v>
+        <v>-29.19519661824105</v>
       </c>
     </row>
     <row r="19">
@@ -7066,7 +7630,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-22.05174028425004</v>
+        <v>-29.19519661824105</v>
       </c>
     </row>
     <row r="20">
@@ -7074,7 +7638,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-25.12076525473799</v>
+        <v>-29.19519661824105</v>
       </c>
     </row>
     <row r="21">
@@ -7082,7 +7646,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-25.32010923657194</v>
+        <v>-29.49333882578485</v>
       </c>
     </row>
     <row r="22">
@@ -7090,7 +7654,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-26.11978083145794</v>
+        <v>-29.49333882578485</v>
       </c>
     </row>
     <row r="23">
@@ -7098,7 +7662,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-25.0711408683077</v>
+        <v>-29.49333882578485</v>
       </c>
     </row>
     <row r="24">
@@ -7106,7 +7670,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-25.48737247731862</v>
+        <v>-30.13288375131626</v>
       </c>
     </row>
     <row r="25">
@@ -7114,7 +7678,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-26.53623702003786</v>
+        <v>-30.13288375131626</v>
       </c>
     </row>
     <row r="26">
@@ -7122,7 +7686,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-26.90729602796759</v>
+        <v>-30.13288375131626</v>
       </c>
     </row>
     <row r="27">
@@ -7130,7 +7694,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-28.41289848581945</v>
+        <v>-30.58587430708573</v>
       </c>
     </row>
     <row r="28">
@@ -7138,7 +7702,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-27.80540982460964</v>
+        <v>-30.58587430708573</v>
       </c>
     </row>
     <row r="29">
@@ -7146,7 +7710,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-27.69885125272083</v>
+        <v>-30.58587430708573</v>
       </c>
     </row>
     <row r="30">
@@ -7154,7 +7718,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-27.52627152158011</v>
+        <v>-31.37186470081753</v>
       </c>
     </row>
     <row r="31">
@@ -7162,7 +7726,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-28.12494392950909</v>
+        <v>-31.37186470081753</v>
       </c>
     </row>
     <row r="32">
@@ -7170,7 +7734,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-28.22210386302794</v>
+        <v>-31.37186470081753</v>
       </c>
     </row>
     <row r="33">
@@ -7178,7 +7742,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-28.41562460001236</v>
+        <v>-33.37249227081917</v>
       </c>
     </row>
     <row r="34">
@@ -7186,7 +7750,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-28.41665656295951</v>
+        <v>-33.37249227081917</v>
       </c>
     </row>
     <row r="35">
@@ -7194,7 +7758,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-29.0285406975222</v>
+        <v>-33.37249227081917</v>
       </c>
     </row>
     <row r="36">
@@ -7202,7 +7766,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-29.87133777381277</v>
+        <v>-34.0829218740935</v>
       </c>
     </row>
     <row r="37">
@@ -7210,7 +7774,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-29.6662137203131</v>
+        <v>-34.0829218740935</v>
       </c>
     </row>
     <row r="38">
@@ -7218,7 +7782,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-30.01411632626767</v>
+        <v>-34.0829218740935</v>
       </c>
     </row>
     <row r="39">
@@ -7226,7 +7790,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-29.50781676454931</v>
+        <v>-34.70875917649447</v>
       </c>
     </row>
     <row r="40">
@@ -7234,7 +7798,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-29.15235037840043</v>
+        <v>-34.70875917649447</v>
       </c>
     </row>
     <row r="41">
@@ -7242,7 +7806,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-29.66511827342744</v>
+        <v>-34.70875917649447</v>
       </c>
     </row>
     <row r="42">
@@ -7250,7 +7814,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-29.95662972276241</v>
+        <v>-35.09730468580989</v>
       </c>
     </row>
     <row r="43">
@@ -7258,7 +7822,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-29.88390506307383</v>
+        <v>-35.09730468580989</v>
       </c>
     </row>
     <row r="44">
@@ -7266,7 +7830,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-28.46860236208698</v>
+        <v>-35.09730468580989</v>
       </c>
     </row>
     <row r="45">
@@ -7274,7 +7838,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-30.05993556397476</v>
+        <v>-34.66196943593073</v>
       </c>
     </row>
     <row r="46">
@@ -7282,7 +7846,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-28.96851201707594</v>
+        <v>-34.66196943593073</v>
       </c>
     </row>
     <row r="47">
@@ -7290,7 +7854,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-30.4969548052778</v>
+        <v>-34.66196943593073</v>
       </c>
     </row>
     <row r="48">
@@ -7298,7 +7862,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-29.72638813951031</v>
+        <v>-34.64078331679912</v>
       </c>
     </row>
     <row r="49">
@@ -7306,7 +7870,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-29.51684595307862</v>
+        <v>-34.64078331679912</v>
       </c>
     </row>
     <row r="50">
@@ -7314,7 +7878,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-29.88052506162882</v>
+        <v>-34.64078331679912</v>
       </c>
     </row>
     <row r="51">
@@ -7322,7 +7886,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-30.24477190623026</v>
+        <v>-33.90379982118937</v>
       </c>
     </row>
     <row r="52">
@@ -7330,7 +7894,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-30.70225879171441</v>
+        <v>-33.90379982118937</v>
       </c>
     </row>
     <row r="53">
@@ -7338,7 +7902,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-29.73722021853217</v>
+        <v>-33.90379982118937</v>
       </c>
     </row>
     <row r="54">
@@ -7346,7 +7910,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-30.02304071712826</v>
+        <v>-33.0538284126639</v>
       </c>
     </row>
     <row r="55">
@@ -7354,7 +7918,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-28.72427639932633</v>
+        <v>-33.0538284126639</v>
       </c>
     </row>
     <row r="56">
@@ -7362,7 +7926,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-28.98632569281896</v>
+        <v>-33.0538284126639</v>
       </c>
     </row>
     <row r="57">
@@ -7370,7 +7934,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-29.66451193158535</v>
+        <v>-32.20824534638617</v>
       </c>
     </row>
     <row r="58">
@@ -7378,7 +7942,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-30.09191211200815</v>
+        <v>-32.20824534638617</v>
       </c>
     </row>
     <row r="59">
@@ -7386,7 +7950,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-28.39479956563244</v>
+        <v>-32.20824534638617</v>
       </c>
     </row>
     <row r="60">
@@ -7394,7 +7958,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-27.95752928538304</v>
+        <v>-31.18230351745938</v>
       </c>
     </row>
     <row r="61">
@@ -7402,7 +7966,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-27.81942218248888</v>
+        <v>-31.18230351745938</v>
       </c>
     </row>
     <row r="62">
@@ -7410,7 +7974,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-27.94391633323202</v>
+        <v>-31.18230351745938</v>
       </c>
     </row>
     <row r="63">
@@ -7418,7 +7982,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-28.3069810435984</v>
+        <v>-30.2517008976602</v>
       </c>
     </row>
     <row r="64">
@@ -7426,7 +7990,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-28.28121290809795</v>
+        <v>-30.2517008976602</v>
       </c>
     </row>
     <row r="65">
@@ -7434,7 +7998,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-27.0887784740353</v>
+        <v>-30.2517008976602</v>
       </c>
     </row>
     <row r="66">
@@ -7442,7 +8006,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-26.90008149343288</v>
+        <v>-29.0196946389256</v>
       </c>
     </row>
     <row r="67">
@@ -7450,7 +8014,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-26.91743347806852</v>
+        <v>-29.0196946389256</v>
       </c>
     </row>
     <row r="68">
@@ -7458,7 +8022,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-27.36907320562246</v>
+        <v>-29.0196946389256</v>
       </c>
     </row>
     <row r="69">
@@ -7466,7 +8030,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-26.37449412795065</v>
+        <v>-28.13516302202525</v>
       </c>
     </row>
     <row r="70">
@@ -7474,7 +8038,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-26.88250082661083</v>
+        <v>-28.13516302202525</v>
       </c>
     </row>
     <row r="71">
@@ -7482,7 +8046,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-26.22468963391438</v>
+        <v>-28.13516302202525</v>
       </c>
     </row>
     <row r="72">
@@ -7490,7 +8054,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-26.13963836643768</v>
+        <v>-27.21972733756251</v>
       </c>
     </row>
     <row r="73">
@@ -7498,7 +8062,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-25.94732765921971</v>
+        <v>-27.21972733756251</v>
       </c>
     </row>
     <row r="74">
@@ -7506,7 +8070,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-25.99782797731412</v>
+        <v>-27.21972733756251</v>
       </c>
     </row>
     <row r="75">
@@ -7514,7 +8078,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-26.00721819739729</v>
+        <v>-26.59145975097495</v>
       </c>
     </row>
     <row r="76">
@@ -7522,7 +8086,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-26.45799198704394</v>
+        <v>-26.59145975097495</v>
       </c>
     </row>
     <row r="77">
@@ -7530,7 +8094,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-26.36455980820989</v>
+        <v>-26.59145975097495</v>
       </c>
     </row>
     <row r="78">
@@ -7538,7 +8102,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-25.66673176856308</v>
+        <v>-26.237617403862</v>
       </c>
     </row>
     <row r="79">
@@ -7546,7 +8110,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-25.62950408199938</v>
+        <v>-26.237617403862</v>
       </c>
     </row>
     <row r="80">
@@ -7554,7 +8118,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-26.04868525724957</v>
+        <v>-26.237617403862</v>
       </c>
     </row>
     <row r="81">
@@ -7562,7 +8126,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-25.69732335088875</v>
+        <v>-25.97068498587634</v>
       </c>
     </row>
     <row r="82">
@@ -7570,7 +8134,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-26.02406436035468</v>
+        <v>-25.97068498587634</v>
       </c>
     </row>
     <row r="83">
@@ -7578,7 +8142,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-25.88668487667133</v>
+        <v>-25.97068498587634</v>
       </c>
     </row>
     <row r="84">
@@ -7586,7 +8150,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-25.73180857398314</v>
+        <v>-25.8817691297697</v>
       </c>
     </row>
     <row r="85">
@@ -7594,7 +8158,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-26.07876795359499</v>
+        <v>-25.8817691297697</v>
       </c>
     </row>
     <row r="86">
@@ -7602,7 +8166,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-25.71847884995731</v>
+        <v>-25.8817691297697</v>
       </c>
     </row>
     <row r="87">
@@ -7610,7 +8174,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-25.61995575791708</v>
+        <v>-26.06347752508965</v>
       </c>
     </row>
     <row r="88">
@@ -7618,7 +8182,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-25.63691958835055</v>
+        <v>-26.06347752508965</v>
       </c>
     </row>
     <row r="89">
@@ -7626,7 +8190,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-25.45091478969147</v>
+        <v>-26.06347752508965</v>
       </c>
     </row>
     <row r="90">
@@ -7634,7 +8198,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-25.54464153970912</v>
+        <v>-26.03416380934019</v>
       </c>
     </row>
     <row r="91">
@@ -7642,7 +8206,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-25.60751711484617</v>
+        <v>-26.03416380934019</v>
       </c>
     </row>
     <row r="92">
@@ -7650,7 +8214,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-25.45739303970552</v>
+        <v>-26.03416380934019</v>
       </c>
     </row>
     <row r="93">
@@ -7658,7 +8222,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-26.13863963904493</v>
+        <v>-25.96695238538822</v>
       </c>
     </row>
     <row r="94">
@@ -7666,7 +8230,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-25.65950498875818</v>
+        <v>-25.96695238538822</v>
       </c>
     </row>
     <row r="95">
@@ -7674,7 +8238,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-25.72898346747913</v>
+        <v>-25.96695238538822</v>
       </c>
     </row>
     <row r="96">
@@ -7682,7 +8246,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-25.71461314247897</v>
+        <v>-26.02742407603721</v>
       </c>
     </row>
     <row r="97">
@@ -7690,7 +8254,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-25.59030960346075</v>
+        <v>-26.02742407603721</v>
       </c>
     </row>
     <row r="98">
@@ -7698,7 +8262,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-25.94516968361862</v>
+        <v>-26.02742407603721</v>
       </c>
     </row>
     <row r="99">
@@ -7706,7 +8270,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-25.82122126069994</v>
+        <v>-26.0211557357581</v>
       </c>
     </row>
     <row r="100">
@@ -7714,7 +8278,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-25.80123156421883</v>
+        <v>-26.0211557357581</v>
       </c>
     </row>
     <row r="101">
@@ -7722,7 +8286,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-26.29195434375972</v>
+        <v>-26.0211557357581</v>
       </c>
     </row>
     <row r="102">
@@ -7730,7 +8294,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-26.07116003125924</v>
+        <v>-25.94770373440051</v>
       </c>
     </row>
     <row r="103">
@@ -7738,7 +8302,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-27.44005054986009</v>
+        <v>-25.94770373440051</v>
       </c>
     </row>
     <row r="104">
@@ -7746,7 +8310,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-27.61063076958988</v>
+        <v>-25.94770373440051</v>
       </c>
     </row>
     <row r="105">
@@ -7754,7 +8318,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-26.73083337699573</v>
+        <v>-26.01941142567927</v>
       </c>
     </row>
     <row r="106">
@@ -7762,7 +8326,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-27.34732266897237</v>
+        <v>-26.01941142567927</v>
       </c>
     </row>
     <row r="107">
@@ -7770,7 +8334,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-27.24044269084518</v>
+        <v>-26.01941142567927</v>
       </c>
     </row>
     <row r="108">
@@ -7778,7 +8342,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-26.7842261834811</v>
+        <v>-26.4149500246634</v>
       </c>
     </row>
     <row r="109">
@@ -7786,7 +8350,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-27.22162857176365</v>
+        <v>-26.4149500246634</v>
       </c>
     </row>
     <row r="110">
@@ -7794,7 +8358,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-27.52172804639097</v>
+        <v>-26.4149500246634</v>
       </c>
     </row>
     <row r="111">
@@ -7802,7 +8366,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-26.74461229022686</v>
+        <v>-26.69167903265432</v>
       </c>
     </row>
     <row r="112">
@@ -7810,7 +8374,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-26.7585292493237</v>
+        <v>-26.69167903265432</v>
       </c>
     </row>
     <row r="113">
@@ -7818,7 +8382,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-26.27463172480028</v>
+        <v>-26.69167903265432</v>
       </c>
     </row>
     <row r="114">
@@ -7826,7 +8390,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-26.6529931282552</v>
+        <v>-27.30386044891064</v>
       </c>
     </row>
     <row r="115">
@@ -7834,7 +8398,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-27.69343679580852</v>
+        <v>-27.30386044891064</v>
       </c>
     </row>
     <row r="116">
@@ -7842,7 +8406,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-28.08899949243554</v>
+        <v>-27.30386044891064</v>
       </c>
     </row>
     <row r="117">
@@ -7850,7 +8414,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-27.14635210952966</v>
+        <v>-27.84553749762864</v>
       </c>
     </row>
     <row r="118">
@@ -7858,7 +8422,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-26.95386162879974</v>
+        <v>-27.84553749762864</v>
       </c>
     </row>
     <row r="119">
@@ -7866,7 +8430,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-27.27488829176531</v>
+        <v>-27.84553749762864</v>
       </c>
     </row>
     <row r="120">
@@ -7874,7 +8438,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-27.85042927426669</v>
+        <v>-29.01357640278715</v>
       </c>
     </row>
     <row r="121">
@@ -7882,7 +8446,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-27.73782867297488</v>
+        <v>-29.01357640278715</v>
       </c>
     </row>
     <row r="122">
@@ -7890,7 +8454,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-27.16930746637809</v>
+        <v>-29.01357640278715</v>
       </c>
     </row>
     <row r="123">
@@ -7898,7 +8462,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-27.1774283480113</v>
+        <v>-29.22613104013197</v>
       </c>
     </row>
     <row r="124">
@@ -7906,7 +8470,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-27.33963643177755</v>
+        <v>-29.22613104013197</v>
       </c>
     </row>
     <row r="125">
@@ -7914,7 +8478,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-27.17853563262708</v>
+        <v>-29.22613104013197</v>
       </c>
     </row>
     <row r="126">
@@ -7922,7 +8486,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-26.8919116367687</v>
+        <v>-28.99318597951617</v>
       </c>
     </row>
     <row r="127">
@@ -7930,7 +8494,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-25.49917642101494</v>
+        <v>-28.99318597951617</v>
       </c>
     </row>
     <row r="128">
@@ -7938,7 +8502,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-25.48568692659405</v>
+        <v>-28.99318597951617</v>
       </c>
     </row>
     <row r="129">
@@ -7946,7 +8510,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-25.56851110170431</v>
+        <v>-29.1538189491332</v>
       </c>
     </row>
     <row r="130">
@@ -7954,7 +8518,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-26.74276592404242</v>
+        <v>-29.1538189491332</v>
       </c>
     </row>
     <row r="131">
@@ -7962,7 +8526,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-26.93285170110893</v>
+        <v>-29.1538189491332</v>
       </c>
     </row>
     <row r="132">
@@ -7970,7 +8534,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-25.12659288577669</v>
+        <v>-29.49290016582155</v>
       </c>
     </row>
     <row r="133">
@@ -7978,7 +8542,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-25.00440649500293</v>
+        <v>-29.49290016582155</v>
       </c>
     </row>
     <row r="134">
@@ -7986,7 +8550,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-25.31870913725236</v>
+        <v>-29.49290016582155</v>
       </c>
     </row>
     <row r="135">
@@ -7994,7 +8558,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-24.9433835726064</v>
+        <v>-29.58303530195567</v>
       </c>
     </row>
     <row r="136">
@@ -8002,7 +8566,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-24.66345793378363</v>
+        <v>-29.58303530195567</v>
       </c>
     </row>
     <row r="137">
@@ -8010,7 +8574,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-24.84150479550264</v>
+        <v>-29.58303530195567</v>
       </c>
     </row>
     <row r="138">
@@ -8018,7 +8582,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-21.9284510779523</v>
+        <v>-29.2827220155606</v>
       </c>
     </row>
     <row r="139">
@@ -8026,7 +8590,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-21.92006044084552</v>
+        <v>-29.2827220155606</v>
       </c>
     </row>
     <row r="140">
@@ -8034,7 +8598,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-21.92766992387894</v>
+        <v>-29.2827220155606</v>
       </c>
     </row>
     <row r="141">
@@ -8042,7 +8606,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-21.77265615908023</v>
+        <v>-29.15797824466797</v>
       </c>
     </row>
     <row r="142">
@@ -8050,7 +8614,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-24.55381462185655</v>
+        <v>-29.15797824466797</v>
       </c>
     </row>
     <row r="143">
@@ -8058,7 +8622,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-21.85049203621035</v>
+        <v>-29.15797824466797</v>
       </c>
     </row>
     <row r="144">
@@ -8066,7 +8630,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-21.76362169274697</v>
+        <v>-29.93373703982763</v>
       </c>
     </row>
     <row r="145">
@@ -8074,14 +8638,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-21.72521415565416</v>
+        <v>-29.93373703982763</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -8112,6 +8676,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix18.xlsx
+++ b/testcases/timeseries/EVDay01_mix18.xlsx
@@ -1868,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016003852</v>
+        <v>2012010671</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012001231</v>
+        <v>2014008357</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2014007380</v>
+        <v>2012010691</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012007765</v>
+        <v>2012003847</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013007376</v>
+        <v>2016004395</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2013008794</v>
+        <v>2013000568</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2014007834</v>
+        <v>2015001549</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2016003755</v>
+        <v>2014008447</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2014001566</v>
+        <v>2013007999</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2013006609</v>
+        <v>2015004173</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2225,7 +2225,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2297,67 +2297,67 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016003852</v>
+        <v>2012010671</v>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>33.16030446054119</v>
+        <v>15.86033875446736</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>29.99999999446734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012001231</v>
+        <v>2014008357</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>24.46387039446736</v>
+        <v>52.75796999566239</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2014007380</v>
+        <v>2012010691</v>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>38.632061</v>
+        <v>36.16977026054121</v>
       </c>
       <c r="E4" t="n">
-        <v>39.07506207807812</v>
+        <v>37.22460269049567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2014007380</v>
+        <v>2012010691</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D5" t="n">
-        <v>39.0424427</v>
+        <v>39.1792366</v>
       </c>
       <c r="E5" t="n">
         <v>40</v>
@@ -2365,159 +2365,173 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2014007380</v>
+        <v>2012003847</v>
       </c>
       <c r="B6" t="n">
+        <v>38</v>
+      </c>
+      <c r="C6" t="n">
         <v>111</v>
       </c>
-      <c r="C6" t="n">
-        <v>123</v>
-      </c>
       <c r="D6" t="n">
-        <v>39.4528244</v>
+        <v>21.26412199824405</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2012007765</v>
+        <v>2016004395</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D7" t="n">
-        <v>20.3458624</v>
+        <v>33.2729582605412</v>
       </c>
       <c r="E7" t="n">
-        <v>59.05395850748749</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013007376</v>
+        <v>2013000568</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="D8" t="n">
-        <v>69.97885918327789</v>
+        <v>16.18410388987051</v>
       </c>
       <c r="E8" t="n">
-        <v>73.49596985573582</v>
+        <v>39.99446498695277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2013008794</v>
+        <v>2015001549</v>
       </c>
       <c r="B9" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D9" t="n">
-        <v>49.29884018327788</v>
+        <v>47.25402719566242</v>
       </c>
       <c r="E9" t="n">
-        <v>74.16271455896981</v>
+        <v>59.99999999566239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2014007834</v>
+        <v>2014008447</v>
       </c>
       <c r="B10" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n">
-        <v>50.3761468</v>
+        <v>73.06879198327789</v>
       </c>
       <c r="E10" t="n">
-        <v>59.73146392539275</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2016003755</v>
+        <v>2013007999</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>23.17923659824407</v>
+        <v>57.7791108</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2014001566</v>
+        <v>2013007999</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="D12" t="n">
-        <v>74.22751678327785</v>
+        <v>55.92836980000001</v>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2014001566</v>
+        <v>2013007999</v>
       </c>
       <c r="B13" t="n">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C13" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D13" t="n">
-        <v>72.68255040000001</v>
+        <v>57.7791108</v>
       </c>
       <c r="E13" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2013006609</v>
+        <v>2015004173</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D14" t="n">
-        <v>29.55128719566241</v>
+        <v>29.058857968</v>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
+      <c r="A15" s="7" t="n">
+        <v>2015004173</v>
+      </c>
+      <c r="B15" t="n">
+        <v>120</v>
+      </c>
+      <c r="C15" t="n">
+        <v>138</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29.72319352</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n"/>
